--- a/AinBOptimisationdataModel_LF_clusters.xlsx
+++ b/AinBOptimisationdataModel_LF_clusters.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="13960"/>
+    <workbookView xWindow="4380" yWindow="460" windowWidth="21220" windowHeight="13720"/>
   </bookViews>
   <sheets>
     <sheet name="Optimisation Model" sheetId="1" r:id="rId1"/>
@@ -990,9 +990,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1005,6 +1002,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1289,10 +1289,10 @@
   <dimension ref="A1:AG86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="T2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="U2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AE10" sqref="AE10"/>
+      <selection pane="bottomRight" activeCell="AD11" sqref="AD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1315,7 +1315,7 @@
     <col min="27" max="27" width="4.83203125" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="8" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="31" max="33" width="13" style="11" customWidth="1"/>
+    <col min="31" max="33" width="13" style="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.2">
@@ -1406,22 +1406,22 @@
         <v>2</v>
       </c>
       <c r="H2">
-        <v>0.2847986837409866</v>
+        <v>0.22609901280573991</v>
       </c>
       <c r="I2">
-        <v>1.6518323656977223</v>
+        <v>1.3113742742732915</v>
       </c>
       <c r="J2">
-        <v>0.44086387350270534</v>
+        <v>0.36075588931486707</v>
       </c>
       <c r="K2">
-        <v>2.557010466315691</v>
+        <v>2.092384158026229</v>
       </c>
       <c r="L2">
-        <v>0.39257460382794812</v>
+        <v>0.41776428620429445</v>
       </c>
       <c r="M2">
-        <v>2.2769327022020991</v>
+        <v>2.4230328599849078</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -1430,7 +1430,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q2">
         <f>N2*H2</f>
@@ -1442,7 +1442,7 @@
       </c>
       <c r="S2">
         <f>L2*P2</f>
-        <v>0</v>
+        <v>0.41776428620429445</v>
       </c>
       <c r="T2">
         <f>N2*C2</f>
@@ -1454,15 +1454,15 @@
       </c>
       <c r="V2">
         <f>P2*C2</f>
-        <v>0</v>
-      </c>
-      <c r="AE2" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE2" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="AF2" s="12" t="s">
+      <c r="AF2" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="AG2" s="12" t="s">
+      <c r="AG2" s="11" t="s">
         <v>159</v>
       </c>
     </row>
@@ -1489,22 +1489,22 @@
         <v>4</v>
       </c>
       <c r="H3">
-        <v>0.2811356412437831</v>
+        <v>0.29835173093283729</v>
       </c>
       <c r="I3">
-        <v>0.62714873815920846</v>
+        <v>0.6655538613117139</v>
       </c>
       <c r="J3">
-        <v>0.39444127085397485</v>
+        <v>0.37846944533056126</v>
       </c>
       <c r="K3">
-        <v>0.87990745036655926</v>
+        <v>0.84427799342971355</v>
       </c>
       <c r="L3">
-        <v>0.59225468915233481</v>
+        <v>0.40974657241980672</v>
       </c>
       <c r="M3">
-        <v>1.3211835373398237</v>
+        <v>0.91405004616726115</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -1513,7 +1513,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
         <f t="shared" ref="Q3:Q61" si="0">N3*H3</f>
@@ -1525,7 +1525,7 @@
       </c>
       <c r="S3">
         <f t="shared" ref="S3:S61" si="2">L3*P3</f>
-        <v>0.59225468915233481</v>
+        <v>0</v>
       </c>
       <c r="T3">
         <f t="shared" ref="T3:T61" si="3">N3*C3</f>
@@ -1537,27 +1537,27 @@
       </c>
       <c r="V3">
         <f t="shared" ref="V3:V61" si="5">P3*C3</f>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="Y3" s="9" t="s">
         <v>72</v>
       </c>
       <c r="Z3">
         <f>SUM('Optimisation Model'!Q2:Q61)+SUM('Optimisation Model'!R2:R61)+SUM('Optimisation Model'!S2:S61)</f>
-        <v>8.3610465476306661</v>
+        <v>7.5211315019749403</v>
       </c>
       <c r="AD3" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="AE3" s="13">
+      <c r="AE3" s="12">
         <f>SUM(N2+N4+N7+N8+N9+N11+N16+N18+N20+N21+N22+N23+N25+N26+N30+N31+N32+N34+N35+N36+N38+N39+N40+N46+N47+N48+N49+N51+N53+N59+N60+N61)</f>
         <v>2</v>
       </c>
-      <c r="AF3" s="13">
+      <c r="AF3" s="12">
         <f t="shared" ref="AF3:AG3" si="6">SUM(O2+O4+O7+O8+O9+O11+O16+O18+O20+O21+O22+O23+O25+O26+O30+O31+O32+O34+O35+O36+O38+O39+O40+O46+O47+O48+O49+O51+O53+O59+O60+O61)</f>
         <v>2</v>
       </c>
-      <c r="AG3" s="13">
+      <c r="AG3" s="12">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
@@ -1585,22 +1585,22 @@
         <v>2</v>
       </c>
       <c r="H4">
-        <v>0.31089914216744274</v>
+        <v>0.23942435662558204</v>
       </c>
       <c r="I4">
-        <v>1.8032150245711678</v>
+        <v>1.3886612684283757</v>
       </c>
       <c r="J4">
-        <v>0.3498570680767098</v>
+        <v>0.28112493456712107</v>
       </c>
       <c r="K4">
-        <v>2.0291709948449168</v>
+        <v>1.630524620489302</v>
       </c>
       <c r="L4">
-        <v>0.21685943609796257</v>
+        <v>0.1026445770734719</v>
       </c>
       <c r="M4">
-        <v>1.2577847293681828</v>
+        <v>0.59533854702613698</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -1638,15 +1638,15 @@
       <c r="AD4" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="AE4" s="13">
+      <c r="AE4" s="12">
         <f>N13+N15+N29+N52+N57</f>
         <v>1</v>
       </c>
-      <c r="AF4" s="13">
+      <c r="AF4" s="12">
         <f t="shared" ref="AF4:AG4" si="7">O13+O15+O29+O52+O57</f>
-        <v>0</v>
-      </c>
-      <c r="AG4" s="13">
+        <v>1</v>
+      </c>
+      <c r="AG4" s="12">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -1674,22 +1674,22 @@
         <v>4</v>
       </c>
       <c r="H5">
-        <v>3.184965608844418E-2</v>
+        <v>2.3887242066333133E-2</v>
       </c>
       <c r="I5">
-        <v>0.30788000885496042</v>
+        <v>0.2309100066412203</v>
       </c>
       <c r="J5">
-        <v>0.12741648165722569</v>
+        <v>0.11148942145007246</v>
       </c>
       <c r="K5">
-        <v>1.2316926560198482</v>
+        <v>1.0777310740173671</v>
       </c>
       <c r="L5">
-        <v>0.37655869633702777</v>
+        <v>0.28797457780832636</v>
       </c>
       <c r="M5">
-        <v>3.6400673979246019</v>
+        <v>2.7837542521471548</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -1724,25 +1724,25 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Z5" s="10" t="s">
+      <c r="Z5" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="AA5" s="10"/>
-      <c r="AB5" s="10"/>
+      <c r="AA5" s="16"/>
+      <c r="AB5" s="16"/>
       <c r="AD5" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="AE5" s="13">
+      <c r="AE5" s="12">
         <f>N3+N5+N6+N10+N12+N24+N27+N28+N37+N41+N45+N50+N54+N58</f>
         <v>2</v>
       </c>
-      <c r="AF5" s="13">
+      <c r="AF5" s="12">
         <f t="shared" ref="AF5:AG5" si="8">O3+O5+O6+O10+O12+O24+O27+O28+O37+O41+O45+O50+O54+O58</f>
         <v>2</v>
       </c>
-      <c r="AG5" s="13">
+      <c r="AG5" s="12">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.2">
@@ -1768,22 +1768,22 @@
         <v>4</v>
       </c>
       <c r="H6">
-        <v>9.2836670700066307E-2</v>
+        <v>7.5877503025049725E-2</v>
       </c>
       <c r="I6">
-        <v>0.29914038336688031</v>
+        <v>0.24449417641404911</v>
       </c>
       <c r="J6">
-        <v>0.15167002600181859</v>
+        <v>0.13271127275159122</v>
       </c>
       <c r="K6">
-        <v>0.48871452822808209</v>
+        <v>0.42762521219957172</v>
       </c>
       <c r="L6">
-        <v>0.42618248397924935</v>
+        <v>0.33630352965110366</v>
       </c>
       <c r="M6">
-        <v>1.3732546705998034</v>
+        <v>1.0836447066535562</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -1830,17 +1830,17 @@
       <c r="AD6" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="AE6" s="13">
+      <c r="AE6" s="12">
         <f>N14+N17+N19+N33+N42+N43+N44+N55+N56</f>
         <v>0</v>
       </c>
-      <c r="AF6" s="13">
+      <c r="AF6" s="12">
         <f t="shared" ref="AF6:AG6" si="9">O14+O17+O19+O33+O42+O43+O44+O55+O56</f>
-        <v>1</v>
-      </c>
-      <c r="AG6" s="13">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="12">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.2">
@@ -1866,22 +1866,22 @@
         <v>2</v>
       </c>
       <c r="H7">
-        <v>0.30712329075580341</v>
+        <v>0.26784246806685258</v>
       </c>
       <c r="I7">
-        <v>0.80968867562893632</v>
+        <v>0.70613014308533861</v>
       </c>
       <c r="J7">
-        <v>0.30109514033778301</v>
+        <v>0.2634582477955601</v>
       </c>
       <c r="K7">
-        <v>0.79379627907233707</v>
+        <v>0.69457174418829482</v>
       </c>
       <c r="L7">
-        <v>0.62618248397924936</v>
+        <v>0.51963686298443701</v>
       </c>
       <c r="M7">
-        <v>1.6508447304907483</v>
+        <v>1.3699517296862431</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -1890,7 +1890,7 @@
         <v>0</v>
       </c>
       <c r="P7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q7">
         <f t="shared" si="0"/>
@@ -1902,7 +1902,7 @@
       </c>
       <c r="S7">
         <f t="shared" si="2"/>
-        <v>0.62618248397924936</v>
+        <v>0</v>
       </c>
       <c r="T7">
         <f t="shared" si="3"/>
@@ -1914,9 +1914,9 @@
       </c>
       <c r="V7">
         <f t="shared" si="5"/>
-        <v>6</v>
-      </c>
-      <c r="Y7" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="15" t="s">
         <v>153</v>
       </c>
       <c r="Z7" s="7">
@@ -1953,22 +1953,22 @@
         <v>2</v>
       </c>
       <c r="H8">
-        <v>0.69853556200993083</v>
+        <v>0.73640167150744817</v>
       </c>
       <c r="I8">
-        <v>1.3505020865525328</v>
+        <v>1.423709898247733</v>
       </c>
       <c r="J8">
-        <v>0.62374130788749327</v>
+        <v>0.6374403110682233</v>
       </c>
       <c r="K8">
-        <v>1.2058998619158203</v>
+        <v>1.2323846013985649</v>
       </c>
       <c r="L8">
-        <v>0.55836169729975038</v>
+        <v>0.49099349519703506</v>
       </c>
       <c r="M8">
-        <v>1.0794992814461839</v>
+        <v>0.9492540907142677</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -2003,7 +2003,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Y8" s="16" t="s">
+      <c r="Y8" s="15" t="s">
         <v>154</v>
       </c>
       <c r="Z8" s="7">
@@ -2040,22 +2040,22 @@
         <v>2</v>
       </c>
       <c r="H9">
-        <v>0.13929388335927451</v>
+        <v>0.11697041251945589</v>
       </c>
       <c r="I9">
-        <v>4.0395226174189611</v>
+        <v>3.3921419630642209</v>
       </c>
       <c r="J9">
-        <v>0.15305985349971105</v>
+        <v>0.13392737181224712</v>
       </c>
       <c r="K9">
-        <v>4.4387357514916204</v>
+        <v>3.8838937825551665</v>
       </c>
       <c r="L9">
-        <v>0.46884982939793102</v>
+        <v>0.3738595942706705</v>
       </c>
       <c r="M9">
-        <v>13.59664505254</v>
+        <v>10.841928233849444</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -2064,7 +2064,7 @@
         <v>0</v>
       </c>
       <c r="P9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9">
         <f t="shared" si="0"/>
@@ -2076,7 +2076,7 @@
       </c>
       <c r="S9">
         <f t="shared" si="2"/>
-        <v>0.46884982939793102</v>
+        <v>0</v>
       </c>
       <c r="T9">
         <f t="shared" si="3"/>
@@ -2088,9 +2088,9 @@
       </c>
       <c r="V9">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="Y9" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="15" t="s">
         <v>155</v>
       </c>
       <c r="Z9" s="7">
@@ -2127,22 +2127,22 @@
         <v>4</v>
       </c>
       <c r="H10">
-        <v>0.20600108506777848</v>
+        <v>0.16700081380083387</v>
       </c>
       <c r="I10">
-        <v>0.66378127410728616</v>
+        <v>0.53811373335824242</v>
       </c>
       <c r="J10">
-        <v>0.16238537489058091</v>
+        <v>0.14208720302925831</v>
       </c>
       <c r="K10">
-        <v>0.52324176353631624</v>
+        <v>0.45783654309427679</v>
       </c>
       <c r="L10">
-        <v>0.46249009135446312</v>
+        <v>0.36908979073806958</v>
       </c>
       <c r="M10">
-        <v>1.4902458499199367</v>
+        <v>1.1892893257115575</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -2177,7 +2177,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Y10" s="15" t="s">
+      <c r="Y10" s="14" t="s">
         <v>84</v>
       </c>
       <c r="Z10" s="7">
@@ -2214,22 +2214,22 @@
         <v>2</v>
       </c>
       <c r="H11">
-        <v>0.11495733615225766</v>
+        <v>9.8718002114193237E-2</v>
       </c>
       <c r="I11">
-        <v>0.47625182120221027</v>
+        <v>0.40897458018737198</v>
       </c>
       <c r="J11">
-        <v>0.20823891471604311</v>
+        <v>0.18220905037653773</v>
       </c>
       <c r="K11">
-        <v>0.86270407525217851</v>
+        <v>0.7548660658456563</v>
       </c>
       <c r="L11">
-        <v>0.42277831486576933</v>
+        <v>0.33375040281599366</v>
       </c>
       <c r="M11">
-        <v>1.7515101615867585</v>
+        <v>1.3826802402376879</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -2264,7 +2264,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Y11" s="15" t="s">
+      <c r="Y11" s="14" t="s">
         <v>85</v>
       </c>
       <c r="Z11" s="7">
@@ -2301,28 +2301,28 @@
         <v>4</v>
       </c>
       <c r="H12">
-        <v>0.27558067065093883</v>
+        <v>0.2129355029882041</v>
       </c>
       <c r="I12">
-        <v>1.1416913498396037</v>
+        <v>0.88216136952255986</v>
       </c>
       <c r="J12">
-        <v>0.34120145147983494</v>
+        <v>0.4235512700448556</v>
       </c>
       <c r="K12">
-        <v>1.4135488704164589</v>
+        <v>1.7547124044715445</v>
       </c>
       <c r="L12">
-        <v>0.37582342468779645</v>
+        <v>0.24964534629362517</v>
       </c>
       <c r="M12">
-        <v>1.5569827594208709</v>
+        <v>1.0342450060735899</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P12">
         <v>0</v>
@@ -2333,7 +2333,7 @@
       </c>
       <c r="R12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.4235512700448556</v>
       </c>
       <c r="S12">
         <f t="shared" si="2"/>
@@ -2345,13 +2345,13 @@
       </c>
       <c r="U12">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V12">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Y12" s="15" t="s">
+      <c r="Y12" s="14" t="s">
         <v>86</v>
       </c>
       <c r="Z12" s="7">
@@ -2388,22 +2388,22 @@
         <v>3</v>
       </c>
       <c r="H13">
-        <v>0.26865463095646591</v>
+        <v>0.20774097321734944</v>
       </c>
       <c r="I13">
-        <v>0.59930648444134704</v>
+        <v>0.46342217102331795</v>
       </c>
       <c r="J13">
-        <v>0.374314668695098</v>
+        <v>0.30252533510821067</v>
       </c>
       <c r="K13">
-        <v>0.8350096455506032</v>
+        <v>0.67486420908754685</v>
       </c>
       <c r="L13">
-        <v>0.28892274935125423</v>
+        <v>0.17335872868010735</v>
       </c>
       <c r="M13">
-        <v>0.64451997932202865</v>
+        <v>0.38672331782485486</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -2438,7 +2438,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Y13" s="14" t="s">
+      <c r="Y13" s="13" t="s">
         <v>91</v>
       </c>
       <c r="Z13" s="7">
@@ -2475,28 +2475,28 @@
         <v>5</v>
       </c>
       <c r="H14">
-        <v>0.41251520812635073</v>
+        <v>0.29688640609476302</v>
       </c>
       <c r="I14">
-        <v>1.0875400941512883</v>
+        <v>0.78270052515892075</v>
       </c>
       <c r="J14">
-        <v>0.35603426872118205</v>
+        <v>0.28652998513103434</v>
       </c>
       <c r="K14">
-        <v>0.93863579935584363</v>
+        <v>0.75539723352727239</v>
       </c>
       <c r="L14">
-        <v>0.39225468915233486</v>
+        <v>0.30141323908647338</v>
       </c>
       <c r="M14">
-        <v>1.0341259986743374</v>
+        <v>0.79463490304615714</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P14">
         <v>0</v>
@@ -2507,7 +2507,7 @@
       </c>
       <c r="R14">
         <f t="shared" si="1"/>
-        <v>0.35603426872118205</v>
+        <v>0</v>
       </c>
       <c r="S14">
         <f t="shared" si="2"/>
@@ -2519,13 +2519,13 @@
       </c>
       <c r="U14">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="V14">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Y14" s="14" t="s">
+      <c r="Y14" s="13" t="s">
         <v>92</v>
       </c>
       <c r="Z14" s="7">
@@ -2562,22 +2562,22 @@
         <v>3</v>
       </c>
       <c r="H15">
-        <v>0.32499999999999996</v>
+        <v>0.20625000000000002</v>
       </c>
       <c r="I15">
-        <v>0.4960526315789473</v>
+        <v>0.31480263157894739</v>
       </c>
       <c r="J15">
-        <v>0.33330154827453273</v>
+        <v>0.23330552140688274</v>
       </c>
       <c r="K15">
-        <v>0.50872341578744473</v>
+        <v>0.35609790109471579</v>
       </c>
       <c r="L15">
-        <v>0.4933333333333334</v>
+        <v>0.4555555555555556</v>
       </c>
       <c r="M15">
-        <v>0.75298245614035098</v>
+        <v>0.69532163742690067</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -2612,7 +2612,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Y15" s="14" t="s">
+      <c r="Y15" s="13" t="s">
         <v>93</v>
       </c>
       <c r="Z15" s="7">
@@ -2649,22 +2649,22 @@
         <v>2</v>
       </c>
       <c r="H16">
-        <v>0.2</v>
+        <v>0.28749999999999998</v>
       </c>
       <c r="I16">
-        <v>1.9333333333333336</v>
+        <v>2.7791666666666663</v>
       </c>
       <c r="J16">
-        <v>0.15777271834474105</v>
+        <v>0.22971779521831504</v>
       </c>
       <c r="K16">
-        <v>1.5251362773324968</v>
+        <v>2.2206053537770454</v>
       </c>
       <c r="L16">
-        <v>0.27603383981744312</v>
+        <v>0.2348031576408601</v>
       </c>
       <c r="M16">
-        <v>2.6683271182352835</v>
+        <v>2.269763857194981</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -2704,7 +2704,7 @@
       </c>
       <c r="Z16" s="7">
         <f>'Optimisation Model'!N2+'Optimisation Model'!O2+'Optimisation Model'!P2</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA16" s="7">
         <v>1</v>
@@ -2736,22 +2736,22 @@
         <v>5</v>
       </c>
       <c r="H17">
-        <v>0.26760148867129757</v>
+        <v>0.29445111650347322</v>
       </c>
       <c r="I17">
-        <v>0.86227146349640327</v>
+        <v>0.94878693095563593</v>
       </c>
       <c r="J17">
-        <v>0.2966007625154396</v>
+        <v>0.29285900053434299</v>
       </c>
       <c r="K17">
-        <v>0.95571356810530539</v>
+        <v>0.94365677949954963</v>
       </c>
       <c r="L17">
-        <v>0.42021453472780906</v>
+        <v>0.25293867882363458</v>
       </c>
       <c r="M17">
-        <v>1.354024611900718</v>
+        <v>0.81502463176504469</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -2791,7 +2791,7 @@
       </c>
       <c r="Z17" s="7">
         <f>'Optimisation Model'!N3+'Optimisation Model'!O3+'Optimisation Model'!P3</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA17" s="7">
         <v>1</v>
@@ -2823,22 +2823,22 @@
         <v>2</v>
       </c>
       <c r="H18">
-        <v>0.34732585453294856</v>
+        <v>0.27299439089971145</v>
       </c>
       <c r="I18">
-        <v>0.43793259919371774</v>
+        <v>0.34421031896050575</v>
       </c>
       <c r="J18">
-        <v>0.63410817302586864</v>
+        <v>0.52984465139763504</v>
       </c>
       <c r="K18">
-        <v>0.7995276964239213</v>
+        <v>0.66806499524049634</v>
       </c>
       <c r="L18">
-        <v>0.43340325576313776</v>
+        <v>0.30394133071124224</v>
       </c>
       <c r="M18">
-        <v>0.54646497465786936</v>
+        <v>0.38323037350547934</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -2910,22 +2910,22 @@
         <v>5</v>
       </c>
       <c r="H19">
-        <v>0.21117538552833989</v>
+        <v>0.17713153914625493</v>
       </c>
       <c r="I19">
-        <v>0.55673510730198705</v>
+        <v>0.46698314865830848</v>
       </c>
       <c r="J19">
-        <v>0.19232629380821376</v>
+        <v>0.16828550708218701</v>
       </c>
       <c r="K19">
-        <v>0.50704204731256353</v>
+        <v>0.44366179139849304</v>
       </c>
       <c r="L19">
-        <v>0.57582403488521228</v>
+        <v>0.47075691505279815</v>
       </c>
       <c r="M19">
-        <v>1.5180815465155597</v>
+        <v>1.2410864124119225</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -2946,7 +2946,7 @@
       </c>
       <c r="S19">
         <f t="shared" si="2"/>
-        <v>0.57582403488521228</v>
+        <v>0.47075691505279815</v>
       </c>
       <c r="T19">
         <f t="shared" si="3"/>
@@ -2997,22 +2997,22 @@
         <v>2</v>
       </c>
       <c r="H20">
-        <v>0.63286396717541438</v>
+        <v>0.47464797538156084</v>
       </c>
       <c r="I20">
-        <v>0.96595026568879039</v>
+        <v>0.7244626992665929</v>
       </c>
       <c r="J20">
-        <v>0.55255864201470462</v>
+        <v>0.57515547842953318</v>
       </c>
       <c r="K20">
-        <v>0.8433789799171808</v>
+        <v>0.87786888812928754</v>
       </c>
       <c r="L20">
-        <v>0.71080407269959078</v>
+        <v>0.63532527674691541</v>
       </c>
       <c r="M20">
-        <v>1.0849114793835859</v>
+        <v>0.9697070013505551</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -3033,7 +3033,7 @@
       </c>
       <c r="S20">
         <f t="shared" si="2"/>
-        <v>0.71080407269959078</v>
+        <v>0.63532527674691541</v>
       </c>
       <c r="T20">
         <f t="shared" si="3"/>
@@ -3084,22 +3084,22 @@
         <v>2</v>
       </c>
       <c r="H21">
-        <v>0.71319704880310253</v>
+        <v>0.7536477866023269</v>
       </c>
       <c r="I21">
-        <v>1.5909780319453826</v>
+        <v>1.6812142931898062</v>
       </c>
       <c r="J21">
-        <v>0.63568737583234891</v>
+        <v>0.53122645385330536</v>
       </c>
       <c r="K21">
-        <v>1.4180718383952398</v>
+        <v>1.1850436278266043</v>
       </c>
       <c r="L21">
-        <v>0.57767172355667928</v>
+        <v>0.43436490377862064</v>
       </c>
       <c r="M21">
-        <v>1.2886523063956692</v>
+        <v>0.96896786227538445</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -3139,7 +3139,7 @@
       </c>
       <c r="Z21" s="7">
         <f>'Optimisation Model'!N7+'Optimisation Model'!O7+'Optimisation Model'!P7</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA21" s="7">
         <v>1</v>
@@ -3171,22 +3171,22 @@
         <v>2</v>
       </c>
       <c r="H22">
-        <v>0.66129187890187402</v>
+        <v>0.69596890917640553</v>
       </c>
       <c r="I22">
-        <v>1.0093402362186499</v>
+        <v>1.0622683350587243</v>
       </c>
       <c r="J22">
-        <v>0.77647431829920421</v>
+        <v>0.77108169517847025</v>
       </c>
       <c r="K22">
-        <v>1.1851450121408906</v>
+        <v>1.1769141663250335</v>
       </c>
       <c r="L22">
-        <v>0.62277831486576929</v>
+        <v>0.55041706948266034</v>
       </c>
       <c r="M22">
-        <v>0.95055637532143733</v>
+        <v>0.84011026394721844</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -3258,22 +3258,22 @@
         <v>2</v>
       </c>
       <c r="H23">
-        <v>0.35049582747642516</v>
+        <v>0.3316218706073189</v>
       </c>
       <c r="I23">
-        <v>0.67762526645442189</v>
+        <v>0.64113561650748319</v>
       </c>
       <c r="J23">
-        <v>0.57301487351267288</v>
+        <v>0.53472134765692214</v>
       </c>
       <c r="K23">
-        <v>1.1078287554578341</v>
+        <v>1.0337946054700493</v>
       </c>
       <c r="L23">
-        <v>0.64889423729650342</v>
+        <v>0.65278178908348872</v>
       </c>
       <c r="M23">
-        <v>1.2545288587732399</v>
+        <v>1.2620447922280782</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -3282,7 +3282,7 @@
         <v>0</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q23">
         <f t="shared" si="0"/>
@@ -3294,7 +3294,7 @@
       </c>
       <c r="S23">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.65278178908348872</v>
       </c>
       <c r="T23">
         <f t="shared" si="3"/>
@@ -3306,14 +3306,14 @@
       </c>
       <c r="V23">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Y23" s="6" t="s">
         <v>101</v>
       </c>
       <c r="Z23" s="7">
         <f>'Optimisation Model'!N9+'Optimisation Model'!O9+'Optimisation Model'!P9</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA23" s="7">
         <v>1</v>
@@ -3345,22 +3345,22 @@
         <v>4</v>
       </c>
       <c r="H24">
-        <v>0.2586576433724071</v>
+        <v>0.20024323252930532</v>
       </c>
       <c r="I24">
-        <v>1.500214331559961</v>
+        <v>1.1614107486699707</v>
       </c>
       <c r="J24">
-        <v>0.39097286064611486</v>
+        <v>0.31710125306535047</v>
       </c>
       <c r="K24">
-        <v>2.2676425917474661</v>
+        <v>1.8391872677790326</v>
       </c>
       <c r="L24">
-        <v>0.37643407210170471</v>
+        <v>0.25010333185405631</v>
       </c>
       <c r="M24">
-        <v>2.183317618189887</v>
+        <v>1.4505993247535265</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -3377,7 +3377,7 @@
       </c>
       <c r="R24">
         <f t="shared" si="1"/>
-        <v>0.39097286064611486</v>
+        <v>0.31710125306535047</v>
       </c>
       <c r="S24">
         <f t="shared" si="2"/>
@@ -3432,22 +3432,22 @@
         <v>2</v>
       </c>
       <c r="H25">
-        <v>0.31481915309018982</v>
+        <v>0.34236436481764237</v>
       </c>
       <c r="I25">
-        <v>1.3042507770879292</v>
+        <v>1.4183666542445184</v>
       </c>
       <c r="J25">
-        <v>0.37627880324814178</v>
+        <v>0.36257728617545737</v>
       </c>
       <c r="K25">
-        <v>1.5588693277423016</v>
+        <v>1.5021058998697518</v>
       </c>
       <c r="L25">
-        <v>0.406208230572078</v>
+        <v>0.39243395070683629</v>
       </c>
       <c r="M25">
-        <v>1.6828626695128945</v>
+        <v>1.6257977957854646</v>
       </c>
       <c r="N25">
         <v>0</v>
@@ -3519,22 +3519,22 @@
         <v>2</v>
       </c>
       <c r="H26">
-        <v>0.41518486855441528</v>
+        <v>0.28013865141581146</v>
       </c>
       <c r="I26">
-        <v>0.8026907458718695</v>
+        <v>0.5416013927372354</v>
       </c>
       <c r="J26">
-        <v>0.48074407527512208</v>
+        <v>0.36231773253239852</v>
       </c>
       <c r="K26">
-        <v>0.92943854553190264</v>
+        <v>0.70048094956263707</v>
       </c>
       <c r="L26">
-        <v>0.65000037339905159</v>
+        <v>0.57861139116039983</v>
       </c>
       <c r="M26">
-        <v>1.2566673885714996</v>
+        <v>1.1186486895767729</v>
       </c>
       <c r="N26">
         <v>0</v>
@@ -3574,7 +3574,7 @@
       </c>
       <c r="Z26" s="7">
         <f>'Optimisation Model'!N12+'Optimisation Model'!O12+'Optimisation Model'!P12</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA26" s="7">
         <v>1</v>
@@ -3606,28 +3606,28 @@
         <v>4</v>
       </c>
       <c r="H27">
-        <v>0.42669680056553327</v>
+        <v>0.33877260042414992</v>
       </c>
       <c r="I27">
-        <v>1.3749119129333849</v>
+        <v>1.0916006013667052</v>
       </c>
       <c r="J27">
-        <v>0.38499543083291282</v>
+        <v>0.31187100197879863</v>
       </c>
       <c r="K27">
-        <v>1.2405408326838301</v>
+        <v>1.0049176730427956</v>
       </c>
       <c r="L27">
-        <v>0.42104246940763007</v>
+        <v>0.2891151853890559</v>
       </c>
       <c r="M27">
-        <v>1.3566924014245858</v>
+        <v>0.93159337514251339</v>
       </c>
       <c r="N27">
         <v>0</v>
       </c>
       <c r="O27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P27">
         <v>0</v>
@@ -3638,7 +3638,7 @@
       </c>
       <c r="R27">
         <f t="shared" si="1"/>
-        <v>0.38499543083291282</v>
+        <v>0</v>
       </c>
       <c r="S27">
         <f t="shared" si="2"/>
@@ -3650,7 +3650,7 @@
       </c>
       <c r="U27">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="V27">
         <f t="shared" si="5"/>
@@ -3692,23 +3692,23 @@
       <c r="G28">
         <v>4</v>
       </c>
-      <c r="H28" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I28" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J28" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K28" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L28" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M28" t="e">
-        <v>#N/A</v>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
       </c>
       <c r="N28">
         <v>0</v>
@@ -3745,7 +3745,7 @@
       </c>
       <c r="Z28" s="7">
         <f>'Optimisation Model'!N14+'Optimisation Model'!O14+'Optimisation Model'!P14</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA28" s="7">
         <v>1</v>
@@ -3777,28 +3777,28 @@
         <v>3</v>
       </c>
       <c r="H29">
-        <v>0.38218833699302746</v>
+        <v>0.44289125274477059</v>
       </c>
       <c r="I29">
-        <v>0.85257398252290739</v>
+        <v>0.98798817919987281</v>
       </c>
       <c r="J29">
-        <v>0.3151530682634972</v>
+        <v>0.36742560139722669</v>
       </c>
       <c r="K29">
-        <v>0.70303376766472447</v>
+        <v>0.81964172619381337</v>
       </c>
       <c r="L29">
-        <v>0.17558941601792089</v>
+        <v>0.14280317312455179</v>
       </c>
       <c r="M29">
-        <v>0.39169946650151583</v>
+        <v>0.31856092466246166</v>
       </c>
       <c r="N29">
         <v>0</v>
       </c>
       <c r="O29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P29">
         <v>0</v>
@@ -3809,7 +3809,7 @@
       </c>
       <c r="R29">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.36742560139722669</v>
       </c>
       <c r="S29">
         <f t="shared" si="2"/>
@@ -3821,7 +3821,7 @@
       </c>
       <c r="U29">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="V29">
         <f t="shared" si="5"/>
@@ -3864,22 +3864,22 @@
         <v>2</v>
       </c>
       <c r="H30">
-        <v>0.3207356202148734</v>
+        <v>0.30305171516115509</v>
       </c>
       <c r="I30">
-        <v>0.54713723448419582</v>
+        <v>0.51697057292197046</v>
       </c>
       <c r="J30">
-        <v>0.45352680144649449</v>
+        <v>0.43016928459901593</v>
       </c>
       <c r="K30">
-        <v>0.77366336717343187</v>
+        <v>0.73381819137479198</v>
       </c>
       <c r="L30">
-        <v>0.55226961398711183</v>
+        <v>0.56364665493477828</v>
       </c>
       <c r="M30">
-        <v>0.94210698856624964</v>
+        <v>0.96151488194756307</v>
       </c>
       <c r="N30">
         <v>0</v>
@@ -3951,22 +3951,22 @@
         <v>2</v>
       </c>
       <c r="H31">
-        <v>0.58316936449372525</v>
+        <v>0.49987702337029394</v>
       </c>
       <c r="I31">
-        <v>16.911911570318033</v>
+        <v>14.496433677738525</v>
       </c>
       <c r="J31">
-        <v>0.58848896532928707</v>
+        <v>0.63992784466312613</v>
       </c>
       <c r="K31">
-        <v>17.066179994549326</v>
+        <v>18.557907495230658</v>
       </c>
       <c r="L31">
-        <v>0.65225468915233487</v>
+        <v>0.50141323908647339</v>
       </c>
       <c r="M31">
-        <v>18.915385985417711</v>
+        <v>14.540983933507729</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -3979,7 +3979,7 @@
       </c>
       <c r="Q31">
         <f t="shared" si="0"/>
-        <v>0.58316936449372525</v>
+        <v>0.49987702337029394</v>
       </c>
       <c r="R31">
         <f t="shared" si="1"/>
@@ -4038,22 +4038,22 @@
         <v>2</v>
       </c>
       <c r="H32">
-        <v>0.27119505608302591</v>
+        <v>0.20339629206226942</v>
       </c>
       <c r="I32">
-        <v>1.5729313252815502</v>
+        <v>1.1796984939611626</v>
       </c>
       <c r="J32">
-        <v>0.30040968016854697</v>
+        <v>0.2378584701474786</v>
       </c>
       <c r="K32">
-        <v>1.7423761449775723</v>
+        <v>1.3795791268553759</v>
       </c>
       <c r="L32">
-        <v>0.38285152409046214</v>
+        <v>0.25491642084562438</v>
       </c>
       <c r="M32">
-        <v>2.2205388397246804</v>
+        <v>1.4785152409046214</v>
       </c>
       <c r="N32">
         <v>0</v>
@@ -4102,7 +4102,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:28" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>43</v>
       </c>
@@ -4125,22 +4125,22 @@
         <v>5</v>
       </c>
       <c r="H33">
-        <v>4.4672809708826984E-2</v>
+        <v>3.3504607281620233E-2</v>
       </c>
       <c r="I33">
-        <v>0.14394572017288695</v>
+        <v>0.10795929012966519</v>
       </c>
       <c r="J33">
-        <v>0.11982579102595142</v>
+        <v>0.10484756714770747</v>
       </c>
       <c r="K33">
-        <v>0.38610532663917679</v>
+        <v>0.33784216080927965</v>
       </c>
       <c r="L33">
-        <v>0.43226500837120313</v>
+        <v>0.34086542294506894</v>
       </c>
       <c r="M33">
-        <v>1.3928539158627655</v>
+        <v>1.0983441406007777</v>
       </c>
       <c r="N33">
         <v>0</v>
@@ -4212,22 +4212,22 @@
         <v>2</v>
       </c>
       <c r="H34">
-        <v>0.89422127560513354</v>
+        <v>0.7644159567038501</v>
       </c>
       <c r="I34">
-        <v>0.89422127560513354</v>
+        <v>0.7644159567038501</v>
       </c>
       <c r="J34">
-        <v>0.8</v>
+        <v>0.67499999999999993</v>
       </c>
       <c r="K34">
-        <v>0.8</v>
+        <v>0.67499999999999993</v>
       </c>
       <c r="L34">
-        <v>0.80560294732044513</v>
+        <v>0.7942022104903339</v>
       </c>
       <c r="M34">
-        <v>0.80560294732044513</v>
+        <v>0.7942022104903339</v>
       </c>
       <c r="N34">
         <v>0</v>
@@ -4244,7 +4244,7 @@
       </c>
       <c r="R34">
         <f t="shared" si="1"/>
-        <v>0.8</v>
+        <v>0.67499999999999993</v>
       </c>
       <c r="S34">
         <f t="shared" si="2"/>
@@ -4299,22 +4299,22 @@
         <v>2</v>
       </c>
       <c r="H35">
-        <v>0.24806500729459308</v>
+        <v>0.19229875547094483</v>
       </c>
       <c r="I35">
-        <v>7.1938852115431997</v>
+        <v>5.5766639086573999</v>
       </c>
       <c r="J35">
-        <v>0.51574069682270518</v>
+        <v>0.576273109719867</v>
       </c>
       <c r="K35">
-        <v>14.95648020785845</v>
+        <v>16.711920181876142</v>
       </c>
       <c r="L35">
-        <v>0.22249070155187894</v>
+        <v>0.1068680261639092</v>
       </c>
       <c r="M35">
-        <v>6.4522303450044891</v>
+        <v>3.0991727587533666</v>
       </c>
       <c r="N35">
         <v>0</v>
@@ -4331,7 +4331,7 @@
       </c>
       <c r="R35">
         <f t="shared" si="1"/>
-        <v>0.51574069682270518</v>
+        <v>0.576273109719867</v>
       </c>
       <c r="S35">
         <f t="shared" si="2"/>
@@ -4386,22 +4386,22 @@
         <v>2</v>
       </c>
       <c r="H36">
-        <v>0.37130716384630835</v>
+        <v>0.30348037288473129</v>
       </c>
       <c r="I36">
-        <v>1.1964341946158825</v>
+        <v>0.97788120151746749</v>
       </c>
       <c r="J36">
-        <v>0.42074421197450407</v>
+        <v>0.34315118547769097</v>
       </c>
       <c r="K36">
-        <v>1.3557313496956243</v>
+        <v>1.1057093754281153</v>
       </c>
       <c r="L36">
-        <v>0.26516440031656957</v>
+        <v>0.14998441134853829</v>
       </c>
       <c r="M36">
-        <v>0.85441862324227968</v>
+        <v>0.48328310323417895</v>
       </c>
       <c r="N36">
         <v>0</v>
@@ -4473,22 +4473,22 @@
         <v>4</v>
       </c>
       <c r="H37">
-        <v>7.1192406928995658E-2</v>
+        <v>5.9644305196746746E-2</v>
       </c>
       <c r="I37">
-        <v>0.41291596018817478</v>
+        <v>0.34593697014113112</v>
       </c>
       <c r="J37">
-        <v>7.2500123444500464E-2</v>
+        <v>6.3437608013937899E-2</v>
       </c>
       <c r="K37">
-        <v>0.42050071597810268</v>
+        <v>0.36793812648083979</v>
       </c>
       <c r="L37">
-        <v>0.34176310415248468</v>
+        <v>0.25632232811436351</v>
       </c>
       <c r="M37">
-        <v>1.9822260040844111</v>
+        <v>1.4866695030633081</v>
       </c>
       <c r="N37">
         <v>0</v>
@@ -4528,7 +4528,7 @@
       </c>
       <c r="Z37" s="7">
         <f>'Optimisation Model'!N23+'Optimisation Model'!O23+'Optimisation Model'!P23</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA37" s="7">
         <v>1</v>
@@ -4560,22 +4560,22 @@
         <v>2</v>
       </c>
       <c r="H38">
-        <v>0.32264164099339809</v>
+        <v>0.25448123074504858</v>
       </c>
       <c r="I38">
-        <v>1.3366582269726492</v>
+        <v>1.0542793845152012</v>
       </c>
       <c r="J38">
-        <v>0.39076183402842302</v>
+        <v>0.31691660477487016</v>
       </c>
       <c r="K38">
-        <v>1.6188704552606095</v>
+        <v>1.3129402197816049</v>
       </c>
       <c r="L38">
-        <v>0.30618248397924935</v>
+        <v>0.18630352965110364</v>
       </c>
       <c r="M38">
-        <v>1.2684702907711758</v>
+        <v>0.7718289085545722</v>
       </c>
       <c r="N38">
         <v>0</v>
@@ -4647,22 +4647,22 @@
         <v>2</v>
       </c>
       <c r="H39">
-        <v>0.25765943965342364</v>
+        <v>0.2869945797400677</v>
       </c>
       <c r="I39">
-        <v>1.4944247499898571</v>
+        <v>1.6645685624923925</v>
       </c>
       <c r="J39">
-        <v>0.26024553406920298</v>
+        <v>0.16938150897721924</v>
       </c>
       <c r="K39">
-        <v>1.5094240976013771</v>
+        <v>0.98241275206787149</v>
       </c>
       <c r="L39">
-        <v>0.35112533735015378</v>
+        <v>0.30445511412372639</v>
       </c>
       <c r="M39">
-        <v>2.0365269566308917</v>
+        <v>1.7658396619176129</v>
       </c>
       <c r="N39">
         <v>0</v>
@@ -4734,22 +4734,22 @@
         <v>2</v>
       </c>
       <c r="H40">
-        <v>0.2237626231399989</v>
+        <v>0.45532196735499919</v>
       </c>
       <c r="I40">
-        <v>0.92701658157999534</v>
+        <v>1.8863338647564252</v>
       </c>
       <c r="J40">
-        <v>0.29743351013367614</v>
+        <v>0.35192098803363325</v>
       </c>
       <c r="K40">
-        <v>1.2322245419823725</v>
+        <v>1.4579583789964805</v>
       </c>
       <c r="L40">
-        <v>0.21849773364990288</v>
+        <v>0.18053996690409385</v>
       </c>
       <c r="M40">
-        <v>0.90520489654959757</v>
+        <v>0.74795129145981731</v>
       </c>
       <c r="N40">
         <v>0</v>
@@ -4821,22 +4821,22 @@
         <v>4</v>
       </c>
       <c r="H41">
-        <v>0.18932918000954091</v>
+        <v>7.9496885007155696E-2</v>
       </c>
       <c r="I41">
-        <v>1.0981092440553373</v>
+        <v>0.46108193304150302</v>
       </c>
       <c r="J41">
-        <v>0.15534966001975875</v>
+        <v>7.7597619183955538E-2</v>
       </c>
       <c r="K41">
-        <v>0.9010280281146007</v>
+        <v>0.45006619126694208</v>
       </c>
       <c r="L41">
-        <v>0.39551649606459777</v>
+        <v>0.34330403871511495</v>
       </c>
       <c r="M41">
-        <v>2.2939956771746668</v>
+        <v>1.9911634245476666</v>
       </c>
       <c r="N41">
         <v>0</v>
@@ -4876,7 +4876,7 @@
       </c>
       <c r="Z41" s="7">
         <f>'Optimisation Model'!N27+'Optimisation Model'!O27+'Optimisation Model'!P27</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA41" s="7">
         <v>1</v>
@@ -4908,22 +4908,22 @@
         <v>5</v>
       </c>
       <c r="H42">
-        <v>0.23350810709027275</v>
+        <v>0.20013108031770457</v>
       </c>
       <c r="I42">
-        <v>0.96739072937398707</v>
+        <v>0.82911447560191887</v>
       </c>
       <c r="J42">
-        <v>0.14017747452309637</v>
+        <v>0.12265529020770931</v>
       </c>
       <c r="K42">
-        <v>0.58073525159568495</v>
+        <v>0.50814334514622428</v>
       </c>
       <c r="L42">
-        <v>0.45131549090561668</v>
+        <v>0.36070884040143469</v>
       </c>
       <c r="M42">
-        <v>1.8697356051804119</v>
+        <v>1.4943651959488009</v>
       </c>
       <c r="N42">
         <v>0</v>
@@ -4995,22 +4995,22 @@
         <v>5</v>
       </c>
       <c r="H43">
-        <v>0.24693565696347577</v>
+        <v>0.2227017427226069</v>
       </c>
       <c r="I43">
-        <v>1.4322268103881595</v>
+        <v>1.2916701077911199</v>
       </c>
       <c r="J43">
-        <v>6.6251392718180424E-2</v>
+        <v>5.7969968628407857E-2</v>
       </c>
       <c r="K43">
-        <v>0.38425807776544646</v>
+        <v>0.33622581804476553</v>
       </c>
       <c r="L43">
-        <v>0.46951819075712875</v>
+        <v>0.37436086529006884</v>
       </c>
       <c r="M43">
-        <v>2.7232055063913467</v>
+        <v>2.1712930186823991</v>
       </c>
       <c r="N43">
         <v>0</v>
@@ -5019,7 +5019,7 @@
         <v>0</v>
       </c>
       <c r="P43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q43">
         <f t="shared" si="0"/>
@@ -5031,7 +5031,7 @@
       </c>
       <c r="S43">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.37436086529006884</v>
       </c>
       <c r="T43">
         <f t="shared" si="3"/>
@@ -5043,14 +5043,14 @@
       </c>
       <c r="V43">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y43" s="6" t="s">
         <v>121</v>
       </c>
       <c r="Z43" s="7">
         <f>'Optimisation Model'!N29+'Optimisation Model'!O29+'Optimisation Model'!P29</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA43" s="7">
         <v>1</v>
@@ -5082,22 +5082,22 @@
         <v>5</v>
       </c>
       <c r="H44">
-        <v>0.1733781087822488</v>
+        <v>0.14878358158668661</v>
       </c>
       <c r="I44">
-        <v>0.55866279496502391</v>
+        <v>0.47941376289043464</v>
       </c>
       <c r="J44">
-        <v>0.12117353688007038</v>
+        <v>0.10602684477006157</v>
       </c>
       <c r="K44">
-        <v>0.39044806328022674</v>
+        <v>0.34164205537019837</v>
       </c>
       <c r="L44">
-        <v>0.50352610276462917</v>
+        <v>0.40542235485124967</v>
       </c>
       <c r="M44">
-        <v>1.6224729977971384</v>
+        <v>1.3063609211873599</v>
       </c>
       <c r="N44">
         <v>0</v>
@@ -5169,22 +5169,22 @@
         <v>4</v>
       </c>
       <c r="H45">
-        <v>0.31032978658995036</v>
+        <v>0.23899733994246278</v>
       </c>
       <c r="I45">
-        <v>1.7999127622217119</v>
+        <v>1.3861845716662839</v>
       </c>
       <c r="J45">
-        <v>0.31277801699242058</v>
+        <v>0.24868076486836793</v>
       </c>
       <c r="K45">
-        <v>1.8141124985560393</v>
+        <v>1.442348436236534</v>
       </c>
       <c r="L45">
-        <v>0.31485426646098885</v>
+        <v>0.19280736651240829</v>
       </c>
       <c r="M45">
-        <v>1.8261547454737352</v>
+        <v>1.1182827257719681</v>
       </c>
       <c r="N45">
         <v>0</v>
@@ -5256,22 +5256,22 @@
         <v>2</v>
       </c>
       <c r="H46">
-        <v>0.27102830058664318</v>
+        <v>0.29702122543998238</v>
       </c>
       <c r="I46">
-        <v>1.5719641434025304</v>
+        <v>1.7227231075518976</v>
       </c>
       <c r="J46">
-        <v>0.27154259303849593</v>
+        <v>0.17926643557535057</v>
       </c>
       <c r="K46">
-        <v>1.5749470396232763</v>
+        <v>1.0397453263370333</v>
       </c>
       <c r="L46">
-        <v>0.38855146716348399</v>
+        <v>0.33808026703927962</v>
       </c>
       <c r="M46">
-        <v>2.253598509548207</v>
+        <v>1.9608655488278217</v>
       </c>
       <c r="N46">
         <v>0</v>
@@ -5343,22 +5343,22 @@
         <v>2</v>
       </c>
       <c r="H47">
-        <v>0.48593850236405534</v>
+        <v>0.40195387677304151</v>
       </c>
       <c r="I47">
-        <v>0.74169560887145292</v>
+        <v>0.61350854875885286</v>
       </c>
       <c r="J47">
-        <v>0.55200144822954833</v>
+        <v>0.45800126720085477</v>
       </c>
       <c r="K47">
-        <v>0.84252852624510011</v>
+        <v>0.69905456572762048</v>
       </c>
       <c r="L47">
-        <v>0.63779200401682035</v>
+        <v>0.49056622523483756</v>
       </c>
       <c r="M47">
-        <v>0.97347200613093632</v>
+        <v>0.74875897535843627</v>
       </c>
       <c r="N47">
         <v>0</v>
@@ -5430,22 +5430,22 @@
         <v>2</v>
       </c>
       <c r="H48">
-        <v>0.14382492584904724</v>
+        <v>3.286869438678542E-2</v>
       </c>
       <c r="I48">
-        <v>4.1709228496223698</v>
+        <v>0.9531921372167772</v>
       </c>
       <c r="J48">
-        <v>0.12715978530523192</v>
+        <v>5.2931478808744575E-2</v>
       </c>
       <c r="K48">
-        <v>3.6876337738517257</v>
+        <v>1.5350128854535927</v>
       </c>
       <c r="L48">
-        <v>0.29485426646098889</v>
+        <v>0.25114069984574161</v>
       </c>
       <c r="M48">
-        <v>8.5507737273686786</v>
+        <v>7.2830802955265064</v>
       </c>
       <c r="N48">
         <v>0</v>
@@ -5517,22 +5517,22 @@
         <v>2</v>
       </c>
       <c r="H49">
-        <v>0.44909725971703718</v>
+        <v>0.33682294478777786</v>
       </c>
       <c r="I49">
-        <v>1.0018323485995444</v>
+        <v>0.75137426144965824</v>
       </c>
       <c r="J49">
-        <v>0.46942108995589438</v>
+        <v>0.38574345371140761</v>
       </c>
       <c r="K49">
-        <v>1.0471701237477644</v>
+        <v>0.86050462751006307</v>
       </c>
       <c r="L49">
-        <v>0.51000037339905158</v>
+        <v>0.41194472449373315</v>
       </c>
       <c r="M49">
-        <v>1.1376931406594226</v>
+        <v>0.91895361617832783</v>
       </c>
       <c r="N49">
         <v>0</v>
@@ -5604,22 +5604,22 @@
         <v>4</v>
       </c>
       <c r="H50">
-        <v>0.40845098517319001</v>
+        <v>0.41883823887989258</v>
       </c>
       <c r="I50">
-        <v>2.3690157140045018</v>
+        <v>2.4292617855033769</v>
       </c>
       <c r="J50">
-        <v>0.26302988281942774</v>
+        <v>0.26348448080033254</v>
       </c>
       <c r="K50">
-        <v>1.5255733203526809</v>
+        <v>1.5282099886419287</v>
       </c>
       <c r="L50">
-        <v>0.32420698591238661</v>
+        <v>0.16426635054540106</v>
       </c>
       <c r="M50">
-        <v>1.8804005182918422</v>
+        <v>0.95274483316332614</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -5632,7 +5632,7 @@
       </c>
       <c r="Q50">
         <f t="shared" si="0"/>
-        <v>0.40845098517319001</v>
+        <v>0.41883823887989258</v>
       </c>
       <c r="R50">
         <f t="shared" si="1"/>
@@ -5691,22 +5691,22 @@
         <v>2</v>
       </c>
       <c r="H51">
-        <v>0.79514354616963034</v>
+        <v>0.82135765962722285</v>
       </c>
       <c r="I51">
-        <v>1.5372775225946185</v>
+        <v>1.5879581419459641</v>
       </c>
       <c r="J51">
-        <v>0.55275110664890437</v>
+        <v>0.60865721831779129</v>
       </c>
       <c r="K51">
-        <v>1.068652139521215</v>
+        <v>1.1767372887477296</v>
       </c>
       <c r="L51">
-        <v>0.47705014749262536</v>
+        <v>0.34223205506391352</v>
       </c>
       <c r="M51">
-        <v>0.92229695181907567</v>
+        <v>0.66164863979023281</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -5719,7 +5719,7 @@
       </c>
       <c r="Q51">
         <f t="shared" si="0"/>
-        <v>0.79514354616963034</v>
+        <v>0.82135765962722285</v>
       </c>
       <c r="R51">
         <f t="shared" si="1"/>
@@ -5778,22 +5778,22 @@
         <v>3</v>
       </c>
       <c r="H52">
-        <v>0.56512428465688724</v>
+        <v>0.39884321349266538</v>
       </c>
       <c r="I52">
-        <v>0.86255811868682797</v>
+        <v>0.60876069427827872</v>
       </c>
       <c r="J52">
-        <v>0.40133276724561023</v>
+        <v>0.29283283800657567</v>
       </c>
       <c r="K52">
-        <v>0.612560539480142</v>
+        <v>0.44695538432582604</v>
       </c>
       <c r="L52">
-        <v>0.41611164819910268</v>
+        <v>0.36430595837154922</v>
       </c>
       <c r="M52">
-        <v>0.63511777883020937</v>
+        <v>0.55604593646183831</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -5806,7 +5806,7 @@
       </c>
       <c r="Q52">
         <f t="shared" si="0"/>
-        <v>0.56512428465688724</v>
+        <v>0.39884321349266538</v>
       </c>
       <c r="R52">
         <f t="shared" si="1"/>
@@ -5865,22 +5865,22 @@
         <v>2</v>
       </c>
       <c r="H53">
-        <v>0.4354992523347655</v>
+        <v>0.49537443925107416</v>
       </c>
       <c r="I53">
-        <v>0.97149833213139991</v>
+        <v>1.1050660567908577</v>
       </c>
       <c r="J53">
-        <v>0.70082263514741117</v>
+        <v>0.73821980575398471</v>
       </c>
       <c r="K53">
-        <v>1.5633735707134557</v>
+        <v>1.6467980282204273</v>
       </c>
       <c r="L53">
-        <v>0.57521813383015075</v>
+        <v>0.43252471148372412</v>
       </c>
       <c r="M53">
-        <v>1.2831789139287979</v>
+        <v>0.96486281792523076</v>
       </c>
       <c r="N53">
         <v>0</v>
@@ -5952,22 +5952,22 @@
         <v>4</v>
       </c>
       <c r="H54">
-        <v>7.4999999999999997E-2</v>
+        <v>6.8750000000000006E-2</v>
       </c>
       <c r="I54">
-        <v>0.31071428571428567</v>
+        <v>0.28482142857142856</v>
       </c>
       <c r="J54">
-        <v>3.6363636363636369E-2</v>
+        <v>3.1818181818181815E-2</v>
       </c>
       <c r="K54">
-        <v>0.15064935064935067</v>
+        <v>0.13181818181818181</v>
       </c>
       <c r="L54">
-        <v>0.3</v>
+        <v>0.24166666666666667</v>
       </c>
       <c r="M54">
-        <v>1.2428571428571427</v>
+        <v>1.0011904761904762</v>
       </c>
       <c r="N54">
         <v>0</v>
@@ -6039,22 +6039,22 @@
         <v>5</v>
       </c>
       <c r="H55">
-        <v>0.19611041931054027</v>
+        <v>0.16583281448290518</v>
       </c>
       <c r="I55">
-        <v>0.51701837818233343</v>
+        <v>0.43719560181856826</v>
       </c>
       <c r="J55">
-        <v>0.13021084746365158</v>
+        <v>0.11393449153069511</v>
       </c>
       <c r="K55">
-        <v>0.34328314331326326</v>
+        <v>0.30037275039910533</v>
       </c>
       <c r="L55">
-        <v>0.40152093312765552</v>
+        <v>0.31225181095685273</v>
       </c>
       <c r="M55">
-        <v>1.0585551873365464</v>
+        <v>0.82320931979533907</v>
       </c>
       <c r="N55">
         <v>0</v>
@@ -6126,22 +6126,22 @@
         <v>5</v>
       </c>
       <c r="H56">
-        <v>0.13106552244303543</v>
+        <v>0.11079914183227657</v>
       </c>
       <c r="I56">
-        <v>0.54298573583543253</v>
+        <v>0.45902501616228863</v>
       </c>
       <c r="J56">
-        <v>9.0104494108778355E-2</v>
+        <v>7.8841432345181039E-2</v>
       </c>
       <c r="K56">
-        <v>0.37329004702208174</v>
+        <v>0.32662879114432142</v>
       </c>
       <c r="L56">
-        <v>0.43754031924571996</v>
+        <v>0.34482190610095664</v>
       </c>
       <c r="M56">
-        <v>1.8126670368751254</v>
+        <v>1.4285478967039631</v>
       </c>
       <c r="N56">
         <v>0</v>
@@ -6213,22 +6213,22 @@
         <v>3</v>
       </c>
       <c r="H57">
-        <v>0.22897718610407114</v>
+        <v>0.30923288957805339</v>
       </c>
       <c r="I57">
-        <v>0.44268922646787084</v>
+        <v>0.59785025318423657</v>
       </c>
       <c r="J57">
-        <v>0.33996923044506855</v>
+        <v>0.38913974330610168</v>
       </c>
       <c r="K57">
-        <v>0.65727384552713253</v>
+        <v>0.75233683705846321</v>
       </c>
       <c r="L57">
-        <v>0.23440459555969573</v>
+        <v>0.19802566889199402</v>
       </c>
       <c r="M57">
-        <v>0.45318221808207837</v>
+        <v>0.38284962652452176</v>
       </c>
       <c r="N57">
         <v>0</v>
@@ -6268,7 +6268,7 @@
       </c>
       <c r="Z57" s="7">
         <f>'Optimisation Model'!N43+'Optimisation Model'!O43+'Optimisation Model'!P43</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA57" s="7">
         <v>1</v>
@@ -6300,22 +6300,22 @@
         <v>4</v>
       </c>
       <c r="H58">
-        <v>0.58750000000000002</v>
+        <v>0.47187499999999999</v>
       </c>
       <c r="I58">
-        <v>1.5488636363636366</v>
+        <v>1.244034090909091</v>
       </c>
       <c r="J58">
-        <v>0.43957480398143667</v>
+        <v>0.35962795348375709</v>
       </c>
       <c r="K58">
-        <v>1.158879028678333</v>
+        <v>0.94811005918445057</v>
       </c>
       <c r="L58">
-        <v>0.42104246940763007</v>
+        <v>0.2891151853890559</v>
       </c>
       <c r="M58">
-        <v>1.1100210557110248</v>
+        <v>0.76221276148023831</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -6328,7 +6328,7 @@
       </c>
       <c r="Q58">
         <f t="shared" si="0"/>
-        <v>0.58750000000000002</v>
+        <v>0.47187499999999999</v>
       </c>
       <c r="R58">
         <f t="shared" si="1"/>
@@ -6387,22 +6387,22 @@
         <v>2</v>
       </c>
       <c r="H59">
-        <v>0.3729582044518176</v>
+        <v>0.29846865333886319</v>
       </c>
       <c r="I59">
-        <v>0.9832534481002464</v>
+        <v>0.78687190425700304</v>
       </c>
       <c r="J59">
-        <v>0.35682706710274092</v>
+        <v>0.28722368371489826</v>
       </c>
       <c r="K59">
-        <v>0.94072590417995339</v>
+        <v>0.75722607524836816</v>
       </c>
       <c r="L59">
-        <v>0.20006992242980448</v>
+        <v>9.0052441822353335E-2</v>
       </c>
       <c r="M59">
-        <v>0.52745706822403005</v>
+        <v>0.23741098298620425</v>
       </c>
       <c r="N59">
         <v>0</v>
@@ -6474,22 +6474,22 @@
         <v>2</v>
       </c>
       <c r="H60">
-        <v>0.40711366081116962</v>
+        <v>0.26783524560837724</v>
       </c>
       <c r="I60">
-        <v>0.78708641090159459</v>
+        <v>0.51781480817619596</v>
       </c>
       <c r="J60">
-        <v>0.35367294652894243</v>
+        <v>0.25113049487949124</v>
       </c>
       <c r="K60">
-        <v>0.68376769662262205</v>
+        <v>0.48551895676701634</v>
       </c>
       <c r="L60">
-        <v>0.38676703827146308</v>
+        <v>0.33674194537026392</v>
       </c>
       <c r="M60">
-        <v>0.74774960732482854</v>
+        <v>0.65103442771584352</v>
       </c>
       <c r="N60">
         <v>0</v>
@@ -6561,22 +6561,22 @@
         <v>2</v>
       </c>
       <c r="H61">
-        <v>0.22556357451188747</v>
+        <v>0.18792268088391562</v>
       </c>
       <c r="I61">
-        <v>1.3082687321689472</v>
+        <v>1.0899515491267104</v>
       </c>
       <c r="J61">
-        <v>9.8912344672696106E-2</v>
+        <v>8.6548301588609086E-2</v>
       </c>
       <c r="K61">
-        <v>0.57369159910163736</v>
+        <v>0.50198014921393264</v>
       </c>
       <c r="L61">
-        <v>0.40420698591238663</v>
+        <v>0.31426635054540109</v>
       </c>
       <c r="M61">
-        <v>2.3444005182918422</v>
+        <v>1.8227448331633263</v>
       </c>
       <c r="N61">
         <v>0</v>
@@ -6901,7 +6901,7 @@
       </c>
       <c r="Z80" s="7">
         <f>AF4</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA80" s="7">
         <v>2</v>
@@ -6931,7 +6931,7 @@
       </c>
       <c r="Z82" s="7">
         <f>AF6</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA82" s="7">
         <v>2</v>
@@ -6976,7 +6976,7 @@
       </c>
       <c r="Z85" s="7">
         <f>AG5</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA85" s="7">
         <v>3</v>
@@ -6991,7 +6991,7 @@
       </c>
       <c r="Z86" s="7">
         <f>AG6</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA86" s="7">
         <v>3</v>

--- a/AinBOptimisationdataModel_LF_clusters.xlsx
+++ b/AinBOptimisationdataModel_LF_clusters.xlsx
@@ -1289,10 +1289,10 @@
   <dimension ref="A1:AG86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="U2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AD11" sqref="AD11"/>
+      <selection pane="bottomRight" activeCell="U9" sqref="U9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1412,10 +1412,10 @@
         <v>1.3113742742732915</v>
       </c>
       <c r="J2">
-        <v>0.36075588931486707</v>
+        <v>0.28575588931486717</v>
       </c>
       <c r="K2">
-        <v>2.092384158026229</v>
+        <v>1.6573841580262294</v>
       </c>
       <c r="L2">
         <v>0.41776428620429445</v>
@@ -1495,10 +1495,10 @@
         <v>0.6655538613117139</v>
       </c>
       <c r="J3">
-        <v>0.37846944533056126</v>
+        <v>0.3034694453305613</v>
       </c>
       <c r="K3">
-        <v>0.84427799342971355</v>
+        <v>0.67697030112202139</v>
       </c>
       <c r="L3">
         <v>0.40974657241980672</v>
@@ -1544,7 +1544,7 @@
       </c>
       <c r="Z3">
         <f>SUM('Optimisation Model'!Q2:Q61)+SUM('Optimisation Model'!R2:R61)+SUM('Optimisation Model'!S2:S61)</f>
-        <v>7.5211315019749403</v>
+        <v>7.1461315019749403</v>
       </c>
       <c r="AD3" s="6" t="s">
         <v>156</v>
@@ -1591,10 +1591,10 @@
         <v>1.3886612684283757</v>
       </c>
       <c r="J4">
-        <v>0.28112493456712107</v>
+        <v>0.20612493456712111</v>
       </c>
       <c r="K4">
-        <v>1.630524620489302</v>
+        <v>1.1955246204893024</v>
       </c>
       <c r="L4">
         <v>0.1026445770734719</v>
@@ -1959,10 +1959,10 @@
         <v>1.423709898247733</v>
       </c>
       <c r="J8">
-        <v>0.6374403110682233</v>
+        <v>0.56244031106822323</v>
       </c>
       <c r="K8">
-        <v>1.2323846013985649</v>
+        <v>1.0873846013985649</v>
       </c>
       <c r="L8">
         <v>0.49099349519703506</v>
@@ -2307,10 +2307,10 @@
         <v>0.88216136952255986</v>
       </c>
       <c r="J12">
-        <v>0.4235512700448556</v>
+        <v>0.34855127004485553</v>
       </c>
       <c r="K12">
-        <v>1.7547124044715445</v>
+        <v>1.4439981187572586</v>
       </c>
       <c r="L12">
         <v>0.24964534629362517</v>
@@ -2333,7 +2333,7 @@
       </c>
       <c r="R12">
         <f t="shared" si="1"/>
-        <v>0.4235512700448556</v>
+        <v>0.34855127004485553</v>
       </c>
       <c r="S12">
         <f t="shared" si="2"/>
@@ -2394,10 +2394,10 @@
         <v>0.46342217102331795</v>
       </c>
       <c r="J13">
-        <v>0.30252533510821067</v>
+        <v>0.22752533510821074</v>
       </c>
       <c r="K13">
-        <v>0.67486420908754685</v>
+        <v>0.50755651677985469</v>
       </c>
       <c r="L13">
         <v>0.17335872868010735</v>
@@ -2655,10 +2655,10 @@
         <v>2.7791666666666663</v>
       </c>
       <c r="J16">
-        <v>0.22971779521831504</v>
+        <v>0.15471779521831505</v>
       </c>
       <c r="K16">
-        <v>2.2206053537770454</v>
+        <v>1.4956053537770455</v>
       </c>
       <c r="L16">
         <v>0.2348031576408601</v>
@@ -2742,10 +2742,10 @@
         <v>0.94878693095563593</v>
       </c>
       <c r="J17">
-        <v>0.29285900053434299</v>
+        <v>0.21785900053434298</v>
       </c>
       <c r="K17">
-        <v>0.94365677949954963</v>
+        <v>0.70199011283288293</v>
       </c>
       <c r="L17">
         <v>0.25293867882363458</v>
@@ -2829,10 +2829,10 @@
         <v>0.34421031896050575</v>
       </c>
       <c r="J18">
-        <v>0.52984465139763504</v>
+        <v>0.45484465139763508</v>
       </c>
       <c r="K18">
-        <v>0.66806499524049634</v>
+        <v>0.57349977784919204</v>
       </c>
       <c r="L18">
         <v>0.30394133071124224</v>
@@ -3090,10 +3090,10 @@
         <v>1.6812142931898062</v>
       </c>
       <c r="J21">
-        <v>0.53122645385330536</v>
+        <v>0.45622645385330535</v>
       </c>
       <c r="K21">
-        <v>1.1850436278266043</v>
+        <v>1.0177359355189119</v>
       </c>
       <c r="L21">
         <v>0.43436490377862064</v>
@@ -3177,10 +3177,10 @@
         <v>1.0622683350587243</v>
       </c>
       <c r="J22">
-        <v>0.77108169517847025</v>
+        <v>0.69608169517847029</v>
       </c>
       <c r="K22">
-        <v>1.1769141663250335</v>
+        <v>1.0624404821145073</v>
       </c>
       <c r="L22">
         <v>0.55041706948266034</v>
@@ -3351,10 +3351,10 @@
         <v>1.1614107486699707</v>
       </c>
       <c r="J24">
-        <v>0.31710125306535047</v>
+        <v>0.24210125306535046</v>
       </c>
       <c r="K24">
-        <v>1.8391872677790326</v>
+        <v>1.4041872677790326</v>
       </c>
       <c r="L24">
         <v>0.25010333185405631</v>
@@ -3377,7 +3377,7 @@
       </c>
       <c r="R24">
         <f t="shared" si="1"/>
-        <v>0.31710125306535047</v>
+        <v>0.24210125306535046</v>
       </c>
       <c r="S24">
         <f t="shared" si="2"/>
@@ -3438,10 +3438,10 @@
         <v>1.4183666542445184</v>
       </c>
       <c r="J25">
-        <v>0.36257728617545737</v>
+        <v>0.28757728617545741</v>
       </c>
       <c r="K25">
-        <v>1.5021058998697518</v>
+        <v>1.1913916141554663</v>
       </c>
       <c r="L25">
         <v>0.39243395070683629</v>
@@ -3612,10 +3612,10 @@
         <v>1.0916006013667052</v>
       </c>
       <c r="J27">
-        <v>0.31187100197879863</v>
+        <v>0.23687100197879862</v>
       </c>
       <c r="K27">
-        <v>1.0049176730427956</v>
+        <v>0.76325100637612886</v>
       </c>
       <c r="L27">
         <v>0.2891151853890559</v>
@@ -3783,10 +3783,10 @@
         <v>0.98798817919987281</v>
       </c>
       <c r="J29">
-        <v>0.36742560139722669</v>
+        <v>0.29242560139722673</v>
       </c>
       <c r="K29">
-        <v>0.81964172619381337</v>
+        <v>0.65233403388612121</v>
       </c>
       <c r="L29">
         <v>0.14280317312455179</v>
@@ -3809,7 +3809,7 @@
       </c>
       <c r="R29">
         <f t="shared" si="1"/>
-        <v>0.36742560139722669</v>
+        <v>0.29242560139722673</v>
       </c>
       <c r="S29">
         <f t="shared" si="2"/>
@@ -3957,10 +3957,10 @@
         <v>14.496433677738525</v>
       </c>
       <c r="J31">
-        <v>0.63992784466312613</v>
+        <v>0.56492784466312607</v>
       </c>
       <c r="K31">
-        <v>18.557907495230658</v>
+        <v>16.382907495230658</v>
       </c>
       <c r="L31">
         <v>0.50141323908647339</v>
@@ -4044,10 +4044,10 @@
         <v>1.1796984939611626</v>
       </c>
       <c r="J32">
-        <v>0.2378584701474786</v>
+        <v>0.16285847014747862</v>
       </c>
       <c r="K32">
-        <v>1.3795791268553759</v>
+        <v>0.94457912685537593</v>
       </c>
       <c r="L32">
         <v>0.25491642084562438</v>
@@ -4218,10 +4218,10 @@
         <v>0.7644159567038501</v>
       </c>
       <c r="J34">
-        <v>0.67499999999999993</v>
+        <v>0.59999999999999987</v>
       </c>
       <c r="K34">
-        <v>0.67499999999999993</v>
+        <v>0.59999999999999987</v>
       </c>
       <c r="L34">
         <v>0.7942022104903339</v>
@@ -4244,7 +4244,7 @@
       </c>
       <c r="R34">
         <f t="shared" si="1"/>
-        <v>0.67499999999999993</v>
+        <v>0.59999999999999987</v>
       </c>
       <c r="S34">
         <f t="shared" si="2"/>
@@ -4305,10 +4305,10 @@
         <v>5.5766639086573999</v>
       </c>
       <c r="J35">
-        <v>0.576273109719867</v>
+        <v>0.50127310971986705</v>
       </c>
       <c r="K35">
-        <v>16.711920181876142</v>
+        <v>14.536920181876145</v>
       </c>
       <c r="L35">
         <v>0.1068680261639092</v>
@@ -4331,7 +4331,7 @@
       </c>
       <c r="R35">
         <f t="shared" si="1"/>
-        <v>0.576273109719867</v>
+        <v>0.50127310971986705</v>
       </c>
       <c r="S35">
         <f t="shared" si="2"/>
@@ -4392,10 +4392,10 @@
         <v>0.97788120151746749</v>
       </c>
       <c r="J36">
-        <v>0.34315118547769097</v>
+        <v>0.26815118547769101</v>
       </c>
       <c r="K36">
-        <v>1.1057093754281153</v>
+        <v>0.86404270876144884</v>
       </c>
       <c r="L36">
         <v>0.14998441134853829</v>
@@ -4566,10 +4566,10 @@
         <v>1.0542793845152012</v>
       </c>
       <c r="J38">
-        <v>0.31691660477487016</v>
+        <v>0.24191660477487015</v>
       </c>
       <c r="K38">
-        <v>1.3129402197816049</v>
+        <v>1.0022259340673192</v>
       </c>
       <c r="L38">
         <v>0.18630352965110364</v>
@@ -4740,10 +4740,10 @@
         <v>1.8863338647564252</v>
       </c>
       <c r="J40">
-        <v>0.35192098803363325</v>
+        <v>0.2769209880336333</v>
       </c>
       <c r="K40">
-        <v>1.4579583789964805</v>
+        <v>1.147244093282195</v>
       </c>
       <c r="L40">
         <v>0.18053996690409385</v>
@@ -5175,10 +5175,10 @@
         <v>1.3861845716662839</v>
       </c>
       <c r="J45">
-        <v>0.24868076486836793</v>
+        <v>0.17368076486836798</v>
       </c>
       <c r="K45">
-        <v>1.442348436236534</v>
+        <v>1.0073484362365341</v>
       </c>
       <c r="L45">
         <v>0.19280736651240829</v>
@@ -5349,10 +5349,10 @@
         <v>0.61350854875885286</v>
       </c>
       <c r="J47">
-        <v>0.45800126720085477</v>
+        <v>0.38300126720085476</v>
       </c>
       <c r="K47">
-        <v>0.69905456572762048</v>
+        <v>0.58458088151709409</v>
       </c>
       <c r="L47">
         <v>0.49056622523483756</v>
@@ -5610,10 +5610,10 @@
         <v>2.4292617855033769</v>
       </c>
       <c r="J50">
-        <v>0.26348448080033254</v>
+        <v>0.18848448080033253</v>
       </c>
       <c r="K50">
-        <v>1.5282099886419287</v>
+        <v>1.0932099886419286</v>
       </c>
       <c r="L50">
         <v>0.16426635054540106</v>
@@ -5697,10 +5697,10 @@
         <v>1.5879581419459641</v>
       </c>
       <c r="J51">
-        <v>0.60865721831779129</v>
+        <v>0.53365721831779123</v>
       </c>
       <c r="K51">
-        <v>1.1767372887477296</v>
+        <v>1.0317372887477296</v>
       </c>
       <c r="L51">
         <v>0.34223205506391352</v>
@@ -5871,10 +5871,10 @@
         <v>1.1050660567908577</v>
       </c>
       <c r="J53">
-        <v>0.73821980575398471</v>
+        <v>0.66321980575398465</v>
       </c>
       <c r="K53">
-        <v>1.6467980282204273</v>
+        <v>1.4794903359127349</v>
       </c>
       <c r="L53">
         <v>0.43252471148372412</v>
@@ -6219,10 +6219,10 @@
         <v>0.59785025318423657</v>
       </c>
       <c r="J57">
-        <v>0.38913974330610168</v>
+        <v>0.31413974330610167</v>
       </c>
       <c r="K57">
-        <v>0.75233683705846321</v>
+        <v>0.6073368370584632</v>
       </c>
       <c r="L57">
         <v>0.19802566889199402</v>
@@ -6306,10 +6306,10 @@
         <v>1.244034090909091</v>
       </c>
       <c r="J58">
-        <v>0.35962795348375709</v>
+        <v>0.28462795348375708</v>
       </c>
       <c r="K58">
-        <v>0.94811005918445057</v>
+        <v>0.75038278645717782</v>
       </c>
       <c r="L58">
         <v>0.2891151853890559</v>
@@ -6393,10 +6393,10 @@
         <v>0.78687190425700304</v>
       </c>
       <c r="J59">
-        <v>0.28722368371489826</v>
+        <v>0.21222368371489828</v>
       </c>
       <c r="K59">
-        <v>0.75722607524836816</v>
+        <v>0.55949880252109552</v>
       </c>
       <c r="L59">
         <v>9.0052441822353335E-2</v>

--- a/AinBOptimisationdataModel_LF_clusters.xlsx
+++ b/AinBOptimisationdataModel_LF_clusters.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4380" yWindow="460" windowWidth="21220" windowHeight="13720"/>
+    <workbookView xWindow="1080" yWindow="460" windowWidth="24520" windowHeight="13720"/>
   </bookViews>
   <sheets>
     <sheet name="Optimisation Model" sheetId="1" r:id="rId1"/>
@@ -1289,10 +1289,10 @@
   <dimension ref="A1:AG86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="U9" sqref="U9"/>
+      <selection pane="bottomRight" activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2103,6 +2103,10 @@
       <c r="AB9" s="7" t="s">
         <v>87</v>
       </c>
+      <c r="AD9">
+        <f>SUM('Optimisation Model'!Q2:Q61)</f>
+        <v>2.6107911353700746</v>
+      </c>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -2190,6 +2194,10 @@
       <c r="AB10" s="7" t="s">
         <v>87</v>
       </c>
+      <c r="AD10">
+        <f>SUM('Optimisation Model'!R2:R61)</f>
+        <v>1.9843512342272998</v>
+      </c>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -2276,6 +2284,10 @@
       </c>
       <c r="AB11" s="7" t="s">
         <v>87</v>
+      </c>
+      <c r="AD11">
+        <f>SUM('Optimisation Model'!S2:S61)</f>
+        <v>2.5509891323775657</v>
       </c>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.2">

--- a/AinBOptimisationdataModel_LF_clusters.xlsx
+++ b/AinBOptimisationdataModel_LF_clusters.xlsx
@@ -15,94 +15,94 @@
     <sheet name="Optimisation Model" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Optimisation Model'!$A$1:$V$61</definedName>
-    <definedName name="solver_adj" localSheetId="0" hidden="1">'Optimisation Model'!$N$2:$P$61</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Optimisation Model'!$A$1:$S$61</definedName>
+    <definedName name="solver_adj" localSheetId="0" hidden="1">'Optimisation Model'!$K$2:$M$61</definedName>
     <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_lhs1" localSheetId="0" hidden="1">'Optimisation Model'!$N$2:$P$61</definedName>
-    <definedName name="solver_lhs10" localSheetId="0" hidden="1">'Optimisation Model'!$Z$18</definedName>
-    <definedName name="solver_lhs11" localSheetId="0" hidden="1">'Optimisation Model'!$Z$19</definedName>
-    <definedName name="solver_lhs12" localSheetId="0" hidden="1">'Optimisation Model'!$Z$20</definedName>
-    <definedName name="solver_lhs13" localSheetId="0" hidden="1">'Optimisation Model'!$Z$21</definedName>
-    <definedName name="solver_lhs14" localSheetId="0" hidden="1">'Optimisation Model'!$Z$22</definedName>
-    <definedName name="solver_lhs15" localSheetId="0" hidden="1">'Optimisation Model'!$Z$23</definedName>
-    <definedName name="solver_lhs16" localSheetId="0" hidden="1">'Optimisation Model'!$Z$24</definedName>
-    <definedName name="solver_lhs17" localSheetId="0" hidden="1">'Optimisation Model'!$Z$25</definedName>
-    <definedName name="solver_lhs18" localSheetId="0" hidden="1">'Optimisation Model'!$Z$26</definedName>
-    <definedName name="solver_lhs19" localSheetId="0" hidden="1">'Optimisation Model'!$Z$27</definedName>
-    <definedName name="solver_lhs2" localSheetId="0" hidden="1">'Optimisation Model'!$Z$10</definedName>
-    <definedName name="solver_lhs20" localSheetId="0" hidden="1">'Optimisation Model'!$Z$28</definedName>
-    <definedName name="solver_lhs21" localSheetId="0" hidden="1">'Optimisation Model'!$Z$29</definedName>
-    <definedName name="solver_lhs22" localSheetId="0" hidden="1">'Optimisation Model'!$Z$30</definedName>
-    <definedName name="solver_lhs23" localSheetId="0" hidden="1">'Optimisation Model'!$Z$31</definedName>
-    <definedName name="solver_lhs24" localSheetId="0" hidden="1">'Optimisation Model'!$Z$32</definedName>
-    <definedName name="solver_lhs25" localSheetId="0" hidden="1">'Optimisation Model'!$Z$33</definedName>
-    <definedName name="solver_lhs26" localSheetId="0" hidden="1">'Optimisation Model'!$Z$34</definedName>
-    <definedName name="solver_lhs27" localSheetId="0" hidden="1">'Optimisation Model'!$Z$35</definedName>
-    <definedName name="solver_lhs28" localSheetId="0" hidden="1">'Optimisation Model'!$Z$36</definedName>
-    <definedName name="solver_lhs29" localSheetId="0" hidden="1">'Optimisation Model'!$Z$37</definedName>
-    <definedName name="solver_lhs3" localSheetId="0" hidden="1">'Optimisation Model'!$Z$11</definedName>
-    <definedName name="solver_lhs30" localSheetId="0" hidden="1">'Optimisation Model'!$Z$38</definedName>
-    <definedName name="solver_lhs31" localSheetId="0" hidden="1">'Optimisation Model'!$Z$39</definedName>
-    <definedName name="solver_lhs32" localSheetId="0" hidden="1">'Optimisation Model'!$Z$40</definedName>
-    <definedName name="solver_lhs33" localSheetId="0" hidden="1">'Optimisation Model'!$Z$41</definedName>
-    <definedName name="solver_lhs34" localSheetId="0" hidden="1">'Optimisation Model'!$Z$42</definedName>
-    <definedName name="solver_lhs35" localSheetId="0" hidden="1">'Optimisation Model'!$Z$43</definedName>
-    <definedName name="solver_lhs36" localSheetId="0" hidden="1">'Optimisation Model'!$Z$44</definedName>
-    <definedName name="solver_lhs37" localSheetId="0" hidden="1">'Optimisation Model'!$Z$45</definedName>
-    <definedName name="solver_lhs38" localSheetId="0" hidden="1">'Optimisation Model'!$Z$46</definedName>
-    <definedName name="solver_lhs39" localSheetId="0" hidden="1">'Optimisation Model'!$Z$47</definedName>
-    <definedName name="solver_lhs4" localSheetId="0" hidden="1">'Optimisation Model'!$Z$12</definedName>
-    <definedName name="solver_lhs40" localSheetId="0" hidden="1">'Optimisation Model'!$Z$48</definedName>
-    <definedName name="solver_lhs41" localSheetId="0" hidden="1">'Optimisation Model'!$Z$49</definedName>
-    <definedName name="solver_lhs42" localSheetId="0" hidden="1">'Optimisation Model'!$Z$50</definedName>
-    <definedName name="solver_lhs43" localSheetId="0" hidden="1">'Optimisation Model'!$Z$51</definedName>
-    <definedName name="solver_lhs44" localSheetId="0" hidden="1">'Optimisation Model'!$Z$52</definedName>
-    <definedName name="solver_lhs45" localSheetId="0" hidden="1">'Optimisation Model'!$Z$53</definedName>
-    <definedName name="solver_lhs46" localSheetId="0" hidden="1">'Optimisation Model'!$Z$54</definedName>
-    <definedName name="solver_lhs47" localSheetId="0" hidden="1">'Optimisation Model'!$Z$55</definedName>
-    <definedName name="solver_lhs48" localSheetId="0" hidden="1">'Optimisation Model'!$Z$56</definedName>
-    <definedName name="solver_lhs49" localSheetId="0" hidden="1">'Optimisation Model'!$Z$57</definedName>
-    <definedName name="solver_lhs5" localSheetId="0" hidden="1">'Optimisation Model'!$Z$13</definedName>
-    <definedName name="solver_lhs50" localSheetId="0" hidden="1">'Optimisation Model'!$Z$58</definedName>
-    <definedName name="solver_lhs51" localSheetId="0" hidden="1">'Optimisation Model'!$Z$59</definedName>
-    <definedName name="solver_lhs52" localSheetId="0" hidden="1">'Optimisation Model'!$Z$60</definedName>
-    <definedName name="solver_lhs53" localSheetId="0" hidden="1">'Optimisation Model'!$Z$61</definedName>
-    <definedName name="solver_lhs54" localSheetId="0" hidden="1">'Optimisation Model'!$Z$62</definedName>
-    <definedName name="solver_lhs55" localSheetId="0" hidden="1">'Optimisation Model'!$Z$63</definedName>
-    <definedName name="solver_lhs56" localSheetId="0" hidden="1">'Optimisation Model'!$Z$64</definedName>
-    <definedName name="solver_lhs57" localSheetId="0" hidden="1">'Optimisation Model'!$Z$65</definedName>
-    <definedName name="solver_lhs58" localSheetId="0" hidden="1">'Optimisation Model'!$Z$66</definedName>
-    <definedName name="solver_lhs59" localSheetId="0" hidden="1">'Optimisation Model'!$Z$67</definedName>
-    <definedName name="solver_lhs6" localSheetId="0" hidden="1">'Optimisation Model'!$Z$14</definedName>
-    <definedName name="solver_lhs60" localSheetId="0" hidden="1">'Optimisation Model'!$Z$68</definedName>
-    <definedName name="solver_lhs61" localSheetId="0" hidden="1">'Optimisation Model'!$Z$69</definedName>
-    <definedName name="solver_lhs62" localSheetId="0" hidden="1">'Optimisation Model'!$Z$7</definedName>
-    <definedName name="solver_lhs63" localSheetId="0" hidden="1">'Optimisation Model'!$Z$70</definedName>
-    <definedName name="solver_lhs64" localSheetId="0" hidden="1">'Optimisation Model'!$Z$71</definedName>
-    <definedName name="solver_lhs65" localSheetId="0" hidden="1">'Optimisation Model'!$Z$72</definedName>
-    <definedName name="solver_lhs66" localSheetId="0" hidden="1">'Optimisation Model'!$Z$73</definedName>
-    <definedName name="solver_lhs67" localSheetId="0" hidden="1">'Optimisation Model'!$Z$74</definedName>
-    <definedName name="solver_lhs68" localSheetId="0" hidden="1">'Optimisation Model'!$Z$75</definedName>
-    <definedName name="solver_lhs69" localSheetId="0" hidden="1">'Optimisation Model'!$Z$75</definedName>
-    <definedName name="solver_lhs7" localSheetId="0" hidden="1">'Optimisation Model'!$Z$15</definedName>
-    <definedName name="solver_lhs70" localSheetId="0" hidden="1">'Optimisation Model'!$Z$76</definedName>
-    <definedName name="solver_lhs71" localSheetId="0" hidden="1">'Optimisation Model'!$Z$77</definedName>
-    <definedName name="solver_lhs72" localSheetId="0" hidden="1">'Optimisation Model'!$Z$78</definedName>
-    <definedName name="solver_lhs73" localSheetId="0" hidden="1">'Optimisation Model'!$Z$79</definedName>
-    <definedName name="solver_lhs74" localSheetId="0" hidden="1">'Optimisation Model'!$Z$8</definedName>
-    <definedName name="solver_lhs75" localSheetId="0" hidden="1">'Optimisation Model'!$Z$80</definedName>
-    <definedName name="solver_lhs76" localSheetId="0" hidden="1">'Optimisation Model'!$Z$81</definedName>
-    <definedName name="solver_lhs77" localSheetId="0" hidden="1">'Optimisation Model'!$Z$82</definedName>
-    <definedName name="solver_lhs78" localSheetId="0" hidden="1">'Optimisation Model'!$Z$83</definedName>
-    <definedName name="solver_lhs79" localSheetId="0" hidden="1">'Optimisation Model'!$Z$84</definedName>
-    <definedName name="solver_lhs8" localSheetId="0" hidden="1">'Optimisation Model'!$Z$16</definedName>
-    <definedName name="solver_lhs80" localSheetId="0" hidden="1">'Optimisation Model'!$Z$85</definedName>
-    <definedName name="solver_lhs81" localSheetId="0" hidden="1">'Optimisation Model'!$Z$86</definedName>
-    <definedName name="solver_lhs82" localSheetId="0" hidden="1">'Optimisation Model'!$Z$9</definedName>
-    <definedName name="solver_lhs9" localSheetId="0" hidden="1">'Optimisation Model'!$Z$17</definedName>
+    <definedName name="solver_lhs1" localSheetId="0" hidden="1">'Optimisation Model'!$K$2:$M$61</definedName>
+    <definedName name="solver_lhs10" localSheetId="0" hidden="1">'Optimisation Model'!$W$18</definedName>
+    <definedName name="solver_lhs11" localSheetId="0" hidden="1">'Optimisation Model'!$W$19</definedName>
+    <definedName name="solver_lhs12" localSheetId="0" hidden="1">'Optimisation Model'!$W$20</definedName>
+    <definedName name="solver_lhs13" localSheetId="0" hidden="1">'Optimisation Model'!$W$21</definedName>
+    <definedName name="solver_lhs14" localSheetId="0" hidden="1">'Optimisation Model'!$W$22</definedName>
+    <definedName name="solver_lhs15" localSheetId="0" hidden="1">'Optimisation Model'!$W$23</definedName>
+    <definedName name="solver_lhs16" localSheetId="0" hidden="1">'Optimisation Model'!$W$24</definedName>
+    <definedName name="solver_lhs17" localSheetId="0" hidden="1">'Optimisation Model'!$W$25</definedName>
+    <definedName name="solver_lhs18" localSheetId="0" hidden="1">'Optimisation Model'!$W$26</definedName>
+    <definedName name="solver_lhs19" localSheetId="0" hidden="1">'Optimisation Model'!$W$27</definedName>
+    <definedName name="solver_lhs2" localSheetId="0" hidden="1">'Optimisation Model'!$W$10</definedName>
+    <definedName name="solver_lhs20" localSheetId="0" hidden="1">'Optimisation Model'!$W$28</definedName>
+    <definedName name="solver_lhs21" localSheetId="0" hidden="1">'Optimisation Model'!$W$29</definedName>
+    <definedName name="solver_lhs22" localSheetId="0" hidden="1">'Optimisation Model'!$W$30</definedName>
+    <definedName name="solver_lhs23" localSheetId="0" hidden="1">'Optimisation Model'!$W$31</definedName>
+    <definedName name="solver_lhs24" localSheetId="0" hidden="1">'Optimisation Model'!$W$32</definedName>
+    <definedName name="solver_lhs25" localSheetId="0" hidden="1">'Optimisation Model'!$W$33</definedName>
+    <definedName name="solver_lhs26" localSheetId="0" hidden="1">'Optimisation Model'!$W$34</definedName>
+    <definedName name="solver_lhs27" localSheetId="0" hidden="1">'Optimisation Model'!$W$35</definedName>
+    <definedName name="solver_lhs28" localSheetId="0" hidden="1">'Optimisation Model'!$W$36</definedName>
+    <definedName name="solver_lhs29" localSheetId="0" hidden="1">'Optimisation Model'!$W$37</definedName>
+    <definedName name="solver_lhs3" localSheetId="0" hidden="1">'Optimisation Model'!$W$11</definedName>
+    <definedName name="solver_lhs30" localSheetId="0" hidden="1">'Optimisation Model'!$W$38</definedName>
+    <definedName name="solver_lhs31" localSheetId="0" hidden="1">'Optimisation Model'!$W$39</definedName>
+    <definedName name="solver_lhs32" localSheetId="0" hidden="1">'Optimisation Model'!$W$40</definedName>
+    <definedName name="solver_lhs33" localSheetId="0" hidden="1">'Optimisation Model'!$W$41</definedName>
+    <definedName name="solver_lhs34" localSheetId="0" hidden="1">'Optimisation Model'!$W$42</definedName>
+    <definedName name="solver_lhs35" localSheetId="0" hidden="1">'Optimisation Model'!$W$43</definedName>
+    <definedName name="solver_lhs36" localSheetId="0" hidden="1">'Optimisation Model'!$W$44</definedName>
+    <definedName name="solver_lhs37" localSheetId="0" hidden="1">'Optimisation Model'!$W$45</definedName>
+    <definedName name="solver_lhs38" localSheetId="0" hidden="1">'Optimisation Model'!$W$46</definedName>
+    <definedName name="solver_lhs39" localSheetId="0" hidden="1">'Optimisation Model'!$W$47</definedName>
+    <definedName name="solver_lhs4" localSheetId="0" hidden="1">'Optimisation Model'!$W$12</definedName>
+    <definedName name="solver_lhs40" localSheetId="0" hidden="1">'Optimisation Model'!$W$48</definedName>
+    <definedName name="solver_lhs41" localSheetId="0" hidden="1">'Optimisation Model'!$W$49</definedName>
+    <definedName name="solver_lhs42" localSheetId="0" hidden="1">'Optimisation Model'!$W$50</definedName>
+    <definedName name="solver_lhs43" localSheetId="0" hidden="1">'Optimisation Model'!$W$51</definedName>
+    <definedName name="solver_lhs44" localSheetId="0" hidden="1">'Optimisation Model'!$W$52</definedName>
+    <definedName name="solver_lhs45" localSheetId="0" hidden="1">'Optimisation Model'!$W$53</definedName>
+    <definedName name="solver_lhs46" localSheetId="0" hidden="1">'Optimisation Model'!$W$54</definedName>
+    <definedName name="solver_lhs47" localSheetId="0" hidden="1">'Optimisation Model'!$W$55</definedName>
+    <definedName name="solver_lhs48" localSheetId="0" hidden="1">'Optimisation Model'!$W$56</definedName>
+    <definedName name="solver_lhs49" localSheetId="0" hidden="1">'Optimisation Model'!$W$57</definedName>
+    <definedName name="solver_lhs5" localSheetId="0" hidden="1">'Optimisation Model'!$W$13</definedName>
+    <definedName name="solver_lhs50" localSheetId="0" hidden="1">'Optimisation Model'!$W$58</definedName>
+    <definedName name="solver_lhs51" localSheetId="0" hidden="1">'Optimisation Model'!$W$59</definedName>
+    <definedName name="solver_lhs52" localSheetId="0" hidden="1">'Optimisation Model'!$W$60</definedName>
+    <definedName name="solver_lhs53" localSheetId="0" hidden="1">'Optimisation Model'!$W$61</definedName>
+    <definedName name="solver_lhs54" localSheetId="0" hidden="1">'Optimisation Model'!$W$62</definedName>
+    <definedName name="solver_lhs55" localSheetId="0" hidden="1">'Optimisation Model'!$W$63</definedName>
+    <definedName name="solver_lhs56" localSheetId="0" hidden="1">'Optimisation Model'!$W$64</definedName>
+    <definedName name="solver_lhs57" localSheetId="0" hidden="1">'Optimisation Model'!$W$65</definedName>
+    <definedName name="solver_lhs58" localSheetId="0" hidden="1">'Optimisation Model'!$W$66</definedName>
+    <definedName name="solver_lhs59" localSheetId="0" hidden="1">'Optimisation Model'!$W$67</definedName>
+    <definedName name="solver_lhs6" localSheetId="0" hidden="1">'Optimisation Model'!$W$14</definedName>
+    <definedName name="solver_lhs60" localSheetId="0" hidden="1">'Optimisation Model'!$W$68</definedName>
+    <definedName name="solver_lhs61" localSheetId="0" hidden="1">'Optimisation Model'!$W$69</definedName>
+    <definedName name="solver_lhs62" localSheetId="0" hidden="1">'Optimisation Model'!$W$7</definedName>
+    <definedName name="solver_lhs63" localSheetId="0" hidden="1">'Optimisation Model'!$W$70</definedName>
+    <definedName name="solver_lhs64" localSheetId="0" hidden="1">'Optimisation Model'!$W$71</definedName>
+    <definedName name="solver_lhs65" localSheetId="0" hidden="1">'Optimisation Model'!$W$72</definedName>
+    <definedName name="solver_lhs66" localSheetId="0" hidden="1">'Optimisation Model'!$W$73</definedName>
+    <definedName name="solver_lhs67" localSheetId="0" hidden="1">'Optimisation Model'!$W$74</definedName>
+    <definedName name="solver_lhs68" localSheetId="0" hidden="1">'Optimisation Model'!$W$75</definedName>
+    <definedName name="solver_lhs69" localSheetId="0" hidden="1">'Optimisation Model'!$W$75</definedName>
+    <definedName name="solver_lhs7" localSheetId="0" hidden="1">'Optimisation Model'!$W$15</definedName>
+    <definedName name="solver_lhs70" localSheetId="0" hidden="1">'Optimisation Model'!$W$76</definedName>
+    <definedName name="solver_lhs71" localSheetId="0" hidden="1">'Optimisation Model'!$W$77</definedName>
+    <definedName name="solver_lhs72" localSheetId="0" hidden="1">'Optimisation Model'!$W$78</definedName>
+    <definedName name="solver_lhs73" localSheetId="0" hidden="1">'Optimisation Model'!$W$79</definedName>
+    <definedName name="solver_lhs74" localSheetId="0" hidden="1">'Optimisation Model'!$W$8</definedName>
+    <definedName name="solver_lhs75" localSheetId="0" hidden="1">'Optimisation Model'!$W$80</definedName>
+    <definedName name="solver_lhs76" localSheetId="0" hidden="1">'Optimisation Model'!$W$81</definedName>
+    <definedName name="solver_lhs77" localSheetId="0" hidden="1">'Optimisation Model'!$W$82</definedName>
+    <definedName name="solver_lhs78" localSheetId="0" hidden="1">'Optimisation Model'!$W$83</definedName>
+    <definedName name="solver_lhs79" localSheetId="0" hidden="1">'Optimisation Model'!$W$84</definedName>
+    <definedName name="solver_lhs8" localSheetId="0" hidden="1">'Optimisation Model'!$W$16</definedName>
+    <definedName name="solver_lhs80" localSheetId="0" hidden="1">'Optimisation Model'!$W$85</definedName>
+    <definedName name="solver_lhs81" localSheetId="0" hidden="1">'Optimisation Model'!$W$86</definedName>
+    <definedName name="solver_lhs82" localSheetId="0" hidden="1">'Optimisation Model'!$W$9</definedName>
+    <definedName name="solver_lhs9" localSheetId="0" hidden="1">'Optimisation Model'!$W$17</definedName>
     <definedName name="solver_lin" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
@@ -111,7 +111,7 @@
     <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="0" hidden="1">82</definedName>
-    <definedName name="solver_opt" localSheetId="0" hidden="1">'Optimisation Model'!$Z$3</definedName>
+    <definedName name="solver_opt" localSheetId="0" hidden="1">'Optimisation Model'!$W$3</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="0" hidden="1">5</definedName>
@@ -197,87 +197,87 @@
     <definedName name="solver_rel82" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rel9" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rhs1" localSheetId="0" hidden="1">binary</definedName>
-    <definedName name="solver_rhs10" localSheetId="0" hidden="1">'Optimisation Model'!$AA$18</definedName>
-    <definedName name="solver_rhs11" localSheetId="0" hidden="1">'Optimisation Model'!$AA$19</definedName>
-    <definedName name="solver_rhs12" localSheetId="0" hidden="1">'Optimisation Model'!$AA$20</definedName>
-    <definedName name="solver_rhs13" localSheetId="0" hidden="1">'Optimisation Model'!$AA$21</definedName>
-    <definedName name="solver_rhs14" localSheetId="0" hidden="1">'Optimisation Model'!$AA$22</definedName>
-    <definedName name="solver_rhs15" localSheetId="0" hidden="1">'Optimisation Model'!$AA$23</definedName>
-    <definedName name="solver_rhs16" localSheetId="0" hidden="1">'Optimisation Model'!$AA$24</definedName>
-    <definedName name="solver_rhs17" localSheetId="0" hidden="1">'Optimisation Model'!$AA$25</definedName>
-    <definedName name="solver_rhs18" localSheetId="0" hidden="1">'Optimisation Model'!$AA$26</definedName>
-    <definedName name="solver_rhs19" localSheetId="0" hidden="1">'Optimisation Model'!$AA$27</definedName>
-    <definedName name="solver_rhs2" localSheetId="0" hidden="1">'Optimisation Model'!$AA$10</definedName>
-    <definedName name="solver_rhs20" localSheetId="0" hidden="1">'Optimisation Model'!$AA$28</definedName>
-    <definedName name="solver_rhs21" localSheetId="0" hidden="1">'Optimisation Model'!$AA$29</definedName>
-    <definedName name="solver_rhs22" localSheetId="0" hidden="1">'Optimisation Model'!$AA$29</definedName>
-    <definedName name="solver_rhs23" localSheetId="0" hidden="1">'Optimisation Model'!$AA$31</definedName>
-    <definedName name="solver_rhs24" localSheetId="0" hidden="1">'Optimisation Model'!$AA$32</definedName>
-    <definedName name="solver_rhs25" localSheetId="0" hidden="1">'Optimisation Model'!$AA$33</definedName>
-    <definedName name="solver_rhs26" localSheetId="0" hidden="1">'Optimisation Model'!$AA$34</definedName>
-    <definedName name="solver_rhs27" localSheetId="0" hidden="1">'Optimisation Model'!$AA$35</definedName>
-    <definedName name="solver_rhs28" localSheetId="0" hidden="1">'Optimisation Model'!$AA$36</definedName>
-    <definedName name="solver_rhs29" localSheetId="0" hidden="1">'Optimisation Model'!$AA$37</definedName>
-    <definedName name="solver_rhs3" localSheetId="0" hidden="1">'Optimisation Model'!$AA$11</definedName>
-    <definedName name="solver_rhs30" localSheetId="0" hidden="1">'Optimisation Model'!$AA$38</definedName>
-    <definedName name="solver_rhs31" localSheetId="0" hidden="1">'Optimisation Model'!$AA$39</definedName>
-    <definedName name="solver_rhs32" localSheetId="0" hidden="1">'Optimisation Model'!$AA$40</definedName>
-    <definedName name="solver_rhs33" localSheetId="0" hidden="1">'Optimisation Model'!$AA$41</definedName>
-    <definedName name="solver_rhs34" localSheetId="0" hidden="1">'Optimisation Model'!$AA$42</definedName>
-    <definedName name="solver_rhs35" localSheetId="0" hidden="1">'Optimisation Model'!$AA$43</definedName>
-    <definedName name="solver_rhs36" localSheetId="0" hidden="1">'Optimisation Model'!$AA$44</definedName>
-    <definedName name="solver_rhs37" localSheetId="0" hidden="1">'Optimisation Model'!$AA$45</definedName>
-    <definedName name="solver_rhs38" localSheetId="0" hidden="1">'Optimisation Model'!$AA$46</definedName>
-    <definedName name="solver_rhs39" localSheetId="0" hidden="1">'Optimisation Model'!$AA$47</definedName>
-    <definedName name="solver_rhs4" localSheetId="0" hidden="1">'Optimisation Model'!$AA$12</definedName>
-    <definedName name="solver_rhs40" localSheetId="0" hidden="1">'Optimisation Model'!$AA$48</definedName>
-    <definedName name="solver_rhs41" localSheetId="0" hidden="1">'Optimisation Model'!$AA$49</definedName>
-    <definedName name="solver_rhs42" localSheetId="0" hidden="1">'Optimisation Model'!$AA$50</definedName>
-    <definedName name="solver_rhs43" localSheetId="0" hidden="1">'Optimisation Model'!$AA$51</definedName>
-    <definedName name="solver_rhs44" localSheetId="0" hidden="1">'Optimisation Model'!$AA$52</definedName>
-    <definedName name="solver_rhs45" localSheetId="0" hidden="1">'Optimisation Model'!$AA$53</definedName>
-    <definedName name="solver_rhs46" localSheetId="0" hidden="1">'Optimisation Model'!$AA$54</definedName>
-    <definedName name="solver_rhs47" localSheetId="0" hidden="1">'Optimisation Model'!$AA$55</definedName>
-    <definedName name="solver_rhs48" localSheetId="0" hidden="1">'Optimisation Model'!$AA$56</definedName>
-    <definedName name="solver_rhs49" localSheetId="0" hidden="1">'Optimisation Model'!$AA$57</definedName>
-    <definedName name="solver_rhs5" localSheetId="0" hidden="1">'Optimisation Model'!$AA$13</definedName>
-    <definedName name="solver_rhs50" localSheetId="0" hidden="1">'Optimisation Model'!$AA$58</definedName>
-    <definedName name="solver_rhs51" localSheetId="0" hidden="1">'Optimisation Model'!$AA$59</definedName>
-    <definedName name="solver_rhs52" localSheetId="0" hidden="1">'Optimisation Model'!$AA$60</definedName>
-    <definedName name="solver_rhs53" localSheetId="0" hidden="1">'Optimisation Model'!$AA$61</definedName>
-    <definedName name="solver_rhs54" localSheetId="0" hidden="1">'Optimisation Model'!$AA$62</definedName>
-    <definedName name="solver_rhs55" localSheetId="0" hidden="1">'Optimisation Model'!$AA$63</definedName>
-    <definedName name="solver_rhs56" localSheetId="0" hidden="1">'Optimisation Model'!$AA$64</definedName>
-    <definedName name="solver_rhs57" localSheetId="0" hidden="1">'Optimisation Model'!$AA$65</definedName>
-    <definedName name="solver_rhs58" localSheetId="0" hidden="1">'Optimisation Model'!$AA$66</definedName>
-    <definedName name="solver_rhs59" localSheetId="0" hidden="1">'Optimisation Model'!$AA$67</definedName>
-    <definedName name="solver_rhs6" localSheetId="0" hidden="1">'Optimisation Model'!$AA$14</definedName>
-    <definedName name="solver_rhs60" localSheetId="0" hidden="1">'Optimisation Model'!$AA$68</definedName>
-    <definedName name="solver_rhs61" localSheetId="0" hidden="1">'Optimisation Model'!$AA$69</definedName>
-    <definedName name="solver_rhs62" localSheetId="0" hidden="1">'Optimisation Model'!$AA$7</definedName>
-    <definedName name="solver_rhs63" localSheetId="0" hidden="1">'Optimisation Model'!$AA$70</definedName>
-    <definedName name="solver_rhs64" localSheetId="0" hidden="1">'Optimisation Model'!$AA$71</definedName>
-    <definedName name="solver_rhs65" localSheetId="0" hidden="1">'Optimisation Model'!$AA$72</definedName>
-    <definedName name="solver_rhs66" localSheetId="0" hidden="1">'Optimisation Model'!$AA$73</definedName>
-    <definedName name="solver_rhs67" localSheetId="0" hidden="1">'Optimisation Model'!$AA$74</definedName>
-    <definedName name="solver_rhs68" localSheetId="0" hidden="1">'Optimisation Model'!$AA$75</definedName>
-    <definedName name="solver_rhs69" localSheetId="0" hidden="1">'Optimisation Model'!$AA$75</definedName>
-    <definedName name="solver_rhs7" localSheetId="0" hidden="1">'Optimisation Model'!$AA$15</definedName>
-    <definedName name="solver_rhs70" localSheetId="0" hidden="1">'Optimisation Model'!$AA$76</definedName>
-    <definedName name="solver_rhs71" localSheetId="0" hidden="1">'Optimisation Model'!$AA$77</definedName>
-    <definedName name="solver_rhs72" localSheetId="0" hidden="1">'Optimisation Model'!$AA$78</definedName>
-    <definedName name="solver_rhs73" localSheetId="0" hidden="1">'Optimisation Model'!$AA$79</definedName>
-    <definedName name="solver_rhs74" localSheetId="0" hidden="1">'Optimisation Model'!$AA$8</definedName>
-    <definedName name="solver_rhs75" localSheetId="0" hidden="1">'Optimisation Model'!$AA$80</definedName>
-    <definedName name="solver_rhs76" localSheetId="0" hidden="1">'Optimisation Model'!$AA$81</definedName>
-    <definedName name="solver_rhs77" localSheetId="0" hidden="1">'Optimisation Model'!$AA$82</definedName>
-    <definedName name="solver_rhs78" localSheetId="0" hidden="1">'Optimisation Model'!$AA$83</definedName>
-    <definedName name="solver_rhs79" localSheetId="0" hidden="1">'Optimisation Model'!$AA$84</definedName>
-    <definedName name="solver_rhs8" localSheetId="0" hidden="1">'Optimisation Model'!$AA$16</definedName>
-    <definedName name="solver_rhs80" localSheetId="0" hidden="1">'Optimisation Model'!$AA$85</definedName>
-    <definedName name="solver_rhs81" localSheetId="0" hidden="1">'Optimisation Model'!$AA$86</definedName>
-    <definedName name="solver_rhs82" localSheetId="0" hidden="1">'Optimisation Model'!$AA$9</definedName>
-    <definedName name="solver_rhs9" localSheetId="0" hidden="1">'Optimisation Model'!$AA$17</definedName>
+    <definedName name="solver_rhs10" localSheetId="0" hidden="1">'Optimisation Model'!$X$18</definedName>
+    <definedName name="solver_rhs11" localSheetId="0" hidden="1">'Optimisation Model'!$X$19</definedName>
+    <definedName name="solver_rhs12" localSheetId="0" hidden="1">'Optimisation Model'!$X$20</definedName>
+    <definedName name="solver_rhs13" localSheetId="0" hidden="1">'Optimisation Model'!$X$21</definedName>
+    <definedName name="solver_rhs14" localSheetId="0" hidden="1">'Optimisation Model'!$X$22</definedName>
+    <definedName name="solver_rhs15" localSheetId="0" hidden="1">'Optimisation Model'!$X$23</definedName>
+    <definedName name="solver_rhs16" localSheetId="0" hidden="1">'Optimisation Model'!$X$24</definedName>
+    <definedName name="solver_rhs17" localSheetId="0" hidden="1">'Optimisation Model'!$X$25</definedName>
+    <definedName name="solver_rhs18" localSheetId="0" hidden="1">'Optimisation Model'!$X$26</definedName>
+    <definedName name="solver_rhs19" localSheetId="0" hidden="1">'Optimisation Model'!$X$27</definedName>
+    <definedName name="solver_rhs2" localSheetId="0" hidden="1">'Optimisation Model'!$X$10</definedName>
+    <definedName name="solver_rhs20" localSheetId="0" hidden="1">'Optimisation Model'!$X$28</definedName>
+    <definedName name="solver_rhs21" localSheetId="0" hidden="1">'Optimisation Model'!$X$29</definedName>
+    <definedName name="solver_rhs22" localSheetId="0" hidden="1">'Optimisation Model'!$X$29</definedName>
+    <definedName name="solver_rhs23" localSheetId="0" hidden="1">'Optimisation Model'!$X$31</definedName>
+    <definedName name="solver_rhs24" localSheetId="0" hidden="1">'Optimisation Model'!$X$32</definedName>
+    <definedName name="solver_rhs25" localSheetId="0" hidden="1">'Optimisation Model'!$X$33</definedName>
+    <definedName name="solver_rhs26" localSheetId="0" hidden="1">'Optimisation Model'!$X$34</definedName>
+    <definedName name="solver_rhs27" localSheetId="0" hidden="1">'Optimisation Model'!$X$35</definedName>
+    <definedName name="solver_rhs28" localSheetId="0" hidden="1">'Optimisation Model'!$X$36</definedName>
+    <definedName name="solver_rhs29" localSheetId="0" hidden="1">'Optimisation Model'!$X$37</definedName>
+    <definedName name="solver_rhs3" localSheetId="0" hidden="1">'Optimisation Model'!$X$11</definedName>
+    <definedName name="solver_rhs30" localSheetId="0" hidden="1">'Optimisation Model'!$X$38</definedName>
+    <definedName name="solver_rhs31" localSheetId="0" hidden="1">'Optimisation Model'!$X$39</definedName>
+    <definedName name="solver_rhs32" localSheetId="0" hidden="1">'Optimisation Model'!$X$40</definedName>
+    <definedName name="solver_rhs33" localSheetId="0" hidden="1">'Optimisation Model'!$X$41</definedName>
+    <definedName name="solver_rhs34" localSheetId="0" hidden="1">'Optimisation Model'!$X$42</definedName>
+    <definedName name="solver_rhs35" localSheetId="0" hidden="1">'Optimisation Model'!$X$43</definedName>
+    <definedName name="solver_rhs36" localSheetId="0" hidden="1">'Optimisation Model'!$X$44</definedName>
+    <definedName name="solver_rhs37" localSheetId="0" hidden="1">'Optimisation Model'!$X$45</definedName>
+    <definedName name="solver_rhs38" localSheetId="0" hidden="1">'Optimisation Model'!$X$46</definedName>
+    <definedName name="solver_rhs39" localSheetId="0" hidden="1">'Optimisation Model'!$X$47</definedName>
+    <definedName name="solver_rhs4" localSheetId="0" hidden="1">'Optimisation Model'!$X$12</definedName>
+    <definedName name="solver_rhs40" localSheetId="0" hidden="1">'Optimisation Model'!$X$48</definedName>
+    <definedName name="solver_rhs41" localSheetId="0" hidden="1">'Optimisation Model'!$X$49</definedName>
+    <definedName name="solver_rhs42" localSheetId="0" hidden="1">'Optimisation Model'!$X$50</definedName>
+    <definedName name="solver_rhs43" localSheetId="0" hidden="1">'Optimisation Model'!$X$51</definedName>
+    <definedName name="solver_rhs44" localSheetId="0" hidden="1">'Optimisation Model'!$X$52</definedName>
+    <definedName name="solver_rhs45" localSheetId="0" hidden="1">'Optimisation Model'!$X$53</definedName>
+    <definedName name="solver_rhs46" localSheetId="0" hidden="1">'Optimisation Model'!$X$54</definedName>
+    <definedName name="solver_rhs47" localSheetId="0" hidden="1">'Optimisation Model'!$X$55</definedName>
+    <definedName name="solver_rhs48" localSheetId="0" hidden="1">'Optimisation Model'!$X$56</definedName>
+    <definedName name="solver_rhs49" localSheetId="0" hidden="1">'Optimisation Model'!$X$57</definedName>
+    <definedName name="solver_rhs5" localSheetId="0" hidden="1">'Optimisation Model'!$X$13</definedName>
+    <definedName name="solver_rhs50" localSheetId="0" hidden="1">'Optimisation Model'!$X$58</definedName>
+    <definedName name="solver_rhs51" localSheetId="0" hidden="1">'Optimisation Model'!$X$59</definedName>
+    <definedName name="solver_rhs52" localSheetId="0" hidden="1">'Optimisation Model'!$X$60</definedName>
+    <definedName name="solver_rhs53" localSheetId="0" hidden="1">'Optimisation Model'!$X$61</definedName>
+    <definedName name="solver_rhs54" localSheetId="0" hidden="1">'Optimisation Model'!$X$62</definedName>
+    <definedName name="solver_rhs55" localSheetId="0" hidden="1">'Optimisation Model'!$X$63</definedName>
+    <definedName name="solver_rhs56" localSheetId="0" hidden="1">'Optimisation Model'!$X$64</definedName>
+    <definedName name="solver_rhs57" localSheetId="0" hidden="1">'Optimisation Model'!$X$65</definedName>
+    <definedName name="solver_rhs58" localSheetId="0" hidden="1">'Optimisation Model'!$X$66</definedName>
+    <definedName name="solver_rhs59" localSheetId="0" hidden="1">'Optimisation Model'!$X$67</definedName>
+    <definedName name="solver_rhs6" localSheetId="0" hidden="1">'Optimisation Model'!$X$14</definedName>
+    <definedName name="solver_rhs60" localSheetId="0" hidden="1">'Optimisation Model'!$X$68</definedName>
+    <definedName name="solver_rhs61" localSheetId="0" hidden="1">'Optimisation Model'!$X$69</definedName>
+    <definedName name="solver_rhs62" localSheetId="0" hidden="1">'Optimisation Model'!$X$7</definedName>
+    <definedName name="solver_rhs63" localSheetId="0" hidden="1">'Optimisation Model'!$X$70</definedName>
+    <definedName name="solver_rhs64" localSheetId="0" hidden="1">'Optimisation Model'!$X$71</definedName>
+    <definedName name="solver_rhs65" localSheetId="0" hidden="1">'Optimisation Model'!$X$72</definedName>
+    <definedName name="solver_rhs66" localSheetId="0" hidden="1">'Optimisation Model'!$X$73</definedName>
+    <definedName name="solver_rhs67" localSheetId="0" hidden="1">'Optimisation Model'!$X$74</definedName>
+    <definedName name="solver_rhs68" localSheetId="0" hidden="1">'Optimisation Model'!$X$75</definedName>
+    <definedName name="solver_rhs69" localSheetId="0" hidden="1">'Optimisation Model'!$X$75</definedName>
+    <definedName name="solver_rhs7" localSheetId="0" hidden="1">'Optimisation Model'!$X$15</definedName>
+    <definedName name="solver_rhs70" localSheetId="0" hidden="1">'Optimisation Model'!$X$76</definedName>
+    <definedName name="solver_rhs71" localSheetId="0" hidden="1">'Optimisation Model'!$X$77</definedName>
+    <definedName name="solver_rhs72" localSheetId="0" hidden="1">'Optimisation Model'!$X$78</definedName>
+    <definedName name="solver_rhs73" localSheetId="0" hidden="1">'Optimisation Model'!$X$79</definedName>
+    <definedName name="solver_rhs74" localSheetId="0" hidden="1">'Optimisation Model'!$X$8</definedName>
+    <definedName name="solver_rhs75" localSheetId="0" hidden="1">'Optimisation Model'!$X$80</definedName>
+    <definedName name="solver_rhs76" localSheetId="0" hidden="1">'Optimisation Model'!$X$81</definedName>
+    <definedName name="solver_rhs77" localSheetId="0" hidden="1">'Optimisation Model'!$X$82</definedName>
+    <definedName name="solver_rhs78" localSheetId="0" hidden="1">'Optimisation Model'!$X$83</definedName>
+    <definedName name="solver_rhs79" localSheetId="0" hidden="1">'Optimisation Model'!$X$84</definedName>
+    <definedName name="solver_rhs8" localSheetId="0" hidden="1">'Optimisation Model'!$X$16</definedName>
+    <definedName name="solver_rhs80" localSheetId="0" hidden="1">'Optimisation Model'!$X$85</definedName>
+    <definedName name="solver_rhs81" localSheetId="0" hidden="1">'Optimisation Model'!$X$86</definedName>
+    <definedName name="solver_rhs82" localSheetId="0" hidden="1">'Optimisation Model'!$X$9</definedName>
+    <definedName name="solver_rhs9" localSheetId="0" hidden="1">'Optimisation Model'!$X$17</definedName>
     <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_scl" localSheetId="0" hidden="1">1</definedName>
@@ -302,7 +302,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="172">
   <si>
     <t>node</t>
   </si>
@@ -325,19 +325,10 @@
     <t>creativitymetric</t>
   </si>
   <si>
-    <t>scaledcreativitymetric</t>
-  </si>
-  <si>
     <t>influencemetric</t>
   </si>
   <si>
-    <t>scaledinfluencemetric</t>
-  </si>
-  <si>
     <t>implementationmetric</t>
-  </si>
-  <si>
-    <t>scaledimplementationmetric</t>
   </si>
   <si>
     <t>1</t>
@@ -1286,13 +1277,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG86"/>
+  <dimension ref="A1:AD86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J17" sqref="J17"/>
+      <selection pane="bottomRight" activeCell="AA11" sqref="AA11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1304,21 +1295,20 @@
     <col min="6" max="6" width="18.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.33203125" customWidth="1"/>
-    <col min="14" max="16" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.1640625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.83203125" customWidth="1"/>
-    <col min="26" max="26" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="4.83203125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="8" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="31" max="33" width="13" style="10" customWidth="1"/>
+    <col min="22" max="22" width="12.83203125" customWidth="1"/>
+    <col min="23" max="23" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="28" max="30" width="13" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1346,46 +1336,37 @@
       <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q1" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="R1" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="S1" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>9</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="T1" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="U1" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="V1" s="8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>12</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1409,66 +1390,57 @@
         <v>0.22609901280573991</v>
       </c>
       <c r="I2">
-        <v>1.3113742742732915</v>
+        <v>0.28575588931486717</v>
       </c>
       <c r="J2">
-        <v>0.28575588931486717</v>
+        <v>0.41776428620429445</v>
       </c>
       <c r="K2">
-        <v>1.6573841580262294</v>
+        <v>0</v>
       </c>
       <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <f>K2*H2</f>
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <f>L2*I2</f>
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <f>J2*M2</f>
         <v>0.41776428620429445</v>
       </c>
-      <c r="M2">
-        <v>2.4230328599849078</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>1</v>
-      </c>
       <c r="Q2">
-        <f>N2*H2</f>
+        <f>K2*C2</f>
         <v>0</v>
       </c>
       <c r="R2">
-        <f>O2*J2</f>
+        <f>L2*C2</f>
         <v>0</v>
       </c>
       <c r="S2">
-        <f>L2*P2</f>
-        <v>0.41776428620429445</v>
-      </c>
-      <c r="T2">
-        <f>N2*C2</f>
-        <v>0</v>
-      </c>
-      <c r="U2">
-        <f>O2*C2</f>
-        <v>0</v>
-      </c>
-      <c r="V2">
-        <f>P2*C2</f>
+        <f>M2*C2</f>
         <v>3</v>
       </c>
-      <c r="AE2" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="AF2" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="AG2" s="11" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AB2" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="AC2" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD2" s="11" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -1492,79 +1464,70 @@
         <v>0.29835173093283729</v>
       </c>
       <c r="I3">
-        <v>0.6655538613117139</v>
+        <v>0.3034694453305613</v>
       </c>
       <c r="J3">
-        <v>0.3034694453305613</v>
+        <v>0.40974657241980672</v>
       </c>
       <c r="K3">
-        <v>0.67697030112202139</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.40974657241980672</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.91405004616726115</v>
+        <v>0</v>
       </c>
       <c r="N3">
+        <f>K3*H3</f>
         <v>0</v>
       </c>
       <c r="O3">
+        <f>L3*I3</f>
         <v>0</v>
       </c>
       <c r="P3">
+        <f>J3*M3</f>
         <v>0</v>
       </c>
       <c r="Q3">
-        <f t="shared" ref="Q3:Q61" si="0">N3*H3</f>
+        <f>K3*C3</f>
         <v>0</v>
       </c>
       <c r="R3">
-        <f t="shared" ref="R3:R61" si="1">O3*J3</f>
+        <f>L3*C3</f>
         <v>0</v>
       </c>
       <c r="S3">
-        <f t="shared" ref="S3:S61" si="2">L3*P3</f>
-        <v>0</v>
-      </c>
-      <c r="T3">
-        <f t="shared" ref="T3:T61" si="3">N3*C3</f>
-        <v>0</v>
-      </c>
-      <c r="U3">
-        <f t="shared" ref="U3:U61" si="4">O3*C3</f>
-        <v>0</v>
-      </c>
-      <c r="V3">
-        <f t="shared" ref="V3:V61" si="5">P3*C3</f>
-        <v>0</v>
-      </c>
-      <c r="Y3" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z3">
-        <f>SUM('Optimisation Model'!Q2:Q61)+SUM('Optimisation Model'!R2:R61)+SUM('Optimisation Model'!S2:S61)</f>
+        <f>M3*C3</f>
+        <v>0</v>
+      </c>
+      <c r="V3" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="W3">
+        <f>SUM('Optimisation Model'!N2:N61)+SUM('Optimisation Model'!O2:O61)+SUM('Optimisation Model'!P2:P61)</f>
         <v>7.1461315019749403</v>
       </c>
-      <c r="AD3" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="AE3" s="12">
-        <f>SUM(N2+N4+N7+N8+N9+N11+N16+N18+N20+N21+N22+N23+N25+N26+N30+N31+N32+N34+N35+N36+N38+N39+N40+N46+N47+N48+N49+N51+N53+N59+N60+N61)</f>
-        <v>2</v>
-      </c>
-      <c r="AF3" s="12">
-        <f t="shared" ref="AF3:AG3" si="6">SUM(O2+O4+O7+O8+O9+O11+O16+O18+O20+O21+O22+O23+O25+O26+O30+O31+O32+O34+O35+O36+O38+O39+O40+O46+O47+O48+O49+O51+O53+O59+O60+O61)</f>
-        <v>2</v>
-      </c>
-      <c r="AG3" s="12">
-        <f t="shared" si="6"/>
+      <c r="AA3" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="AB3" s="12">
+        <f>SUM(K2+K4+K7+K8+K9+K11+K16+K18+K20+K21+K22+K23+K25+K26+K30+K31+K32+K34+K35+K36+K38+K39+K40+K46+K47+K48+K49+K51+K53+K59+K60+K61)</f>
+        <v>2</v>
+      </c>
+      <c r="AC3" s="12">
+        <f t="shared" ref="AC3:AD3" si="0">SUM(L2+L4+L7+L8+L9+L11+L16+L18+L20+L21+L22+L23+L25+L26+L30+L31+L32+L34+L35+L36+L38+L39+L40+L46+L47+L48+L49+L51+L53+L59+L60+L61)</f>
+        <v>2</v>
+      </c>
+      <c r="AD3" s="12">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -1588,72 +1551,63 @@
         <v>0.23942435662558204</v>
       </c>
       <c r="I4">
-        <v>1.3886612684283757</v>
+        <v>0.20612493456712111</v>
       </c>
       <c r="J4">
-        <v>0.20612493456712111</v>
+        <v>0.1026445770734719</v>
       </c>
       <c r="K4">
-        <v>1.1955246204893024</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1026445770734719</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.59533854702613698</v>
+        <v>0</v>
       </c>
       <c r="N4">
+        <f>K4*H4</f>
         <v>0</v>
       </c>
       <c r="O4">
+        <f>L4*I4</f>
         <v>0</v>
       </c>
       <c r="P4">
+        <f>J4*M4</f>
         <v>0</v>
       </c>
       <c r="Q4">
-        <f t="shared" si="0"/>
+        <f>K4*C4</f>
         <v>0</v>
       </c>
       <c r="R4">
+        <f>L4*C4</f>
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <f>M4*C4</f>
+        <v>0</v>
+      </c>
+      <c r="AA4" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="AB4" s="12">
+        <f>K13+K15+K29+K52+K57</f>
+        <v>1</v>
+      </c>
+      <c r="AC4" s="12">
+        <f t="shared" ref="AC4:AD4" si="1">L13+L15+L29+L52+L57</f>
+        <v>1</v>
+      </c>
+      <c r="AD4" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T4">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U4">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="V4">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AD4" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="AE4" s="12">
-        <f>N13+N15+N29+N52+N57</f>
-        <v>1</v>
-      </c>
-      <c r="AF4" s="12">
-        <f t="shared" ref="AF4:AG4" si="7">O13+O15+O29+O52+O57</f>
-        <v>1</v>
-      </c>
-      <c r="AG4" s="12">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:33" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -1677,77 +1631,68 @@
         <v>2.3887242066333133E-2</v>
       </c>
       <c r="I5">
-        <v>0.2309100066412203</v>
+        <v>0.11148942145007246</v>
       </c>
       <c r="J5">
-        <v>0.11148942145007246</v>
+        <v>0.28797457780832636</v>
       </c>
       <c r="K5">
-        <v>1.0777310740173671</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.28797457780832636</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>2.7837542521471548</v>
+        <v>0</v>
       </c>
       <c r="N5">
+        <f>K5*H5</f>
         <v>0</v>
       </c>
       <c r="O5">
+        <f>L5*I5</f>
         <v>0</v>
       </c>
       <c r="P5">
+        <f>J5*M5</f>
         <v>0</v>
       </c>
       <c r="Q5">
-        <f t="shared" si="0"/>
+        <f>K5*C5</f>
         <v>0</v>
       </c>
       <c r="R5">
-        <f t="shared" si="1"/>
+        <f>L5*C5</f>
         <v>0</v>
       </c>
       <c r="S5">
+        <f>M5*C5</f>
+        <v>0</v>
+      </c>
+      <c r="W5" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="X5" s="16"/>
+      <c r="Y5" s="16"/>
+      <c r="AA5" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="AB5" s="12">
+        <f>K3+K5+K6+K10+K12+K24+K27+K28+K37+K41+K45+K50+K54+K58</f>
+        <v>2</v>
+      </c>
+      <c r="AC5" s="12">
+        <f t="shared" ref="AC5:AD5" si="2">L3+L5+L6+L10+L12+L24+L27+L28+L37+L41+L45+L50+L54+L58</f>
+        <v>2</v>
+      </c>
+      <c r="AD5" s="12">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U5">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="V5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Z5" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA5" s="16"/>
-      <c r="AB5" s="16"/>
-      <c r="AD5" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="AE5" s="12">
-        <f>N3+N5+N6+N10+N12+N24+N27+N28+N37+N41+N45+N50+N54+N58</f>
-        <v>2</v>
-      </c>
-      <c r="AF5" s="12">
-        <f t="shared" ref="AF5:AG5" si="8">O3+O5+O6+O10+O12+O24+O27+O28+O37+O41+O45+O50+O54+O58</f>
-        <v>2</v>
-      </c>
-      <c r="AG5" s="12">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -1771,81 +1716,72 @@
         <v>7.5877503025049725E-2</v>
       </c>
       <c r="I6">
-        <v>0.24449417641404911</v>
+        <v>0.13271127275159122</v>
       </c>
       <c r="J6">
-        <v>0.13271127275159122</v>
+        <v>0.33630352965110366</v>
       </c>
       <c r="K6">
-        <v>0.42762521219957172</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.33630352965110366</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>1.0836447066535562</v>
+        <v>0</v>
       </c>
       <c r="N6">
+        <f>K6*H6</f>
         <v>0</v>
       </c>
       <c r="O6">
+        <f>L6*I6</f>
         <v>0</v>
       </c>
       <c r="P6">
+        <f>J6*M6</f>
         <v>0</v>
       </c>
       <c r="Q6">
-        <f t="shared" si="0"/>
+        <f>K6*C6</f>
         <v>0</v>
       </c>
       <c r="R6">
-        <f t="shared" si="1"/>
+        <f>L6*C6</f>
         <v>0</v>
       </c>
       <c r="S6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T6">
+        <f>M6*C6</f>
+        <v>0</v>
+      </c>
+      <c r="W6" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="X6" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y6" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA6" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="AB6" s="12">
+        <f>K14+K17+K19+K33+K42+K43+K44+K55+K56</f>
+        <v>0</v>
+      </c>
+      <c r="AC6" s="12">
+        <f t="shared" ref="AC6:AD6" si="3">L14+L17+L19+L33+L42+L43+L44+L55+L56</f>
+        <v>0</v>
+      </c>
+      <c r="AD6" s="12">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="V6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Z6" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="AA6" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="AB6" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="AD6" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="AE6" s="12">
-        <f>N14+N17+N19+N33+N42+N43+N44+N55+N56</f>
-        <v>0</v>
-      </c>
-      <c r="AF6" s="12">
-        <f t="shared" ref="AF6:AG6" si="9">O14+O17+O19+O33+O42+O43+O44+O55+O56</f>
-        <v>0</v>
-      </c>
-      <c r="AG6" s="12">
-        <f t="shared" si="9"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -1869,70 +1805,61 @@
         <v>0.26784246806685258</v>
       </c>
       <c r="I7">
-        <v>0.70613014308533861</v>
+        <v>0.2634582477955601</v>
       </c>
       <c r="J7">
-        <v>0.2634582477955601</v>
+        <v>0.51963686298443701</v>
       </c>
       <c r="K7">
-        <v>0.69457174418829482</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0.51963686298443701</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>1.3699517296862431</v>
+        <v>0</v>
       </c>
       <c r="N7">
+        <f>K7*H7</f>
         <v>0</v>
       </c>
       <c r="O7">
+        <f>L7*I7</f>
         <v>0</v>
       </c>
       <c r="P7">
+        <f>J7*M7</f>
         <v>0</v>
       </c>
       <c r="Q7">
-        <f t="shared" si="0"/>
+        <f>K7*C7</f>
         <v>0</v>
       </c>
       <c r="R7">
-        <f t="shared" si="1"/>
+        <f>L7*C7</f>
         <v>0</v>
       </c>
       <c r="S7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U7">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="V7">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y7" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="Z7" s="7">
-        <f>N31</f>
-        <v>1</v>
-      </c>
-      <c r="AA7" s="7">
-        <v>1</v>
-      </c>
-      <c r="AB7" s="7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
+        <f>M7*C7</f>
+        <v>0</v>
+      </c>
+      <c r="V7" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="W7" s="7">
+        <f>K31</f>
+        <v>1</v>
+      </c>
+      <c r="X7" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -1956,70 +1883,61 @@
         <v>0.73640167150744817</v>
       </c>
       <c r="I8">
-        <v>1.423709898247733</v>
+        <v>0.56244031106822323</v>
       </c>
       <c r="J8">
-        <v>0.56244031106822323</v>
+        <v>0.49099349519703506</v>
       </c>
       <c r="K8">
-        <v>1.0873846013985649</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0.49099349519703506</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0.9492540907142677</v>
+        <v>0</v>
       </c>
       <c r="N8">
+        <f>K8*H8</f>
         <v>0</v>
       </c>
       <c r="O8">
+        <f>L8*I8</f>
         <v>0</v>
       </c>
       <c r="P8">
+        <f>J8*M8</f>
         <v>0</v>
       </c>
       <c r="Q8">
-        <f t="shared" si="0"/>
+        <f>K8*C8</f>
         <v>0</v>
       </c>
       <c r="R8">
-        <f t="shared" si="1"/>
+        <f>L8*C8</f>
         <v>0</v>
       </c>
       <c r="S8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U8">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="V8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y8" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="Z8" s="7">
-        <f>O34</f>
-        <v>1</v>
-      </c>
-      <c r="AA8" s="7">
-        <v>1</v>
-      </c>
-      <c r="AB8" s="7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
+        <f>M8*C8</f>
+        <v>0</v>
+      </c>
+      <c r="V8" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="W8" s="7">
+        <f>L34</f>
+        <v>1</v>
+      </c>
+      <c r="X8" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y8" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -2043,74 +1961,61 @@
         <v>0.11697041251945589</v>
       </c>
       <c r="I9">
-        <v>3.3921419630642209</v>
+        <v>0.13392737181224712</v>
       </c>
       <c r="J9">
-        <v>0.13392737181224712</v>
+        <v>0.3738595942706705</v>
       </c>
       <c r="K9">
-        <v>3.8838937825551665</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0.3738595942706705</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>10.841928233849444</v>
+        <v>0</v>
       </c>
       <c r="N9">
+        <f>K9*H9</f>
         <v>0</v>
       </c>
       <c r="O9">
+        <f>L9*I9</f>
         <v>0</v>
       </c>
       <c r="P9">
+        <f>J9*M9</f>
         <v>0</v>
       </c>
       <c r="Q9">
-        <f t="shared" si="0"/>
+        <f>K9*C9</f>
         <v>0</v>
       </c>
       <c r="R9">
-        <f t="shared" si="1"/>
+        <f>L9*C9</f>
         <v>0</v>
       </c>
       <c r="S9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U9">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="V9">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y9" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="Z9" s="7">
-        <f>P20</f>
-        <v>1</v>
-      </c>
-      <c r="AA9" s="7">
-        <v>1</v>
-      </c>
-      <c r="AB9" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="AD9">
-        <f>SUM('Optimisation Model'!Q2:Q61)</f>
-        <v>2.6107911353700746</v>
-      </c>
-    </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
+        <f>M9*C9</f>
+        <v>0</v>
+      </c>
+      <c r="V9" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="W9" s="7">
+        <f>M20</f>
+        <v>1</v>
+      </c>
+      <c r="X9" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y9" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -2134,74 +2039,61 @@
         <v>0.16700081380083387</v>
       </c>
       <c r="I10">
-        <v>0.53811373335824242</v>
+        <v>0.14208720302925831</v>
       </c>
       <c r="J10">
-        <v>0.14208720302925831</v>
+        <v>0.36908979073806958</v>
       </c>
       <c r="K10">
-        <v>0.45783654309427679</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0.36908979073806958</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>1.1892893257115575</v>
+        <v>0</v>
       </c>
       <c r="N10">
+        <f>K10*H10</f>
         <v>0</v>
       </c>
       <c r="O10">
+        <f>L10*I10</f>
         <v>0</v>
       </c>
       <c r="P10">
+        <f>J10*M10</f>
         <v>0</v>
       </c>
       <c r="Q10">
-        <f t="shared" si="0"/>
+        <f>K10*C10</f>
         <v>0</v>
       </c>
       <c r="R10">
-        <f t="shared" si="1"/>
+        <f>L10*C10</f>
         <v>0</v>
       </c>
       <c r="S10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U10">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="V10">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y10" s="14" t="s">
+        <f>M10*C10</f>
+        <v>0</v>
+      </c>
+      <c r="V10" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="W10" s="7">
+        <f>SUM('Optimisation Model'!K2:K61)</f>
+        <v>5</v>
+      </c>
+      <c r="X10" s="7">
+        <v>5</v>
+      </c>
+      <c r="Y10" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="Z10" s="7">
-        <f>SUM('Optimisation Model'!N2:N61)</f>
-        <v>5</v>
-      </c>
-      <c r="AA10" s="7">
-        <v>5</v>
-      </c>
-      <c r="AB10" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="AD10">
-        <f>SUM('Optimisation Model'!R2:R61)</f>
-        <v>1.9843512342272998</v>
-      </c>
-    </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -2225,74 +2117,61 @@
         <v>9.8718002114193237E-2</v>
       </c>
       <c r="I11">
-        <v>0.40897458018737198</v>
+        <v>0.18220905037653773</v>
       </c>
       <c r="J11">
-        <v>0.18220905037653773</v>
+        <v>0.33375040281599366</v>
       </c>
       <c r="K11">
-        <v>0.7548660658456563</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0.33375040281599366</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>1.3826802402376879</v>
+        <v>0</v>
       </c>
       <c r="N11">
+        <f>K11*H11</f>
         <v>0</v>
       </c>
       <c r="O11">
+        <f>L11*I11</f>
         <v>0</v>
       </c>
       <c r="P11">
+        <f>J11*M11</f>
         <v>0</v>
       </c>
       <c r="Q11">
-        <f t="shared" si="0"/>
+        <f>K11*C11</f>
         <v>0</v>
       </c>
       <c r="R11">
-        <f t="shared" si="1"/>
+        <f>L11*C11</f>
         <v>0</v>
       </c>
       <c r="S11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T11">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U11">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="V11">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y11" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="Z11" s="7">
-        <f>SUM('Optimisation Model'!O2:O61)</f>
+        <f>M11*C11</f>
+        <v>0</v>
+      </c>
+      <c r="V11" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="W11" s="7">
+        <f>SUM('Optimisation Model'!L2:L61)</f>
         <v>5</v>
       </c>
-      <c r="AA11" s="7">
+      <c r="X11" s="7">
         <v>5</v>
       </c>
-      <c r="AB11" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="AD11">
-        <f>SUM('Optimisation Model'!S2:S61)</f>
-        <v>2.5509891323775657</v>
-      </c>
-    </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="Y11" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -2316,70 +2195,61 @@
         <v>0.2129355029882041</v>
       </c>
       <c r="I12">
-        <v>0.88216136952255986</v>
+        <v>0.34855127004485553</v>
       </c>
       <c r="J12">
+        <v>0.24964534629362517</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <f>K12*H12</f>
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <f>L12*I12</f>
         <v>0.34855127004485553</v>
       </c>
-      <c r="K12">
-        <v>1.4439981187572586</v>
-      </c>
-      <c r="L12">
-        <v>0.24964534629362517</v>
-      </c>
-      <c r="M12">
-        <v>1.0342450060735899</v>
-      </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
-      <c r="O12">
-        <v>1</v>
-      </c>
       <c r="P12">
+        <f>J12*M12</f>
         <v>0</v>
       </c>
       <c r="Q12">
-        <f t="shared" si="0"/>
+        <f>K12*C12</f>
         <v>0</v>
       </c>
       <c r="R12">
-        <f t="shared" si="1"/>
-        <v>0.34855127004485553</v>
+        <f>L12*C12</f>
+        <v>4</v>
       </c>
       <c r="S12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T12">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U12">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="V12">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y12" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="Z12" s="7">
-        <f>SUM('Optimisation Model'!P2:P61)</f>
+        <f>M12*C12</f>
+        <v>0</v>
+      </c>
+      <c r="V12" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="W12" s="7">
+        <f>SUM('Optimisation Model'!M2:M61)</f>
         <v>5</v>
       </c>
-      <c r="AA12" s="7">
+      <c r="X12" s="7">
         <v>5</v>
       </c>
-      <c r="AB12" s="7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="Y12" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -2403,70 +2273,61 @@
         <v>0.20774097321734944</v>
       </c>
       <c r="I13">
-        <v>0.46342217102331795</v>
+        <v>0.22752533510821074</v>
       </c>
       <c r="J13">
-        <v>0.22752533510821074</v>
+        <v>0.17335872868010735</v>
       </c>
       <c r="K13">
-        <v>0.50755651677985469</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0.17335872868010735</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0.38672331782485486</v>
+        <v>0</v>
       </c>
       <c r="N13">
+        <f>K13*H13</f>
         <v>0</v>
       </c>
       <c r="O13">
+        <f>L13*I13</f>
         <v>0</v>
       </c>
       <c r="P13">
+        <f>J13*M13</f>
         <v>0</v>
       </c>
       <c r="Q13">
-        <f t="shared" si="0"/>
+        <f>K13*C13</f>
         <v>0</v>
       </c>
       <c r="R13">
-        <f t="shared" si="1"/>
+        <f>L13*C13</f>
         <v>0</v>
       </c>
       <c r="S13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T13">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U13">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="V13">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y13" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="Z13" s="7">
-        <f>SUM('Optimisation Model'!T2:T61)</f>
+        <f>M13*C13</f>
+        <v>0</v>
+      </c>
+      <c r="V13" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="W13" s="7">
+        <f>SUM('Optimisation Model'!Q2:Q61)</f>
         <v>28</v>
       </c>
-      <c r="AA13" s="7">
+      <c r="X13" s="7">
         <v>30</v>
       </c>
-      <c r="AB13" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="Y13" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -2490,70 +2351,61 @@
         <v>0.29688640609476302</v>
       </c>
       <c r="I14">
-        <v>0.78270052515892075</v>
+        <v>0.28652998513103434</v>
       </c>
       <c r="J14">
-        <v>0.28652998513103434</v>
+        <v>0.30141323908647338</v>
       </c>
       <c r="K14">
-        <v>0.75539723352727239</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0.30141323908647338</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0.79463490304615714</v>
+        <v>0</v>
       </c>
       <c r="N14">
+        <f>K14*H14</f>
         <v>0</v>
       </c>
       <c r="O14">
+        <f>L14*I14</f>
         <v>0</v>
       </c>
       <c r="P14">
+        <f>J14*M14</f>
         <v>0</v>
       </c>
       <c r="Q14">
-        <f t="shared" si="0"/>
+        <f>K14*C14</f>
         <v>0</v>
       </c>
       <c r="R14">
-        <f t="shared" si="1"/>
+        <f>L14*C14</f>
         <v>0</v>
       </c>
       <c r="S14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T14">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U14">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="V14">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y14" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="Z14" s="7">
-        <f>SUM('Optimisation Model'!U2:U61)</f>
+        <f>M14*C14</f>
+        <v>0</v>
+      </c>
+      <c r="V14" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="W14" s="7">
+        <f>SUM('Optimisation Model'!R2:R61)</f>
         <v>30</v>
       </c>
-      <c r="AA14" s="7">
+      <c r="X14" s="7">
         <v>30</v>
       </c>
-      <c r="AB14" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="Y14" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -2577,70 +2429,61 @@
         <v>0.20625000000000002</v>
       </c>
       <c r="I15">
-        <v>0.31480263157894739</v>
+        <v>0.23330552140688274</v>
       </c>
       <c r="J15">
-        <v>0.23330552140688274</v>
+        <v>0.4555555555555556</v>
       </c>
       <c r="K15">
-        <v>0.35609790109471579</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0.4555555555555556</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0.69532163742690067</v>
+        <v>0</v>
       </c>
       <c r="N15">
+        <f>K15*H15</f>
         <v>0</v>
       </c>
       <c r="O15">
+        <f>L15*I15</f>
         <v>0</v>
       </c>
       <c r="P15">
+        <f>J15*M15</f>
         <v>0</v>
       </c>
       <c r="Q15">
-        <f t="shared" si="0"/>
+        <f>K15*C15</f>
         <v>0</v>
       </c>
       <c r="R15">
-        <f t="shared" si="1"/>
+        <f>L15*C15</f>
         <v>0</v>
       </c>
       <c r="S15">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T15">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U15">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="V15">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y15" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="Z15" s="7">
-        <f>SUM('Optimisation Model'!V2:V61)</f>
+        <f>M15*C15</f>
+        <v>0</v>
+      </c>
+      <c r="V15" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="W15" s="7">
+        <f>SUM('Optimisation Model'!S2:S61)</f>
         <v>30</v>
       </c>
-      <c r="AA15" s="7">
+      <c r="X15" s="7">
         <v>30</v>
       </c>
-      <c r="AB15" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="Y15" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -2664,70 +2507,61 @@
         <v>0.28749999999999998</v>
       </c>
       <c r="I16">
-        <v>2.7791666666666663</v>
+        <v>0.15471779521831505</v>
       </c>
       <c r="J16">
-        <v>0.15471779521831505</v>
+        <v>0.2348031576408601</v>
       </c>
       <c r="K16">
-        <v>1.4956053537770455</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2348031576408601</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>2.269763857194981</v>
+        <v>0</v>
       </c>
       <c r="N16">
+        <f>K16*H16</f>
         <v>0</v>
       </c>
       <c r="O16">
+        <f>L16*I16</f>
         <v>0</v>
       </c>
       <c r="P16">
+        <f>J16*M16</f>
         <v>0</v>
       </c>
       <c r="Q16">
-        <f t="shared" si="0"/>
+        <f>K16*C16</f>
         <v>0</v>
       </c>
       <c r="R16">
-        <f t="shared" si="1"/>
+        <f>L16*C16</f>
         <v>0</v>
       </c>
       <c r="S16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T16">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U16">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="V16">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y16" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="Z16" s="7">
-        <f>'Optimisation Model'!N2+'Optimisation Model'!O2+'Optimisation Model'!P2</f>
-        <v>1</v>
-      </c>
-      <c r="AA16" s="7">
-        <v>1</v>
-      </c>
-      <c r="AB16" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.2">
+        <f>M16*C16</f>
+        <v>0</v>
+      </c>
+      <c r="V16" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="W16" s="7">
+        <f>'Optimisation Model'!K2+'Optimisation Model'!L2+'Optimisation Model'!M2</f>
+        <v>1</v>
+      </c>
+      <c r="X16" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y16" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -2751,70 +2585,61 @@
         <v>0.29445111650347322</v>
       </c>
       <c r="I17">
-        <v>0.94878693095563593</v>
+        <v>0.21785900053434298</v>
       </c>
       <c r="J17">
-        <v>0.21785900053434298</v>
+        <v>0.25293867882363458</v>
       </c>
       <c r="K17">
-        <v>0.70199011283288293</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0.25293867882363458</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0.81502463176504469</v>
+        <v>0</v>
       </c>
       <c r="N17">
+        <f>K17*H17</f>
         <v>0</v>
       </c>
       <c r="O17">
+        <f>L17*I17</f>
         <v>0</v>
       </c>
       <c r="P17">
+        <f>J17*M17</f>
         <v>0</v>
       </c>
       <c r="Q17">
-        <f t="shared" si="0"/>
+        <f>K17*C17</f>
         <v>0</v>
       </c>
       <c r="R17">
-        <f t="shared" si="1"/>
+        <f>L17*C17</f>
         <v>0</v>
       </c>
       <c r="S17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T17">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U17">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="V17">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y17" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="Z17" s="7">
-        <f>'Optimisation Model'!N3+'Optimisation Model'!O3+'Optimisation Model'!P3</f>
-        <v>0</v>
-      </c>
-      <c r="AA17" s="7">
-        <v>1</v>
-      </c>
-      <c r="AB17" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.2">
+        <f>M17*C17</f>
+        <v>0</v>
+      </c>
+      <c r="V17" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="W17" s="7">
+        <f>'Optimisation Model'!K3+'Optimisation Model'!L3+'Optimisation Model'!M3</f>
+        <v>0</v>
+      </c>
+      <c r="X17" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y17" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B18">
         <v>17</v>
@@ -2838,70 +2663,61 @@
         <v>0.27299439089971145</v>
       </c>
       <c r="I18">
-        <v>0.34421031896050575</v>
+        <v>0.45484465139763508</v>
       </c>
       <c r="J18">
-        <v>0.45484465139763508</v>
+        <v>0.30394133071124224</v>
       </c>
       <c r="K18">
-        <v>0.57349977784919204</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0.30394133071124224</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0.38323037350547934</v>
+        <v>0</v>
       </c>
       <c r="N18">
+        <f>K18*H18</f>
         <v>0</v>
       </c>
       <c r="O18">
+        <f>L18*I18</f>
         <v>0</v>
       </c>
       <c r="P18">
+        <f>J18*M18</f>
         <v>0</v>
       </c>
       <c r="Q18">
-        <f t="shared" si="0"/>
+        <f>K18*C18</f>
         <v>0</v>
       </c>
       <c r="R18">
-        <f t="shared" si="1"/>
+        <f>L18*C18</f>
         <v>0</v>
       </c>
       <c r="S18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T18">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U18">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="V18">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y18" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="Z18" s="7">
-        <f>'Optimisation Model'!N4+'Optimisation Model'!O4+'Optimisation Model'!P4</f>
-        <v>0</v>
-      </c>
-      <c r="AA18" s="7">
-        <v>1</v>
-      </c>
-      <c r="AB18" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.2">
+        <f>M18*C18</f>
+        <v>0</v>
+      </c>
+      <c r="V18" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="W18" s="7">
+        <f>'Optimisation Model'!K4+'Optimisation Model'!L4+'Optimisation Model'!M4</f>
+        <v>0</v>
+      </c>
+      <c r="X18" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y18" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B19">
         <v>18</v>
@@ -2925,70 +2741,61 @@
         <v>0.17713153914625493</v>
       </c>
       <c r="I19">
-        <v>0.46698314865830848</v>
+        <v>0.16828550708218701</v>
       </c>
       <c r="J19">
-        <v>0.16828550708218701</v>
+        <v>0.47075691505279815</v>
       </c>
       <c r="K19">
-        <v>0.44366179139849304</v>
+        <v>0</v>
       </c>
       <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="N19">
+        <f>K19*H19</f>
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <f>L19*I19</f>
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <f>J19*M19</f>
         <v>0.47075691505279815</v>
       </c>
-      <c r="M19">
-        <v>1.2410864124119225</v>
-      </c>
-      <c r="N19">
-        <v>0</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19">
-        <v>1</v>
-      </c>
       <c r="Q19">
-        <f t="shared" si="0"/>
+        <f>K19*C19</f>
         <v>0</v>
       </c>
       <c r="R19">
-        <f t="shared" si="1"/>
+        <f>L19*C19</f>
         <v>0</v>
       </c>
       <c r="S19">
-        <f t="shared" si="2"/>
-        <v>0.47075691505279815</v>
-      </c>
-      <c r="T19">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U19">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="V19">
-        <f t="shared" si="5"/>
+        <f>M19*C19</f>
         <v>6</v>
       </c>
-      <c r="Y19" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z19" s="7">
-        <f>'Optimisation Model'!N5+'Optimisation Model'!O5+'Optimisation Model'!P5</f>
-        <v>0</v>
-      </c>
-      <c r="AA19" s="7">
-        <v>1</v>
-      </c>
-      <c r="AB19" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="V19" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="W19" s="7">
+        <f>'Optimisation Model'!K5+'Optimisation Model'!L5+'Optimisation Model'!M5</f>
+        <v>0</v>
+      </c>
+      <c r="X19" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y19" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B20">
         <v>19</v>
@@ -3012,70 +2819,61 @@
         <v>0.47464797538156084</v>
       </c>
       <c r="I20">
-        <v>0.7244626992665929</v>
+        <v>0.57515547842953318</v>
       </c>
       <c r="J20">
-        <v>0.57515547842953318</v>
+        <v>0.63532527674691541</v>
       </c>
       <c r="K20">
-        <v>0.87786888812928754</v>
+        <v>0</v>
       </c>
       <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+      <c r="N20">
+        <f>K20*H20</f>
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <f>L20*I20</f>
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <f>J20*M20</f>
         <v>0.63532527674691541</v>
       </c>
-      <c r="M20">
-        <v>0.9697070013505551</v>
-      </c>
-      <c r="N20">
-        <v>0</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20">
-        <v>1</v>
-      </c>
       <c r="Q20">
-        <f t="shared" si="0"/>
+        <f>K20*C20</f>
         <v>0</v>
       </c>
       <c r="R20">
-        <f t="shared" si="1"/>
+        <f>L20*C20</f>
         <v>0</v>
       </c>
       <c r="S20">
-        <f t="shared" si="2"/>
-        <v>0.63532527674691541</v>
-      </c>
-      <c r="T20">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U20">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="V20">
-        <f t="shared" si="5"/>
+        <f>M20*C20</f>
         <v>10</v>
       </c>
-      <c r="Y20" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="Z20" s="7">
-        <f>'Optimisation Model'!N6+'Optimisation Model'!O6+'Optimisation Model'!P6</f>
-        <v>0</v>
-      </c>
-      <c r="AA20" s="7">
-        <v>1</v>
-      </c>
-      <c r="AB20" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="V20" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="W20" s="7">
+        <f>'Optimisation Model'!K6+'Optimisation Model'!L6+'Optimisation Model'!M6</f>
+        <v>0</v>
+      </c>
+      <c r="X20" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y20" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B21">
         <v>20</v>
@@ -3099,70 +2897,61 @@
         <v>0.7536477866023269</v>
       </c>
       <c r="I21">
-        <v>1.6812142931898062</v>
+        <v>0.45622645385330535</v>
       </c>
       <c r="J21">
-        <v>0.45622645385330535</v>
+        <v>0.43436490377862064</v>
       </c>
       <c r="K21">
-        <v>1.0177359355189119</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0.43436490377862064</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0.96896786227538445</v>
+        <v>0</v>
       </c>
       <c r="N21">
+        <f>K21*H21</f>
         <v>0</v>
       </c>
       <c r="O21">
+        <f>L21*I21</f>
         <v>0</v>
       </c>
       <c r="P21">
+        <f>J21*M21</f>
         <v>0</v>
       </c>
       <c r="Q21">
-        <f t="shared" si="0"/>
+        <f>K21*C21</f>
         <v>0</v>
       </c>
       <c r="R21">
-        <f t="shared" si="1"/>
+        <f>L21*C21</f>
         <v>0</v>
       </c>
       <c r="S21">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T21">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U21">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="V21">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y21" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="Z21" s="7">
-        <f>'Optimisation Model'!N7+'Optimisation Model'!O7+'Optimisation Model'!P7</f>
-        <v>0</v>
-      </c>
-      <c r="AA21" s="7">
-        <v>1</v>
-      </c>
-      <c r="AB21" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.2">
+        <f>M21*C21</f>
+        <v>0</v>
+      </c>
+      <c r="V21" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="W21" s="7">
+        <f>'Optimisation Model'!K7+'Optimisation Model'!L7+'Optimisation Model'!M7</f>
+        <v>0</v>
+      </c>
+      <c r="X21" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y21" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B22">
         <v>21</v>
@@ -3186,70 +2975,61 @@
         <v>0.69596890917640553</v>
       </c>
       <c r="I22">
-        <v>1.0622683350587243</v>
+        <v>0.69608169517847029</v>
       </c>
       <c r="J22">
-        <v>0.69608169517847029</v>
+        <v>0.55041706948266034</v>
       </c>
       <c r="K22">
-        <v>1.0624404821145073</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0.55041706948266034</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0.84011026394721844</v>
+        <v>0</v>
       </c>
       <c r="N22">
+        <f>K22*H22</f>
         <v>0</v>
       </c>
       <c r="O22">
+        <f>L22*I22</f>
         <v>0</v>
       </c>
       <c r="P22">
+        <f>J22*M22</f>
         <v>0</v>
       </c>
       <c r="Q22">
-        <f t="shared" si="0"/>
+        <f>K22*C22</f>
         <v>0</v>
       </c>
       <c r="R22">
-        <f t="shared" si="1"/>
+        <f>L22*C22</f>
         <v>0</v>
       </c>
       <c r="S22">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T22">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U22">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="V22">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y22" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="Z22" s="7">
-        <f>'Optimisation Model'!N8+'Optimisation Model'!O8+'Optimisation Model'!P8</f>
-        <v>0</v>
-      </c>
-      <c r="AA22" s="7">
-        <v>1</v>
-      </c>
-      <c r="AB22" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.2">
+        <f>M22*C22</f>
+        <v>0</v>
+      </c>
+      <c r="V22" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="W22" s="7">
+        <f>'Optimisation Model'!K8+'Optimisation Model'!L8+'Optimisation Model'!M8</f>
+        <v>0</v>
+      </c>
+      <c r="X22" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y22" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B23">
         <v>22</v>
@@ -3273,70 +3053,61 @@
         <v>0.3316218706073189</v>
       </c>
       <c r="I23">
-        <v>0.64113561650748319</v>
+        <v>0.53472134765692214</v>
       </c>
       <c r="J23">
-        <v>0.53472134765692214</v>
+        <v>0.65278178908348872</v>
       </c>
       <c r="K23">
-        <v>1.0337946054700493</v>
+        <v>0</v>
       </c>
       <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>1</v>
+      </c>
+      <c r="N23">
+        <f>K23*H23</f>
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <f>L23*I23</f>
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <f>J23*M23</f>
         <v>0.65278178908348872</v>
       </c>
-      <c r="M23">
-        <v>1.2620447922280782</v>
-      </c>
-      <c r="N23">
-        <v>0</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23">
-        <v>1</v>
-      </c>
       <c r="Q23">
-        <f t="shared" si="0"/>
+        <f>K23*C23</f>
         <v>0</v>
       </c>
       <c r="R23">
-        <f t="shared" si="1"/>
+        <f>L23*C23</f>
         <v>0</v>
       </c>
       <c r="S23">
-        <f t="shared" si="2"/>
-        <v>0.65278178908348872</v>
-      </c>
-      <c r="T23">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U23">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="V23">
-        <f t="shared" si="5"/>
+        <f>M23*C23</f>
         <v>8</v>
       </c>
-      <c r="Y23" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="Z23" s="7">
-        <f>'Optimisation Model'!N9+'Optimisation Model'!O9+'Optimisation Model'!P9</f>
-        <v>0</v>
-      </c>
-      <c r="AA23" s="7">
-        <v>1</v>
-      </c>
-      <c r="AB23" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="V23" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="W23" s="7">
+        <f>'Optimisation Model'!K9+'Optimisation Model'!L9+'Optimisation Model'!M9</f>
+        <v>0</v>
+      </c>
+      <c r="X23" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y23" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B24">
         <v>23</v>
@@ -3360,70 +3131,61 @@
         <v>0.20024323252930532</v>
       </c>
       <c r="I24">
-        <v>1.1614107486699707</v>
+        <v>0.24210125306535046</v>
       </c>
       <c r="J24">
+        <v>0.25010333185405631</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <f>K24*H24</f>
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <f>L24*I24</f>
         <v>0.24210125306535046</v>
       </c>
-      <c r="K24">
-        <v>1.4041872677790326</v>
-      </c>
-      <c r="L24">
-        <v>0.25010333185405631</v>
-      </c>
-      <c r="M24">
-        <v>1.4505993247535265</v>
-      </c>
-      <c r="N24">
-        <v>0</v>
-      </c>
-      <c r="O24">
-        <v>1</v>
-      </c>
       <c r="P24">
+        <f>J24*M24</f>
         <v>0</v>
       </c>
       <c r="Q24">
-        <f t="shared" si="0"/>
+        <f>K24*C24</f>
         <v>0</v>
       </c>
       <c r="R24">
-        <f t="shared" si="1"/>
-        <v>0.24210125306535046</v>
+        <f>L24*C24</f>
+        <v>3</v>
       </c>
       <c r="S24">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T24">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U24">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="V24">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y24" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="Z24" s="7">
-        <f>'Optimisation Model'!N10+'Optimisation Model'!O10+'Optimisation Model'!P10</f>
-        <v>0</v>
-      </c>
-      <c r="AA24" s="7">
-        <v>1</v>
-      </c>
-      <c r="AB24" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.2">
+        <f>M24*C24</f>
+        <v>0</v>
+      </c>
+      <c r="V24" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="W24" s="7">
+        <f>'Optimisation Model'!K10+'Optimisation Model'!L10+'Optimisation Model'!M10</f>
+        <v>0</v>
+      </c>
+      <c r="X24" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y24" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B25">
         <v>24</v>
@@ -3447,70 +3209,61 @@
         <v>0.34236436481764237</v>
       </c>
       <c r="I25">
-        <v>1.4183666542445184</v>
+        <v>0.28757728617545741</v>
       </c>
       <c r="J25">
-        <v>0.28757728617545741</v>
+        <v>0.39243395070683629</v>
       </c>
       <c r="K25">
-        <v>1.1913916141554663</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>0.39243395070683629</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>1.6257977957854646</v>
+        <v>0</v>
       </c>
       <c r="N25">
+        <f>K25*H25</f>
         <v>0</v>
       </c>
       <c r="O25">
+        <f>L25*I25</f>
         <v>0</v>
       </c>
       <c r="P25">
+        <f>J25*M25</f>
         <v>0</v>
       </c>
       <c r="Q25">
-        <f t="shared" si="0"/>
+        <f>K25*C25</f>
         <v>0</v>
       </c>
       <c r="R25">
-        <f t="shared" si="1"/>
+        <f>L25*C25</f>
         <v>0</v>
       </c>
       <c r="S25">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T25">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U25">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="V25">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y25" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="Z25" s="7">
-        <f>'Optimisation Model'!N11+'Optimisation Model'!O11+'Optimisation Model'!P11</f>
-        <v>0</v>
-      </c>
-      <c r="AA25" s="7">
-        <v>1</v>
-      </c>
-      <c r="AB25" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.2">
+        <f>M25*C25</f>
+        <v>0</v>
+      </c>
+      <c r="V25" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="W25" s="7">
+        <f>'Optimisation Model'!K11+'Optimisation Model'!L11+'Optimisation Model'!M11</f>
+        <v>0</v>
+      </c>
+      <c r="X25" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y25" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B26">
         <v>25</v>
@@ -3534,70 +3287,61 @@
         <v>0.28013865141581146</v>
       </c>
       <c r="I26">
-        <v>0.5416013927372354</v>
+        <v>0.36231773253239852</v>
       </c>
       <c r="J26">
-        <v>0.36231773253239852</v>
+        <v>0.57861139116039983</v>
       </c>
       <c r="K26">
-        <v>0.70048094956263707</v>
+        <v>0</v>
       </c>
       <c r="L26">
-        <v>0.57861139116039983</v>
+        <v>0</v>
       </c>
       <c r="M26">
-        <v>1.1186486895767729</v>
+        <v>0</v>
       </c>
       <c r="N26">
+        <f>K26*H26</f>
         <v>0</v>
       </c>
       <c r="O26">
+        <f>L26*I26</f>
         <v>0</v>
       </c>
       <c r="P26">
+        <f>J26*M26</f>
         <v>0</v>
       </c>
       <c r="Q26">
-        <f t="shared" si="0"/>
+        <f>K26*C26</f>
         <v>0</v>
       </c>
       <c r="R26">
-        <f t="shared" si="1"/>
+        <f>L26*C26</f>
         <v>0</v>
       </c>
       <c r="S26">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T26">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U26">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="V26">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y26" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="Z26" s="7">
-        <f>'Optimisation Model'!N12+'Optimisation Model'!O12+'Optimisation Model'!P12</f>
-        <v>1</v>
-      </c>
-      <c r="AA26" s="7">
-        <v>1</v>
-      </c>
-      <c r="AB26" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.2">
+        <f>M26*C26</f>
+        <v>0</v>
+      </c>
+      <c r="V26" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="W26" s="7">
+        <f>'Optimisation Model'!K12+'Optimisation Model'!L12+'Optimisation Model'!M12</f>
+        <v>1</v>
+      </c>
+      <c r="X26" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y26" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B27">
         <v>26</v>
@@ -3621,70 +3365,61 @@
         <v>0.33877260042414992</v>
       </c>
       <c r="I27">
-        <v>1.0916006013667052</v>
+        <v>0.23687100197879862</v>
       </c>
       <c r="J27">
-        <v>0.23687100197879862</v>
+        <v>0.2891151853890559</v>
       </c>
       <c r="K27">
-        <v>0.76325100637612886</v>
+        <v>0</v>
       </c>
       <c r="L27">
-        <v>0.2891151853890559</v>
+        <v>0</v>
       </c>
       <c r="M27">
-        <v>0.93159337514251339</v>
+        <v>0</v>
       </c>
       <c r="N27">
+        <f>K27*H27</f>
         <v>0</v>
       </c>
       <c r="O27">
+        <f>L27*I27</f>
         <v>0</v>
       </c>
       <c r="P27">
+        <f>J27*M27</f>
         <v>0</v>
       </c>
       <c r="Q27">
-        <f t="shared" si="0"/>
+        <f>K27*C27</f>
         <v>0</v>
       </c>
       <c r="R27">
-        <f t="shared" si="1"/>
+        <f>L27*C27</f>
         <v>0</v>
       </c>
       <c r="S27">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T27">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U27">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="V27">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y27" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="Z27" s="7">
-        <f>'Optimisation Model'!N13+'Optimisation Model'!O13+'Optimisation Model'!P13</f>
-        <v>0</v>
-      </c>
-      <c r="AA27" s="7">
-        <v>1</v>
-      </c>
-      <c r="AB27" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.2">
+        <f>M27*C27</f>
+        <v>0</v>
+      </c>
+      <c r="V27" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="W27" s="7">
+        <f>'Optimisation Model'!K13+'Optimisation Model'!L13+'Optimisation Model'!M13</f>
+        <v>0</v>
+      </c>
+      <c r="X27" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y27" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B28">
         <v>27</v>
@@ -3732,43 +3467,34 @@
         <v>0</v>
       </c>
       <c r="Q28">
+        <f>K28*C28</f>
         <v>0</v>
       </c>
       <c r="R28">
+        <f>L28*C28</f>
         <v>0</v>
       </c>
       <c r="S28">
-        <v>0</v>
-      </c>
-      <c r="T28">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U28">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="V28">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y28" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="Z28" s="7">
-        <f>'Optimisation Model'!N14+'Optimisation Model'!O14+'Optimisation Model'!P14</f>
-        <v>0</v>
-      </c>
-      <c r="AA28" s="7">
-        <v>1</v>
-      </c>
-      <c r="AB28" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.2">
+        <f>M28*C28</f>
+        <v>0</v>
+      </c>
+      <c r="V28" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="W28" s="7">
+        <f>'Optimisation Model'!K14+'Optimisation Model'!L14+'Optimisation Model'!M14</f>
+        <v>0</v>
+      </c>
+      <c r="X28" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y28" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B29">
         <v>28</v>
@@ -3792,70 +3518,61 @@
         <v>0.44289125274477059</v>
       </c>
       <c r="I29">
-        <v>0.98798817919987281</v>
+        <v>0.29242560139722673</v>
       </c>
       <c r="J29">
+        <v>0.14280317312455179</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <f>K29*H29</f>
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <f>L29*I29</f>
         <v>0.29242560139722673</v>
       </c>
-      <c r="K29">
-        <v>0.65233403388612121</v>
-      </c>
-      <c r="L29">
-        <v>0.14280317312455179</v>
-      </c>
-      <c r="M29">
-        <v>0.31856092466246166</v>
-      </c>
-      <c r="N29">
-        <v>0</v>
-      </c>
-      <c r="O29">
-        <v>1</v>
-      </c>
       <c r="P29">
+        <f>J29*M29</f>
         <v>0</v>
       </c>
       <c r="Q29">
-        <f t="shared" si="0"/>
+        <f>K29*C29</f>
         <v>0</v>
       </c>
       <c r="R29">
-        <f t="shared" si="1"/>
-        <v>0.29242560139722673</v>
+        <f>L29*C29</f>
+        <v>7</v>
       </c>
       <c r="S29">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T29">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U29">
-        <f t="shared" si="4"/>
-        <v>7</v>
-      </c>
-      <c r="V29">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y29" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="Z29" s="7">
-        <f>'Optimisation Model'!N15+'Optimisation Model'!O15+'Optimisation Model'!P15</f>
-        <v>0</v>
-      </c>
-      <c r="AA29" s="7">
-        <v>1</v>
-      </c>
-      <c r="AB29" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.2">
+        <f>M29*C29</f>
+        <v>0</v>
+      </c>
+      <c r="V29" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="W29" s="7">
+        <f>'Optimisation Model'!K15+'Optimisation Model'!L15+'Optimisation Model'!M15</f>
+        <v>0</v>
+      </c>
+      <c r="X29" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y29" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B30">
         <v>29</v>
@@ -3879,70 +3596,61 @@
         <v>0.30305171516115509</v>
       </c>
       <c r="I30">
-        <v>0.51697057292197046</v>
+        <v>0.43016928459901593</v>
       </c>
       <c r="J30">
-        <v>0.43016928459901593</v>
+        <v>0.56364665493477828</v>
       </c>
       <c r="K30">
-        <v>0.73381819137479198</v>
+        <v>0</v>
       </c>
       <c r="L30">
-        <v>0.56364665493477828</v>
+        <v>0</v>
       </c>
       <c r="M30">
-        <v>0.96151488194756307</v>
+        <v>0</v>
       </c>
       <c r="N30">
+        <f>K30*H30</f>
         <v>0</v>
       </c>
       <c r="O30">
+        <f>L30*I30</f>
         <v>0</v>
       </c>
       <c r="P30">
+        <f>J30*M30</f>
         <v>0</v>
       </c>
       <c r="Q30">
-        <f t="shared" si="0"/>
+        <f>K30*C30</f>
         <v>0</v>
       </c>
       <c r="R30">
-        <f t="shared" si="1"/>
+        <f>L30*C30</f>
         <v>0</v>
       </c>
       <c r="S30">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T30">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U30">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="V30">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y30" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="Z30" s="7">
-        <f>'Optimisation Model'!N16+'Optimisation Model'!O16+'Optimisation Model'!P16</f>
-        <v>0</v>
-      </c>
-      <c r="AA30" s="7">
-        <v>1</v>
-      </c>
-      <c r="AB30" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.2">
+        <f>M30*C30</f>
+        <v>0</v>
+      </c>
+      <c r="V30" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="W30" s="7">
+        <f>'Optimisation Model'!K16+'Optimisation Model'!L16+'Optimisation Model'!M16</f>
+        <v>0</v>
+      </c>
+      <c r="X30" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y30" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B31">
         <v>30</v>
@@ -3966,70 +3674,61 @@
         <v>0.49987702337029394</v>
       </c>
       <c r="I31">
-        <v>14.496433677738525</v>
+        <v>0.56492784466312607</v>
       </c>
       <c r="J31">
-        <v>0.56492784466312607</v>
+        <v>0.50141323908647339</v>
       </c>
       <c r="K31">
-        <v>16.382907495230658</v>
+        <v>1</v>
       </c>
       <c r="L31">
-        <v>0.50141323908647339</v>
+        <v>0</v>
       </c>
       <c r="M31">
-        <v>14.540983933507729</v>
+        <v>0</v>
       </c>
       <c r="N31">
-        <v>1</v>
+        <f>K31*H31</f>
+        <v>0.49987702337029394</v>
       </c>
       <c r="O31">
+        <f>L31*I31</f>
         <v>0</v>
       </c>
       <c r="P31">
+        <f>J31*M31</f>
         <v>0</v>
       </c>
       <c r="Q31">
-        <f t="shared" si="0"/>
-        <v>0.49987702337029394</v>
+        <f>K31*C31</f>
+        <v>1</v>
       </c>
       <c r="R31">
-        <f t="shared" si="1"/>
+        <f>L31*C31</f>
         <v>0</v>
       </c>
       <c r="S31">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T31">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="U31">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="V31">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y31" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="Z31" s="7">
-        <f>'Optimisation Model'!N17+'Optimisation Model'!O17+'Optimisation Model'!P17</f>
-        <v>0</v>
-      </c>
-      <c r="AA31" s="7">
-        <v>1</v>
-      </c>
-      <c r="AB31" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.2">
+        <f>M31*C31</f>
+        <v>0</v>
+      </c>
+      <c r="V31" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="W31" s="7">
+        <f>'Optimisation Model'!K17+'Optimisation Model'!L17+'Optimisation Model'!M17</f>
+        <v>0</v>
+      </c>
+      <c r="X31" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y31" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B32">
         <v>31</v>
@@ -4053,70 +3752,61 @@
         <v>0.20339629206226942</v>
       </c>
       <c r="I32">
-        <v>1.1796984939611626</v>
+        <v>0.16285847014747862</v>
       </c>
       <c r="J32">
-        <v>0.16285847014747862</v>
+        <v>0.25491642084562438</v>
       </c>
       <c r="K32">
-        <v>0.94457912685537593</v>
+        <v>0</v>
       </c>
       <c r="L32">
-        <v>0.25491642084562438</v>
+        <v>0</v>
       </c>
       <c r="M32">
-        <v>1.4785152409046214</v>
+        <v>0</v>
       </c>
       <c r="N32">
+        <f>K32*H32</f>
         <v>0</v>
       </c>
       <c r="O32">
+        <f>L32*I32</f>
         <v>0</v>
       </c>
       <c r="P32">
+        <f>J32*M32</f>
         <v>0</v>
       </c>
       <c r="Q32">
-        <f t="shared" si="0"/>
+        <f>K32*C32</f>
         <v>0</v>
       </c>
       <c r="R32">
-        <f t="shared" si="1"/>
+        <f>L32*C32</f>
         <v>0</v>
       </c>
       <c r="S32">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T32">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U32">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="V32">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y32" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="Z32" s="7">
-        <f>'Optimisation Model'!N18+'Optimisation Model'!O18+'Optimisation Model'!P18</f>
-        <v>0</v>
-      </c>
-      <c r="AA32" s="7">
-        <v>1</v>
-      </c>
-      <c r="AB32" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="33" spans="1:28" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+        <f>M32*C32</f>
+        <v>0</v>
+      </c>
+      <c r="V32" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="W32" s="7">
+        <f>'Optimisation Model'!K18+'Optimisation Model'!L18+'Optimisation Model'!M18</f>
+        <v>0</v>
+      </c>
+      <c r="X32" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y32" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B33">
         <v>32</v>
@@ -4140,70 +3830,61 @@
         <v>3.3504607281620233E-2</v>
       </c>
       <c r="I33">
-        <v>0.10795929012966519</v>
+        <v>0.10484756714770747</v>
       </c>
       <c r="J33">
-        <v>0.10484756714770747</v>
+        <v>0.34086542294506894</v>
       </c>
       <c r="K33">
-        <v>0.33784216080927965</v>
+        <v>0</v>
       </c>
       <c r="L33">
-        <v>0.34086542294506894</v>
+        <v>0</v>
       </c>
       <c r="M33">
-        <v>1.0983441406007777</v>
+        <v>0</v>
       </c>
       <c r="N33">
+        <f>K33*H33</f>
         <v>0</v>
       </c>
       <c r="O33">
+        <f>L33*I33</f>
         <v>0</v>
       </c>
       <c r="P33">
+        <f>J33*M33</f>
         <v>0</v>
       </c>
       <c r="Q33">
-        <f t="shared" si="0"/>
+        <f>K33*C33</f>
         <v>0</v>
       </c>
       <c r="R33">
-        <f t="shared" si="1"/>
+        <f>L33*C33</f>
         <v>0</v>
       </c>
       <c r="S33">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T33">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U33">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="V33">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y33" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="Z33" s="7">
-        <f>'Optimisation Model'!N19+'Optimisation Model'!O19+'Optimisation Model'!P19</f>
-        <v>1</v>
-      </c>
-      <c r="AA33" s="7">
-        <v>1</v>
-      </c>
-      <c r="AB33" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.2">
+        <f>M33*C33</f>
+        <v>0</v>
+      </c>
+      <c r="V33" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="W33" s="7">
+        <f>'Optimisation Model'!K19+'Optimisation Model'!L19+'Optimisation Model'!M19</f>
+        <v>1</v>
+      </c>
+      <c r="X33" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y33" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B34">
         <v>33</v>
@@ -4227,70 +3908,61 @@
         <v>0.7644159567038501</v>
       </c>
       <c r="I34">
-        <v>0.7644159567038501</v>
+        <v>0.59999999999999987</v>
       </c>
       <c r="J34">
+        <v>0.7942022104903339</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <f>K34*H34</f>
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <f>L34*I34</f>
         <v>0.59999999999999987</v>
       </c>
-      <c r="K34">
-        <v>0.59999999999999987</v>
-      </c>
-      <c r="L34">
-        <v>0.7942022104903339</v>
-      </c>
-      <c r="M34">
-        <v>0.7942022104903339</v>
-      </c>
-      <c r="N34">
-        <v>0</v>
-      </c>
-      <c r="O34">
-        <v>1</v>
-      </c>
       <c r="P34">
+        <f>J34*M34</f>
         <v>0</v>
       </c>
       <c r="Q34">
-        <f t="shared" si="0"/>
+        <f>K34*C34</f>
         <v>0</v>
       </c>
       <c r="R34">
-        <f t="shared" si="1"/>
-        <v>0.59999999999999987</v>
+        <f>L34*C34</f>
+        <v>15</v>
       </c>
       <c r="S34">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T34">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U34">
-        <f t="shared" si="4"/>
-        <v>15</v>
-      </c>
-      <c r="V34">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y34" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="Z34" s="7">
-        <f>'Optimisation Model'!N20+'Optimisation Model'!O20+'Optimisation Model'!P20</f>
-        <v>1</v>
-      </c>
-      <c r="AA34" s="7">
-        <v>1</v>
-      </c>
-      <c r="AB34" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.2">
+        <f>M34*C34</f>
+        <v>0</v>
+      </c>
+      <c r="V34" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="W34" s="7">
+        <f>'Optimisation Model'!K20+'Optimisation Model'!L20+'Optimisation Model'!M20</f>
+        <v>1</v>
+      </c>
+      <c r="X34" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y34" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B35">
         <v>34</v>
@@ -4314,70 +3986,61 @@
         <v>0.19229875547094483</v>
       </c>
       <c r="I35">
-        <v>5.5766639086573999</v>
+        <v>0.50127310971986705</v>
       </c>
       <c r="J35">
+        <v>0.1068680261639092</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <f>K35*H35</f>
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <f>L35*I35</f>
         <v>0.50127310971986705</v>
       </c>
-      <c r="K35">
-        <v>14.536920181876145</v>
-      </c>
-      <c r="L35">
-        <v>0.1068680261639092</v>
-      </c>
-      <c r="M35">
-        <v>3.0991727587533666</v>
-      </c>
-      <c r="N35">
-        <v>0</v>
-      </c>
-      <c r="O35">
-        <v>1</v>
-      </c>
       <c r="P35">
+        <f>J35*M35</f>
         <v>0</v>
       </c>
       <c r="Q35">
-        <f t="shared" si="0"/>
+        <f>K35*C35</f>
         <v>0</v>
       </c>
       <c r="R35">
-        <f t="shared" si="1"/>
-        <v>0.50127310971986705</v>
+        <f>L35*C35</f>
+        <v>1</v>
       </c>
       <c r="S35">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T35">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U35">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="V35">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y35" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="Z35" s="7">
-        <f>'Optimisation Model'!N21+'Optimisation Model'!O21+'Optimisation Model'!P21</f>
-        <v>0</v>
-      </c>
-      <c r="AA35" s="7">
-        <v>1</v>
-      </c>
-      <c r="AB35" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.2">
+        <f>M35*C35</f>
+        <v>0</v>
+      </c>
+      <c r="V35" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="W35" s="7">
+        <f>'Optimisation Model'!K21+'Optimisation Model'!L21+'Optimisation Model'!M21</f>
+        <v>0</v>
+      </c>
+      <c r="X35" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y35" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B36">
         <v>35</v>
@@ -4401,70 +4064,61 @@
         <v>0.30348037288473129</v>
       </c>
       <c r="I36">
-        <v>0.97788120151746749</v>
+        <v>0.26815118547769101</v>
       </c>
       <c r="J36">
-        <v>0.26815118547769101</v>
+        <v>0.14998441134853829</v>
       </c>
       <c r="K36">
-        <v>0.86404270876144884</v>
+        <v>0</v>
       </c>
       <c r="L36">
-        <v>0.14998441134853829</v>
+        <v>0</v>
       </c>
       <c r="M36">
-        <v>0.48328310323417895</v>
+        <v>0</v>
       </c>
       <c r="N36">
+        <f>K36*H36</f>
         <v>0</v>
       </c>
       <c r="O36">
+        <f>L36*I36</f>
         <v>0</v>
       </c>
       <c r="P36">
+        <f>J36*M36</f>
         <v>0</v>
       </c>
       <c r="Q36">
-        <f t="shared" si="0"/>
+        <f>K36*C36</f>
         <v>0</v>
       </c>
       <c r="R36">
-        <f t="shared" si="1"/>
+        <f>L36*C36</f>
         <v>0</v>
       </c>
       <c r="S36">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T36">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U36">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="V36">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y36" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="Z36" s="7">
-        <f>'Optimisation Model'!N22+'Optimisation Model'!O22+'Optimisation Model'!P22</f>
-        <v>0</v>
-      </c>
-      <c r="AA36" s="7">
-        <v>1</v>
-      </c>
-      <c r="AB36" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.2">
+        <f>M36*C36</f>
+        <v>0</v>
+      </c>
+      <c r="V36" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="W36" s="7">
+        <f>'Optimisation Model'!K22+'Optimisation Model'!L22+'Optimisation Model'!M22</f>
+        <v>0</v>
+      </c>
+      <c r="X36" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y36" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B37">
         <v>36</v>
@@ -4488,70 +4142,61 @@
         <v>5.9644305196746746E-2</v>
       </c>
       <c r="I37">
-        <v>0.34593697014113112</v>
+        <v>6.3437608013937899E-2</v>
       </c>
       <c r="J37">
-        <v>6.3437608013937899E-2</v>
+        <v>0.25632232811436351</v>
       </c>
       <c r="K37">
-        <v>0.36793812648083979</v>
+        <v>0</v>
       </c>
       <c r="L37">
-        <v>0.25632232811436351</v>
+        <v>0</v>
       </c>
       <c r="M37">
-        <v>1.4866695030633081</v>
+        <v>0</v>
       </c>
       <c r="N37">
+        <f>K37*H37</f>
         <v>0</v>
       </c>
       <c r="O37">
+        <f>L37*I37</f>
         <v>0</v>
       </c>
       <c r="P37">
+        <f>J37*M37</f>
         <v>0</v>
       </c>
       <c r="Q37">
-        <f t="shared" si="0"/>
+        <f>K37*C37</f>
         <v>0</v>
       </c>
       <c r="R37">
-        <f t="shared" si="1"/>
+        <f>L37*C37</f>
         <v>0</v>
       </c>
       <c r="S37">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T37">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U37">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="V37">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y37" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="Z37" s="7">
-        <f>'Optimisation Model'!N23+'Optimisation Model'!O23+'Optimisation Model'!P23</f>
-        <v>1</v>
-      </c>
-      <c r="AA37" s="7">
-        <v>1</v>
-      </c>
-      <c r="AB37" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.2">
+        <f>M37*C37</f>
+        <v>0</v>
+      </c>
+      <c r="V37" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="W37" s="7">
+        <f>'Optimisation Model'!K23+'Optimisation Model'!L23+'Optimisation Model'!M23</f>
+        <v>1</v>
+      </c>
+      <c r="X37" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y37" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B38">
         <v>37</v>
@@ -4575,70 +4220,61 @@
         <v>0.25448123074504858</v>
       </c>
       <c r="I38">
-        <v>1.0542793845152012</v>
+        <v>0.24191660477487015</v>
       </c>
       <c r="J38">
-        <v>0.24191660477487015</v>
+        <v>0.18630352965110364</v>
       </c>
       <c r="K38">
-        <v>1.0022259340673192</v>
+        <v>0</v>
       </c>
       <c r="L38">
-        <v>0.18630352965110364</v>
+        <v>0</v>
       </c>
       <c r="M38">
-        <v>0.7718289085545722</v>
+        <v>0</v>
       </c>
       <c r="N38">
+        <f>K38*H38</f>
         <v>0</v>
       </c>
       <c r="O38">
+        <f>L38*I38</f>
         <v>0</v>
       </c>
       <c r="P38">
+        <f>J38*M38</f>
         <v>0</v>
       </c>
       <c r="Q38">
-        <f t="shared" si="0"/>
+        <f>K38*C38</f>
         <v>0</v>
       </c>
       <c r="R38">
-        <f t="shared" si="1"/>
+        <f>L38*C38</f>
         <v>0</v>
       </c>
       <c r="S38">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T38">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U38">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="V38">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y38" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="Z38" s="7">
-        <f>'Optimisation Model'!N24+'Optimisation Model'!O24+'Optimisation Model'!P24</f>
-        <v>1</v>
-      </c>
-      <c r="AA38" s="7">
-        <v>1</v>
-      </c>
-      <c r="AB38" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.2">
+        <f>M38*C38</f>
+        <v>0</v>
+      </c>
+      <c r="V38" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="W38" s="7">
+        <f>'Optimisation Model'!K24+'Optimisation Model'!L24+'Optimisation Model'!M24</f>
+        <v>1</v>
+      </c>
+      <c r="X38" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y38" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B39">
         <v>38</v>
@@ -4662,70 +4298,61 @@
         <v>0.2869945797400677</v>
       </c>
       <c r="I39">
-        <v>1.6645685624923925</v>
+        <v>0.16938150897721924</v>
       </c>
       <c r="J39">
-        <v>0.16938150897721924</v>
+        <v>0.30445511412372639</v>
       </c>
       <c r="K39">
-        <v>0.98241275206787149</v>
+        <v>0</v>
       </c>
       <c r="L39">
-        <v>0.30445511412372639</v>
+        <v>0</v>
       </c>
       <c r="M39">
-        <v>1.7658396619176129</v>
+        <v>0</v>
       </c>
       <c r="N39">
+        <f>K39*H39</f>
         <v>0</v>
       </c>
       <c r="O39">
+        <f>L39*I39</f>
         <v>0</v>
       </c>
       <c r="P39">
+        <f>J39*M39</f>
         <v>0</v>
       </c>
       <c r="Q39">
-        <f t="shared" si="0"/>
+        <f>K39*C39</f>
         <v>0</v>
       </c>
       <c r="R39">
-        <f t="shared" si="1"/>
+        <f>L39*C39</f>
         <v>0</v>
       </c>
       <c r="S39">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T39">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U39">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="V39">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y39" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="Z39" s="7">
-        <f>'Optimisation Model'!N25+'Optimisation Model'!O25+'Optimisation Model'!P25</f>
-        <v>0</v>
-      </c>
-      <c r="AA39" s="7">
-        <v>1</v>
-      </c>
-      <c r="AB39" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.2">
+        <f>M39*C39</f>
+        <v>0</v>
+      </c>
+      <c r="V39" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="W39" s="7">
+        <f>'Optimisation Model'!K25+'Optimisation Model'!L25+'Optimisation Model'!M25</f>
+        <v>0</v>
+      </c>
+      <c r="X39" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y39" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B40">
         <v>39</v>
@@ -4749,70 +4376,61 @@
         <v>0.45532196735499919</v>
       </c>
       <c r="I40">
-        <v>1.8863338647564252</v>
+        <v>0.2769209880336333</v>
       </c>
       <c r="J40">
-        <v>0.2769209880336333</v>
+        <v>0.18053996690409385</v>
       </c>
       <c r="K40">
-        <v>1.147244093282195</v>
+        <v>0</v>
       </c>
       <c r="L40">
-        <v>0.18053996690409385</v>
+        <v>0</v>
       </c>
       <c r="M40">
-        <v>0.74795129145981731</v>
+        <v>0</v>
       </c>
       <c r="N40">
+        <f>K40*H40</f>
         <v>0</v>
       </c>
       <c r="O40">
+        <f>L40*I40</f>
         <v>0</v>
       </c>
       <c r="P40">
+        <f>J40*M40</f>
         <v>0</v>
       </c>
       <c r="Q40">
-        <f t="shared" si="0"/>
+        <f>K40*C40</f>
         <v>0</v>
       </c>
       <c r="R40">
-        <f t="shared" si="1"/>
+        <f>L40*C40</f>
         <v>0</v>
       </c>
       <c r="S40">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T40">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U40">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="V40">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y40" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="Z40" s="7">
-        <f>'Optimisation Model'!N26+'Optimisation Model'!O26+'Optimisation Model'!P26</f>
-        <v>0</v>
-      </c>
-      <c r="AA40" s="7">
-        <v>1</v>
-      </c>
-      <c r="AB40" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.2">
+        <f>M40*C40</f>
+        <v>0</v>
+      </c>
+      <c r="V40" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="W40" s="7">
+        <f>'Optimisation Model'!K26+'Optimisation Model'!L26+'Optimisation Model'!M26</f>
+        <v>0</v>
+      </c>
+      <c r="X40" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y40" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B41">
         <v>40</v>
@@ -4836,70 +4454,61 @@
         <v>7.9496885007155696E-2</v>
       </c>
       <c r="I41">
-        <v>0.46108193304150302</v>
+        <v>7.7597619183955538E-2</v>
       </c>
       <c r="J41">
-        <v>7.7597619183955538E-2</v>
+        <v>0.34330403871511495</v>
       </c>
       <c r="K41">
-        <v>0.45006619126694208</v>
+        <v>0</v>
       </c>
       <c r="L41">
-        <v>0.34330403871511495</v>
+        <v>0</v>
       </c>
       <c r="M41">
-        <v>1.9911634245476666</v>
+        <v>0</v>
       </c>
       <c r="N41">
+        <f>K41*H41</f>
         <v>0</v>
       </c>
       <c r="O41">
+        <f>L41*I41</f>
         <v>0</v>
       </c>
       <c r="P41">
+        <f>J41*M41</f>
         <v>0</v>
       </c>
       <c r="Q41">
-        <f t="shared" si="0"/>
+        <f>K41*C41</f>
         <v>0</v>
       </c>
       <c r="R41">
-        <f t="shared" si="1"/>
+        <f>L41*C41</f>
         <v>0</v>
       </c>
       <c r="S41">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T41">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U41">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="V41">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y41" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="Z41" s="7">
-        <f>'Optimisation Model'!N27+'Optimisation Model'!O27+'Optimisation Model'!P27</f>
-        <v>0</v>
-      </c>
-      <c r="AA41" s="7">
-        <v>1</v>
-      </c>
-      <c r="AB41" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.2">
+        <f>M41*C41</f>
+        <v>0</v>
+      </c>
+      <c r="V41" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="W41" s="7">
+        <f>'Optimisation Model'!K27+'Optimisation Model'!L27+'Optimisation Model'!M27</f>
+        <v>0</v>
+      </c>
+      <c r="X41" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y41" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B42">
         <v>41</v>
@@ -4923,70 +4532,61 @@
         <v>0.20013108031770457</v>
       </c>
       <c r="I42">
-        <v>0.82911447560191887</v>
+        <v>0.12265529020770931</v>
       </c>
       <c r="J42">
-        <v>0.12265529020770931</v>
+        <v>0.36070884040143469</v>
       </c>
       <c r="K42">
-        <v>0.50814334514622428</v>
+        <v>0</v>
       </c>
       <c r="L42">
-        <v>0.36070884040143469</v>
+        <v>0</v>
       </c>
       <c r="M42">
-        <v>1.4943651959488009</v>
+        <v>0</v>
       </c>
       <c r="N42">
+        <f>K42*H42</f>
         <v>0</v>
       </c>
       <c r="O42">
+        <f>L42*I42</f>
         <v>0</v>
       </c>
       <c r="P42">
+        <f>J42*M42</f>
         <v>0</v>
       </c>
       <c r="Q42">
-        <f t="shared" si="0"/>
+        <f>K42*C42</f>
         <v>0</v>
       </c>
       <c r="R42">
-        <f t="shared" si="1"/>
+        <f>L42*C42</f>
         <v>0</v>
       </c>
       <c r="S42">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T42">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U42">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="V42">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y42" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="Z42" s="7">
-        <f>'Optimisation Model'!N28+'Optimisation Model'!O28+'Optimisation Model'!P28</f>
-        <v>0</v>
-      </c>
-      <c r="AA42" s="7">
-        <v>1</v>
-      </c>
-      <c r="AB42" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.2">
+        <f>M42*C42</f>
+        <v>0</v>
+      </c>
+      <c r="V42" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="W42" s="7">
+        <f>'Optimisation Model'!K28+'Optimisation Model'!L28+'Optimisation Model'!M28</f>
+        <v>0</v>
+      </c>
+      <c r="X42" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y42" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B43">
         <v>42</v>
@@ -5010,70 +4610,61 @@
         <v>0.2227017427226069</v>
       </c>
       <c r="I43">
-        <v>1.2916701077911199</v>
+        <v>5.7969968628407857E-2</v>
       </c>
       <c r="J43">
-        <v>5.7969968628407857E-2</v>
+        <v>0.37436086529006884</v>
       </c>
       <c r="K43">
-        <v>0.33622581804476553</v>
+        <v>0</v>
       </c>
       <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>1</v>
+      </c>
+      <c r="N43">
+        <f>K43*H43</f>
+        <v>0</v>
+      </c>
+      <c r="O43">
+        <f>L43*I43</f>
+        <v>0</v>
+      </c>
+      <c r="P43">
+        <f>J43*M43</f>
         <v>0.37436086529006884</v>
       </c>
-      <c r="M43">
-        <v>2.1712930186823991</v>
-      </c>
-      <c r="N43">
-        <v>0</v>
-      </c>
-      <c r="O43">
-        <v>0</v>
-      </c>
-      <c r="P43">
-        <v>1</v>
-      </c>
       <c r="Q43">
-        <f t="shared" si="0"/>
+        <f>K43*C43</f>
         <v>0</v>
       </c>
       <c r="R43">
-        <f t="shared" si="1"/>
+        <f>L43*C43</f>
         <v>0</v>
       </c>
       <c r="S43">
-        <f t="shared" si="2"/>
-        <v>0.37436086529006884</v>
-      </c>
-      <c r="T43">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U43">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="V43">
-        <f t="shared" si="5"/>
+        <f>M43*C43</f>
         <v>3</v>
       </c>
-      <c r="Y43" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="Z43" s="7">
-        <f>'Optimisation Model'!N29+'Optimisation Model'!O29+'Optimisation Model'!P29</f>
-        <v>1</v>
-      </c>
-      <c r="AA43" s="7">
-        <v>1</v>
-      </c>
-      <c r="AB43" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="V43" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="W43" s="7">
+        <f>'Optimisation Model'!K29+'Optimisation Model'!L29+'Optimisation Model'!M29</f>
+        <v>1</v>
+      </c>
+      <c r="X43" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y43" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="44" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B44">
         <v>43</v>
@@ -5097,70 +4688,61 @@
         <v>0.14878358158668661</v>
       </c>
       <c r="I44">
-        <v>0.47941376289043464</v>
+        <v>0.10602684477006157</v>
       </c>
       <c r="J44">
-        <v>0.10602684477006157</v>
+        <v>0.40542235485124967</v>
       </c>
       <c r="K44">
-        <v>0.34164205537019837</v>
+        <v>0</v>
       </c>
       <c r="L44">
-        <v>0.40542235485124967</v>
+        <v>0</v>
       </c>
       <c r="M44">
-        <v>1.3063609211873599</v>
+        <v>0</v>
       </c>
       <c r="N44">
+        <f>K44*H44</f>
         <v>0</v>
       </c>
       <c r="O44">
+        <f>L44*I44</f>
         <v>0</v>
       </c>
       <c r="P44">
+        <f>J44*M44</f>
         <v>0</v>
       </c>
       <c r="Q44">
-        <f t="shared" si="0"/>
+        <f>K44*C44</f>
         <v>0</v>
       </c>
       <c r="R44">
-        <f t="shared" si="1"/>
+        <f>L44*C44</f>
         <v>0</v>
       </c>
       <c r="S44">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T44">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U44">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="V44">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y44" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="Z44" s="7">
-        <f>'Optimisation Model'!N30+'Optimisation Model'!O30+'Optimisation Model'!P30</f>
-        <v>0</v>
-      </c>
-      <c r="AA44" s="7">
-        <v>1</v>
-      </c>
-      <c r="AB44" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.2">
+        <f>M44*C44</f>
+        <v>0</v>
+      </c>
+      <c r="V44" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="W44" s="7">
+        <f>'Optimisation Model'!K30+'Optimisation Model'!L30+'Optimisation Model'!M30</f>
+        <v>0</v>
+      </c>
+      <c r="X44" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y44" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B45">
         <v>44</v>
@@ -5184,70 +4766,61 @@
         <v>0.23899733994246278</v>
       </c>
       <c r="I45">
-        <v>1.3861845716662839</v>
+        <v>0.17368076486836798</v>
       </c>
       <c r="J45">
-        <v>0.17368076486836798</v>
+        <v>0.19280736651240829</v>
       </c>
       <c r="K45">
-        <v>1.0073484362365341</v>
+        <v>0</v>
       </c>
       <c r="L45">
-        <v>0.19280736651240829</v>
+        <v>0</v>
       </c>
       <c r="M45">
-        <v>1.1182827257719681</v>
+        <v>0</v>
       </c>
       <c r="N45">
+        <f>K45*H45</f>
         <v>0</v>
       </c>
       <c r="O45">
+        <f>L45*I45</f>
         <v>0</v>
       </c>
       <c r="P45">
+        <f>J45*M45</f>
         <v>0</v>
       </c>
       <c r="Q45">
-        <f t="shared" si="0"/>
+        <f>K45*C45</f>
         <v>0</v>
       </c>
       <c r="R45">
-        <f t="shared" si="1"/>
+        <f>L45*C45</f>
         <v>0</v>
       </c>
       <c r="S45">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T45">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U45">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="V45">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y45" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="Z45" s="7">
-        <f>'Optimisation Model'!N31+'Optimisation Model'!O31+'Optimisation Model'!P31</f>
-        <v>1</v>
-      </c>
-      <c r="AA45" s="7">
-        <v>1</v>
-      </c>
-      <c r="AB45" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.2">
+        <f>M45*C45</f>
+        <v>0</v>
+      </c>
+      <c r="V45" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="W45" s="7">
+        <f>'Optimisation Model'!K31+'Optimisation Model'!L31+'Optimisation Model'!M31</f>
+        <v>1</v>
+      </c>
+      <c r="X45" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y45" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="46" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B46">
         <v>45</v>
@@ -5271,70 +4844,61 @@
         <v>0.29702122543998238</v>
       </c>
       <c r="I46">
-        <v>1.7227231075518976</v>
+        <v>0.17926643557535057</v>
       </c>
       <c r="J46">
-        <v>0.17926643557535057</v>
+        <v>0.33808026703927962</v>
       </c>
       <c r="K46">
-        <v>1.0397453263370333</v>
+        <v>0</v>
       </c>
       <c r="L46">
-        <v>0.33808026703927962</v>
+        <v>0</v>
       </c>
       <c r="M46">
-        <v>1.9608655488278217</v>
+        <v>0</v>
       </c>
       <c r="N46">
+        <f>K46*H46</f>
         <v>0</v>
       </c>
       <c r="O46">
+        <f>L46*I46</f>
         <v>0</v>
       </c>
       <c r="P46">
+        <f>J46*M46</f>
         <v>0</v>
       </c>
       <c r="Q46">
-        <f t="shared" si="0"/>
+        <f>K46*C46</f>
         <v>0</v>
       </c>
       <c r="R46">
-        <f t="shared" si="1"/>
+        <f>L46*C46</f>
         <v>0</v>
       </c>
       <c r="S46">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T46">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U46">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="V46">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y46" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="Z46" s="7">
-        <f>'Optimisation Model'!N32+'Optimisation Model'!O32+'Optimisation Model'!P32</f>
-        <v>0</v>
-      </c>
-      <c r="AA46" s="7">
-        <v>1</v>
-      </c>
-      <c r="AB46" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="47" spans="1:28" x14ac:dyDescent="0.2">
+        <f>M46*C46</f>
+        <v>0</v>
+      </c>
+      <c r="V46" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="W46" s="7">
+        <f>'Optimisation Model'!K32+'Optimisation Model'!L32+'Optimisation Model'!M32</f>
+        <v>0</v>
+      </c>
+      <c r="X46" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y46" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="47" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B47">
         <v>46</v>
@@ -5358,70 +4922,61 @@
         <v>0.40195387677304151</v>
       </c>
       <c r="I47">
-        <v>0.61350854875885286</v>
+        <v>0.38300126720085476</v>
       </c>
       <c r="J47">
-        <v>0.38300126720085476</v>
+        <v>0.49056622523483756</v>
       </c>
       <c r="K47">
-        <v>0.58458088151709409</v>
+        <v>0</v>
       </c>
       <c r="L47">
-        <v>0.49056622523483756</v>
+        <v>0</v>
       </c>
       <c r="M47">
-        <v>0.74875897535843627</v>
+        <v>0</v>
       </c>
       <c r="N47">
+        <f>K47*H47</f>
         <v>0</v>
       </c>
       <c r="O47">
+        <f>L47*I47</f>
         <v>0</v>
       </c>
       <c r="P47">
+        <f>J47*M47</f>
         <v>0</v>
       </c>
       <c r="Q47">
-        <f t="shared" si="0"/>
+        <f>K47*C47</f>
         <v>0</v>
       </c>
       <c r="R47">
-        <f t="shared" si="1"/>
+        <f>L47*C47</f>
         <v>0</v>
       </c>
       <c r="S47">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T47">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U47">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="V47">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y47" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="Z47" s="7">
-        <f>'Optimisation Model'!N33+'Optimisation Model'!O33+'Optimisation Model'!P33</f>
-        <v>0</v>
-      </c>
-      <c r="AA47" s="7">
-        <v>1</v>
-      </c>
-      <c r="AB47" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.2">
+        <f>M47*C47</f>
+        <v>0</v>
+      </c>
+      <c r="V47" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="W47" s="7">
+        <f>'Optimisation Model'!K33+'Optimisation Model'!L33+'Optimisation Model'!M33</f>
+        <v>0</v>
+      </c>
+      <c r="X47" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y47" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="48" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B48">
         <v>47</v>
@@ -5445,70 +5000,61 @@
         <v>3.286869438678542E-2</v>
       </c>
       <c r="I48">
-        <v>0.9531921372167772</v>
+        <v>5.2931478808744575E-2</v>
       </c>
       <c r="J48">
-        <v>5.2931478808744575E-2</v>
+        <v>0.25114069984574161</v>
       </c>
       <c r="K48">
-        <v>1.5350128854535927</v>
+        <v>0</v>
       </c>
       <c r="L48">
-        <v>0.25114069984574161</v>
+        <v>0</v>
       </c>
       <c r="M48">
-        <v>7.2830802955265064</v>
+        <v>0</v>
       </c>
       <c r="N48">
+        <f>K48*H48</f>
         <v>0</v>
       </c>
       <c r="O48">
+        <f>L48*I48</f>
         <v>0</v>
       </c>
       <c r="P48">
+        <f>J48*M48</f>
         <v>0</v>
       </c>
       <c r="Q48">
-        <f t="shared" si="0"/>
+        <f>K48*C48</f>
         <v>0</v>
       </c>
       <c r="R48">
-        <f t="shared" si="1"/>
+        <f>L48*C48</f>
         <v>0</v>
       </c>
       <c r="S48">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T48">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U48">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="V48">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y48" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="Z48" s="7">
-        <f>'Optimisation Model'!N34+'Optimisation Model'!O34+'Optimisation Model'!P34</f>
-        <v>1</v>
-      </c>
-      <c r="AA48" s="7">
-        <v>1</v>
-      </c>
-      <c r="AB48" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="49" spans="1:28" x14ac:dyDescent="0.2">
+        <f>M48*C48</f>
+        <v>0</v>
+      </c>
+      <c r="V48" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="W48" s="7">
+        <f>'Optimisation Model'!K34+'Optimisation Model'!L34+'Optimisation Model'!M34</f>
+        <v>1</v>
+      </c>
+      <c r="X48" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y48" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="49" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B49">
         <v>48</v>
@@ -5532,70 +5078,61 @@
         <v>0.33682294478777786</v>
       </c>
       <c r="I49">
-        <v>0.75137426144965824</v>
+        <v>0.38574345371140761</v>
       </c>
       <c r="J49">
-        <v>0.38574345371140761</v>
+        <v>0.41194472449373315</v>
       </c>
       <c r="K49">
-        <v>0.86050462751006307</v>
+        <v>0</v>
       </c>
       <c r="L49">
-        <v>0.41194472449373315</v>
+        <v>0</v>
       </c>
       <c r="M49">
-        <v>0.91895361617832783</v>
+        <v>0</v>
       </c>
       <c r="N49">
+        <f>K49*H49</f>
         <v>0</v>
       </c>
       <c r="O49">
+        <f>L49*I49</f>
         <v>0</v>
       </c>
       <c r="P49">
+        <f>J49*M49</f>
         <v>0</v>
       </c>
       <c r="Q49">
-        <f t="shared" si="0"/>
+        <f>K49*C49</f>
         <v>0</v>
       </c>
       <c r="R49">
-        <f t="shared" si="1"/>
+        <f>L49*C49</f>
         <v>0</v>
       </c>
       <c r="S49">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T49">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U49">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="V49">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y49" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="Z49" s="7">
-        <f>'Optimisation Model'!N35+'Optimisation Model'!O35+'Optimisation Model'!P35</f>
-        <v>1</v>
-      </c>
-      <c r="AA49" s="7">
-        <v>1</v>
-      </c>
-      <c r="AB49" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="50" spans="1:28" x14ac:dyDescent="0.2">
+        <f>M49*C49</f>
+        <v>0</v>
+      </c>
+      <c r="V49" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="W49" s="7">
+        <f>'Optimisation Model'!K35+'Optimisation Model'!L35+'Optimisation Model'!M35</f>
+        <v>1</v>
+      </c>
+      <c r="X49" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y49" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="50" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B50">
         <v>49</v>
@@ -5619,70 +5156,61 @@
         <v>0.41883823887989258</v>
       </c>
       <c r="I50">
-        <v>2.4292617855033769</v>
+        <v>0.18848448080033253</v>
       </c>
       <c r="J50">
-        <v>0.18848448080033253</v>
+        <v>0.16426635054540106</v>
       </c>
       <c r="K50">
-        <v>1.0932099886419286</v>
+        <v>1</v>
       </c>
       <c r="L50">
-        <v>0.16426635054540106</v>
+        <v>0</v>
       </c>
       <c r="M50">
-        <v>0.95274483316332614</v>
+        <v>0</v>
       </c>
       <c r="N50">
-        <v>1</v>
+        <f>K50*H50</f>
+        <v>0.41883823887989258</v>
       </c>
       <c r="O50">
+        <f>L50*I50</f>
         <v>0</v>
       </c>
       <c r="P50">
+        <f>J50*M50</f>
         <v>0</v>
       </c>
       <c r="Q50">
-        <f t="shared" si="0"/>
-        <v>0.41883823887989258</v>
+        <f>K50*C50</f>
+        <v>3</v>
       </c>
       <c r="R50">
-        <f t="shared" si="1"/>
+        <f>L50*C50</f>
         <v>0</v>
       </c>
       <c r="S50">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T50">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="U50">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="V50">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y50" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="Z50" s="7">
-        <f>'Optimisation Model'!N36+'Optimisation Model'!O36+'Optimisation Model'!P36</f>
-        <v>0</v>
-      </c>
-      <c r="AA50" s="7">
-        <v>1</v>
-      </c>
-      <c r="AB50" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="51" spans="1:28" x14ac:dyDescent="0.2">
+        <f>M50*C50</f>
+        <v>0</v>
+      </c>
+      <c r="V50" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="W50" s="7">
+        <f>'Optimisation Model'!K36+'Optimisation Model'!L36+'Optimisation Model'!M36</f>
+        <v>0</v>
+      </c>
+      <c r="X50" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y50" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="51" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B51">
         <v>50</v>
@@ -5706,70 +5234,61 @@
         <v>0.82135765962722285</v>
       </c>
       <c r="I51">
-        <v>1.5879581419459641</v>
+        <v>0.53365721831779123</v>
       </c>
       <c r="J51">
-        <v>0.53365721831779123</v>
+        <v>0.34223205506391352</v>
       </c>
       <c r="K51">
-        <v>1.0317372887477296</v>
+        <v>1</v>
       </c>
       <c r="L51">
-        <v>0.34223205506391352</v>
+        <v>0</v>
       </c>
       <c r="M51">
-        <v>0.66164863979023281</v>
+        <v>0</v>
       </c>
       <c r="N51">
-        <v>1</v>
+        <f>K51*H51</f>
+        <v>0.82135765962722285</v>
       </c>
       <c r="O51">
+        <f>L51*I51</f>
         <v>0</v>
       </c>
       <c r="P51">
+        <f>J51*M51</f>
         <v>0</v>
       </c>
       <c r="Q51">
-        <f t="shared" si="0"/>
-        <v>0.82135765962722285</v>
+        <f>K51*C51</f>
+        <v>8</v>
       </c>
       <c r="R51">
-        <f t="shared" si="1"/>
+        <f>L51*C51</f>
         <v>0</v>
       </c>
       <c r="S51">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T51">
-        <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="U51">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="V51">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y51" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="Z51" s="7">
-        <f>'Optimisation Model'!N37+'Optimisation Model'!O37+'Optimisation Model'!P37</f>
-        <v>0</v>
-      </c>
-      <c r="AA51" s="7">
-        <v>1</v>
-      </c>
-      <c r="AB51" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="52" spans="1:28" x14ac:dyDescent="0.2">
+        <f>M51*C51</f>
+        <v>0</v>
+      </c>
+      <c r="V51" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="W51" s="7">
+        <f>'Optimisation Model'!K37+'Optimisation Model'!L37+'Optimisation Model'!M37</f>
+        <v>0</v>
+      </c>
+      <c r="X51" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y51" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="52" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B52">
         <v>51</v>
@@ -5793,70 +5312,61 @@
         <v>0.39884321349266538</v>
       </c>
       <c r="I52">
-        <v>0.60876069427827872</v>
+        <v>0.29283283800657567</v>
       </c>
       <c r="J52">
-        <v>0.29283283800657567</v>
+        <v>0.36430595837154922</v>
       </c>
       <c r="K52">
-        <v>0.44695538432582604</v>
+        <v>1</v>
       </c>
       <c r="L52">
-        <v>0.36430595837154922</v>
+        <v>0</v>
       </c>
       <c r="M52">
-        <v>0.55604593646183831</v>
+        <v>0</v>
       </c>
       <c r="N52">
-        <v>1</v>
+        <f>K52*H52</f>
+        <v>0.39884321349266538</v>
       </c>
       <c r="O52">
+        <f>L52*I52</f>
         <v>0</v>
       </c>
       <c r="P52">
+        <f>J52*M52</f>
         <v>0</v>
       </c>
       <c r="Q52">
-        <f t="shared" si="0"/>
-        <v>0.39884321349266538</v>
+        <f>K52*C52</f>
+        <v>10</v>
       </c>
       <c r="R52">
-        <f t="shared" si="1"/>
+        <f>L52*C52</f>
         <v>0</v>
       </c>
       <c r="S52">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T52">
-        <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="U52">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="V52">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y52" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="Z52" s="7">
-        <f>'Optimisation Model'!N38+'Optimisation Model'!O38+'Optimisation Model'!P38</f>
-        <v>0</v>
-      </c>
-      <c r="AA52" s="7">
-        <v>1</v>
-      </c>
-      <c r="AB52" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="53" spans="1:28" x14ac:dyDescent="0.2">
+        <f>M52*C52</f>
+        <v>0</v>
+      </c>
+      <c r="V52" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="W52" s="7">
+        <f>'Optimisation Model'!K38+'Optimisation Model'!L38+'Optimisation Model'!M38</f>
+        <v>0</v>
+      </c>
+      <c r="X52" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y52" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="53" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B53">
         <v>52</v>
@@ -5880,70 +5390,61 @@
         <v>0.49537443925107416</v>
       </c>
       <c r="I53">
-        <v>1.1050660567908577</v>
+        <v>0.66321980575398465</v>
       </c>
       <c r="J53">
-        <v>0.66321980575398465</v>
+        <v>0.43252471148372412</v>
       </c>
       <c r="K53">
-        <v>1.4794903359127349</v>
+        <v>0</v>
       </c>
       <c r="L53">
-        <v>0.43252471148372412</v>
+        <v>0</v>
       </c>
       <c r="M53">
-        <v>0.96486281792523076</v>
+        <v>0</v>
       </c>
       <c r="N53">
+        <f>K53*H53</f>
         <v>0</v>
       </c>
       <c r="O53">
+        <f>L53*I53</f>
         <v>0</v>
       </c>
       <c r="P53">
+        <f>J53*M53</f>
         <v>0</v>
       </c>
       <c r="Q53">
-        <f t="shared" si="0"/>
+        <f>K53*C53</f>
         <v>0</v>
       </c>
       <c r="R53">
-        <f t="shared" si="1"/>
+        <f>L53*C53</f>
         <v>0</v>
       </c>
       <c r="S53">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T53">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U53">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="V53">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y53" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="Z53" s="7">
-        <f>'Optimisation Model'!N39+'Optimisation Model'!O39+'Optimisation Model'!P39</f>
-        <v>0</v>
-      </c>
-      <c r="AA53" s="7">
-        <v>1</v>
-      </c>
-      <c r="AB53" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="54" spans="1:28" x14ac:dyDescent="0.2">
+        <f>M53*C53</f>
+        <v>0</v>
+      </c>
+      <c r="V53" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="W53" s="7">
+        <f>'Optimisation Model'!K39+'Optimisation Model'!L39+'Optimisation Model'!M39</f>
+        <v>0</v>
+      </c>
+      <c r="X53" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y53" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="54" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B54">
         <v>53</v>
@@ -5967,70 +5468,61 @@
         <v>6.8750000000000006E-2</v>
       </c>
       <c r="I54">
-        <v>0.28482142857142856</v>
+        <v>3.1818181818181815E-2</v>
       </c>
       <c r="J54">
-        <v>3.1818181818181815E-2</v>
+        <v>0.24166666666666667</v>
       </c>
       <c r="K54">
-        <v>0.13181818181818181</v>
+        <v>0</v>
       </c>
       <c r="L54">
-        <v>0.24166666666666667</v>
+        <v>0</v>
       </c>
       <c r="M54">
-        <v>1.0011904761904762</v>
+        <v>0</v>
       </c>
       <c r="N54">
+        <f>K54*H54</f>
         <v>0</v>
       </c>
       <c r="O54">
+        <f>L54*I54</f>
         <v>0</v>
       </c>
       <c r="P54">
+        <f>J54*M54</f>
         <v>0</v>
       </c>
       <c r="Q54">
-        <f t="shared" si="0"/>
+        <f>K54*C54</f>
         <v>0</v>
       </c>
       <c r="R54">
-        <f t="shared" si="1"/>
+        <f>L54*C54</f>
         <v>0</v>
       </c>
       <c r="S54">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T54">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U54">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="V54">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y54" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="Z54" s="7">
-        <f>'Optimisation Model'!N40+'Optimisation Model'!O40+'Optimisation Model'!P40</f>
-        <v>0</v>
-      </c>
-      <c r="AA54" s="7">
-        <v>1</v>
-      </c>
-      <c r="AB54" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="55" spans="1:28" x14ac:dyDescent="0.2">
+        <f>M54*C54</f>
+        <v>0</v>
+      </c>
+      <c r="V54" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="W54" s="7">
+        <f>'Optimisation Model'!K40+'Optimisation Model'!L40+'Optimisation Model'!M40</f>
+        <v>0</v>
+      </c>
+      <c r="X54" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y54" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="55" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B55">
         <v>54</v>
@@ -6054,70 +5546,61 @@
         <v>0.16583281448290518</v>
       </c>
       <c r="I55">
-        <v>0.43719560181856826</v>
+        <v>0.11393449153069511</v>
       </c>
       <c r="J55">
-        <v>0.11393449153069511</v>
+        <v>0.31225181095685273</v>
       </c>
       <c r="K55">
-        <v>0.30037275039910533</v>
+        <v>0</v>
       </c>
       <c r="L55">
-        <v>0.31225181095685273</v>
+        <v>0</v>
       </c>
       <c r="M55">
-        <v>0.82320931979533907</v>
+        <v>0</v>
       </c>
       <c r="N55">
+        <f>K55*H55</f>
         <v>0</v>
       </c>
       <c r="O55">
+        <f>L55*I55</f>
         <v>0</v>
       </c>
       <c r="P55">
+        <f>J55*M55</f>
         <v>0</v>
       </c>
       <c r="Q55">
-        <f t="shared" si="0"/>
+        <f>K55*C55</f>
         <v>0</v>
       </c>
       <c r="R55">
-        <f t="shared" si="1"/>
+        <f>L55*C55</f>
         <v>0</v>
       </c>
       <c r="S55">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T55">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U55">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="V55">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y55" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="Z55" s="7">
-        <f>'Optimisation Model'!N41+'Optimisation Model'!O41+'Optimisation Model'!P41</f>
-        <v>0</v>
-      </c>
-      <c r="AA55" s="7">
-        <v>1</v>
-      </c>
-      <c r="AB55" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="56" spans="1:28" x14ac:dyDescent="0.2">
+        <f>M55*C55</f>
+        <v>0</v>
+      </c>
+      <c r="V55" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="W55" s="7">
+        <f>'Optimisation Model'!K41+'Optimisation Model'!L41+'Optimisation Model'!M41</f>
+        <v>0</v>
+      </c>
+      <c r="X55" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y55" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="56" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B56">
         <v>55</v>
@@ -6141,70 +5624,61 @@
         <v>0.11079914183227657</v>
       </c>
       <c r="I56">
-        <v>0.45902501616228863</v>
+        <v>7.8841432345181039E-2</v>
       </c>
       <c r="J56">
-        <v>7.8841432345181039E-2</v>
+        <v>0.34482190610095664</v>
       </c>
       <c r="K56">
-        <v>0.32662879114432142</v>
+        <v>0</v>
       </c>
       <c r="L56">
-        <v>0.34482190610095664</v>
+        <v>0</v>
       </c>
       <c r="M56">
-        <v>1.4285478967039631</v>
+        <v>0</v>
       </c>
       <c r="N56">
+        <f>K56*H56</f>
         <v>0</v>
       </c>
       <c r="O56">
+        <f>L56*I56</f>
         <v>0</v>
       </c>
       <c r="P56">
+        <f>J56*M56</f>
         <v>0</v>
       </c>
       <c r="Q56">
-        <f t="shared" si="0"/>
+        <f>K56*C56</f>
         <v>0</v>
       </c>
       <c r="R56">
-        <f t="shared" si="1"/>
+        <f>L56*C56</f>
         <v>0</v>
       </c>
       <c r="S56">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T56">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U56">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="V56">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y56" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="Z56" s="7">
-        <f>'Optimisation Model'!N42+'Optimisation Model'!O42+'Optimisation Model'!P42</f>
-        <v>0</v>
-      </c>
-      <c r="AA56" s="7">
-        <v>1</v>
-      </c>
-      <c r="AB56" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="57" spans="1:28" x14ac:dyDescent="0.2">
+        <f>M56*C56</f>
+        <v>0</v>
+      </c>
+      <c r="V56" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="W56" s="7">
+        <f>'Optimisation Model'!K42+'Optimisation Model'!L42+'Optimisation Model'!M42</f>
+        <v>0</v>
+      </c>
+      <c r="X56" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y56" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="57" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B57">
         <v>56</v>
@@ -6228,70 +5702,61 @@
         <v>0.30923288957805339</v>
       </c>
       <c r="I57">
-        <v>0.59785025318423657</v>
+        <v>0.31413974330610167</v>
       </c>
       <c r="J57">
-        <v>0.31413974330610167</v>
+        <v>0.19802566889199402</v>
       </c>
       <c r="K57">
-        <v>0.6073368370584632</v>
+        <v>0</v>
       </c>
       <c r="L57">
-        <v>0.19802566889199402</v>
+        <v>0</v>
       </c>
       <c r="M57">
-        <v>0.38284962652452176</v>
+        <v>0</v>
       </c>
       <c r="N57">
+        <f>K57*H57</f>
         <v>0</v>
       </c>
       <c r="O57">
+        <f>L57*I57</f>
         <v>0</v>
       </c>
       <c r="P57">
+        <f>J57*M57</f>
         <v>0</v>
       </c>
       <c r="Q57">
-        <f t="shared" si="0"/>
+        <f>K57*C57</f>
         <v>0</v>
       </c>
       <c r="R57">
-        <f t="shared" si="1"/>
+        <f>L57*C57</f>
         <v>0</v>
       </c>
       <c r="S57">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T57">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U57">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="V57">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y57" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="Z57" s="7">
-        <f>'Optimisation Model'!N43+'Optimisation Model'!O43+'Optimisation Model'!P43</f>
-        <v>1</v>
-      </c>
-      <c r="AA57" s="7">
-        <v>1</v>
-      </c>
-      <c r="AB57" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="58" spans="1:28" x14ac:dyDescent="0.2">
+        <f>M57*C57</f>
+        <v>0</v>
+      </c>
+      <c r="V57" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="W57" s="7">
+        <f>'Optimisation Model'!K43+'Optimisation Model'!L43+'Optimisation Model'!M43</f>
+        <v>1</v>
+      </c>
+      <c r="X57" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y57" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="58" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B58">
         <v>57</v>
@@ -6315,70 +5780,61 @@
         <v>0.47187499999999999</v>
       </c>
       <c r="I58">
-        <v>1.244034090909091</v>
+        <v>0.28462795348375708</v>
       </c>
       <c r="J58">
-        <v>0.28462795348375708</v>
+        <v>0.2891151853890559</v>
       </c>
       <c r="K58">
-        <v>0.75038278645717782</v>
+        <v>1</v>
       </c>
       <c r="L58">
-        <v>0.2891151853890559</v>
+        <v>0</v>
       </c>
       <c r="M58">
-        <v>0.76221276148023831</v>
+        <v>0</v>
       </c>
       <c r="N58">
-        <v>1</v>
+        <f>K58*H58</f>
+        <v>0.47187499999999999</v>
       </c>
       <c r="O58">
+        <f>L58*I58</f>
         <v>0</v>
       </c>
       <c r="P58">
+        <f>J58*M58</f>
         <v>0</v>
       </c>
       <c r="Q58">
-        <f t="shared" si="0"/>
-        <v>0.47187499999999999</v>
+        <f>K58*C58</f>
+        <v>6</v>
       </c>
       <c r="R58">
-        <f t="shared" si="1"/>
+        <f>L58*C58</f>
         <v>0</v>
       </c>
       <c r="S58">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T58">
-        <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="U58">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="V58">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y58" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="Z58" s="7">
-        <f>'Optimisation Model'!N44+'Optimisation Model'!O44+'Optimisation Model'!P44</f>
-        <v>0</v>
-      </c>
-      <c r="AA58" s="7">
-        <v>1</v>
-      </c>
-      <c r="AB58" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="59" spans="1:28" x14ac:dyDescent="0.2">
+        <f>M58*C58</f>
+        <v>0</v>
+      </c>
+      <c r="V58" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="W58" s="7">
+        <f>'Optimisation Model'!K44+'Optimisation Model'!L44+'Optimisation Model'!M44</f>
+        <v>0</v>
+      </c>
+      <c r="X58" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y58" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="59" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B59">
         <v>58</v>
@@ -6402,70 +5858,61 @@
         <v>0.29846865333886319</v>
       </c>
       <c r="I59">
-        <v>0.78687190425700304</v>
+        <v>0.21222368371489828</v>
       </c>
       <c r="J59">
-        <v>0.21222368371489828</v>
+        <v>9.0052441822353335E-2</v>
       </c>
       <c r="K59">
-        <v>0.55949880252109552</v>
+        <v>0</v>
       </c>
       <c r="L59">
-        <v>9.0052441822353335E-2</v>
+        <v>0</v>
       </c>
       <c r="M59">
-        <v>0.23741098298620425</v>
+        <v>0</v>
       </c>
       <c r="N59">
+        <f>K59*H59</f>
         <v>0</v>
       </c>
       <c r="O59">
+        <f>L59*I59</f>
         <v>0</v>
       </c>
       <c r="P59">
+        <f>J59*M59</f>
         <v>0</v>
       </c>
       <c r="Q59">
-        <f t="shared" si="0"/>
+        <f>K59*C59</f>
         <v>0</v>
       </c>
       <c r="R59">
-        <f t="shared" si="1"/>
+        <f>L59*C59</f>
         <v>0</v>
       </c>
       <c r="S59">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T59">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U59">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="V59">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y59" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="Z59" s="7">
-        <f>'Optimisation Model'!N45+'Optimisation Model'!O45+'Optimisation Model'!P45</f>
-        <v>0</v>
-      </c>
-      <c r="AA59" s="7">
-        <v>1</v>
-      </c>
-      <c r="AB59" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="60" spans="1:28" x14ac:dyDescent="0.2">
+        <f>M59*C59</f>
+        <v>0</v>
+      </c>
+      <c r="V59" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="W59" s="7">
+        <f>'Optimisation Model'!K45+'Optimisation Model'!L45+'Optimisation Model'!M45</f>
+        <v>0</v>
+      </c>
+      <c r="X59" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y59" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="60" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B60">
         <v>59</v>
@@ -6489,70 +5936,61 @@
         <v>0.26783524560837724</v>
       </c>
       <c r="I60">
-        <v>0.51781480817619596</v>
+        <v>0.25113049487949124</v>
       </c>
       <c r="J60">
-        <v>0.25113049487949124</v>
+        <v>0.33674194537026392</v>
       </c>
       <c r="K60">
-        <v>0.48551895676701634</v>
+        <v>0</v>
       </c>
       <c r="L60">
-        <v>0.33674194537026392</v>
+        <v>0</v>
       </c>
       <c r="M60">
-        <v>0.65103442771584352</v>
+        <v>0</v>
       </c>
       <c r="N60">
+        <f>K60*H60</f>
         <v>0</v>
       </c>
       <c r="O60">
+        <f>L60*I60</f>
         <v>0</v>
       </c>
       <c r="P60">
+        <f>J60*M60</f>
         <v>0</v>
       </c>
       <c r="Q60">
-        <f t="shared" si="0"/>
+        <f>K60*C60</f>
         <v>0</v>
       </c>
       <c r="R60">
-        <f t="shared" si="1"/>
+        <f>L60*C60</f>
         <v>0</v>
       </c>
       <c r="S60">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T60">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U60">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="V60">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y60" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="Z60" s="7">
-        <f>'Optimisation Model'!N46+'Optimisation Model'!O46+'Optimisation Model'!P46</f>
-        <v>0</v>
-      </c>
-      <c r="AA60" s="7">
-        <v>1</v>
-      </c>
-      <c r="AB60" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="61" spans="1:28" x14ac:dyDescent="0.2">
+        <f>M60*C60</f>
+        <v>0</v>
+      </c>
+      <c r="V60" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="W60" s="7">
+        <f>'Optimisation Model'!K46+'Optimisation Model'!L46+'Optimisation Model'!M46</f>
+        <v>0</v>
+      </c>
+      <c r="X60" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y60" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="61" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B61">
         <v>60</v>
@@ -6576,448 +6014,439 @@
         <v>0.18792268088391562</v>
       </c>
       <c r="I61">
-        <v>1.0899515491267104</v>
+        <v>8.6548301588609086E-2</v>
       </c>
       <c r="J61">
-        <v>8.6548301588609086E-2</v>
+        <v>0.31426635054540109</v>
       </c>
       <c r="K61">
-        <v>0.50198014921393264</v>
+        <v>0</v>
       </c>
       <c r="L61">
-        <v>0.31426635054540109</v>
+        <v>0</v>
       </c>
       <c r="M61">
-        <v>1.8227448331633263</v>
+        <v>0</v>
       </c>
       <c r="N61">
+        <f>K61*H61</f>
         <v>0</v>
       </c>
       <c r="O61">
+        <f>L61*I61</f>
         <v>0</v>
       </c>
       <c r="P61">
+        <f>J61*M61</f>
         <v>0</v>
       </c>
       <c r="Q61">
-        <f t="shared" si="0"/>
+        <f>K61*C61</f>
         <v>0</v>
       </c>
       <c r="R61">
-        <f t="shared" si="1"/>
+        <f>L61*C61</f>
         <v>0</v>
       </c>
       <c r="S61">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T61">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U61">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="V61">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y61" s="6" t="s">
+        <f>M61*C61</f>
+        <v>0</v>
+      </c>
+      <c r="V61" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="W61" s="7">
+        <f>'Optimisation Model'!K47+'Optimisation Model'!L47+'Optimisation Model'!M47</f>
+        <v>0</v>
+      </c>
+      <c r="X61" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y61" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="62" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="V62" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="W62" s="7">
+        <f>'Optimisation Model'!K48+'Optimisation Model'!L48+'Optimisation Model'!M48</f>
+        <v>0</v>
+      </c>
+      <c r="X62" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y62" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="63" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="V63" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="W63" s="7">
+        <f>'Optimisation Model'!K49+'Optimisation Model'!L49+'Optimisation Model'!M49</f>
+        <v>0</v>
+      </c>
+      <c r="X63" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y63" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="64" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="V64" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="Z61" s="7">
-        <f>'Optimisation Model'!N47+'Optimisation Model'!O47+'Optimisation Model'!P47</f>
-        <v>0</v>
-      </c>
-      <c r="AA61" s="7">
-        <v>1</v>
-      </c>
-      <c r="AB61" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="62" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="Y62" s="6" t="s">
+      <c r="W64" s="7">
+        <f>'Optimisation Model'!K50+'Optimisation Model'!L50+'Optimisation Model'!M50</f>
+        <v>1</v>
+      </c>
+      <c r="X64" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y64" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="65" spans="22:25" x14ac:dyDescent="0.2">
+      <c r="V65" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="Z62" s="7">
-        <f>'Optimisation Model'!N48+'Optimisation Model'!O48+'Optimisation Model'!P48</f>
-        <v>0</v>
-      </c>
-      <c r="AA62" s="7">
-        <v>1</v>
-      </c>
-      <c r="AB62" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="63" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="Y63" s="6" t="s">
+      <c r="W65" s="7">
+        <f>'Optimisation Model'!K51+'Optimisation Model'!L51+'Optimisation Model'!M51</f>
+        <v>1</v>
+      </c>
+      <c r="X65" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y65" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="66" spans="22:25" x14ac:dyDescent="0.2">
+      <c r="V66" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="Z63" s="7">
-        <f>'Optimisation Model'!N49+'Optimisation Model'!O49+'Optimisation Model'!P49</f>
-        <v>0</v>
-      </c>
-      <c r="AA63" s="7">
-        <v>1</v>
-      </c>
-      <c r="AB63" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="64" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="Y64" s="6" t="s">
+      <c r="W66" s="7">
+        <f>'Optimisation Model'!K52+'Optimisation Model'!L52+'Optimisation Model'!M52</f>
+        <v>1</v>
+      </c>
+      <c r="X66" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y66" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="67" spans="22:25" x14ac:dyDescent="0.2">
+      <c r="V67" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="Z64" s="7">
-        <f>'Optimisation Model'!N50+'Optimisation Model'!O50+'Optimisation Model'!P50</f>
-        <v>1</v>
-      </c>
-      <c r="AA64" s="7">
-        <v>1</v>
-      </c>
-      <c r="AB64" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="65" spans="25:28" x14ac:dyDescent="0.2">
-      <c r="Y65" s="6" t="s">
+      <c r="W67" s="7">
+        <f>'Optimisation Model'!K53+'Optimisation Model'!L53+'Optimisation Model'!M53</f>
+        <v>0</v>
+      </c>
+      <c r="X67" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y67" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="68" spans="22:25" x14ac:dyDescent="0.2">
+      <c r="V68" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="Z65" s="7">
-        <f>'Optimisation Model'!N51+'Optimisation Model'!O51+'Optimisation Model'!P51</f>
-        <v>1</v>
-      </c>
-      <c r="AA65" s="7">
-        <v>1</v>
-      </c>
-      <c r="AB65" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="66" spans="25:28" x14ac:dyDescent="0.2">
-      <c r="Y66" s="6" t="s">
+      <c r="W68" s="7">
+        <f>'Optimisation Model'!K54+'Optimisation Model'!L54+'Optimisation Model'!M54</f>
+        <v>0</v>
+      </c>
+      <c r="X68" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y68" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="69" spans="22:25" x14ac:dyDescent="0.2">
+      <c r="V69" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="Z66" s="7">
-        <f>'Optimisation Model'!N52+'Optimisation Model'!O52+'Optimisation Model'!P52</f>
-        <v>1</v>
-      </c>
-      <c r="AA66" s="7">
-        <v>1</v>
-      </c>
-      <c r="AB66" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="67" spans="25:28" x14ac:dyDescent="0.2">
-      <c r="Y67" s="6" t="s">
+      <c r="W69" s="7">
+        <f>'Optimisation Model'!K55+'Optimisation Model'!L55+'Optimisation Model'!M55</f>
+        <v>0</v>
+      </c>
+      <c r="X69" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y69" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="70" spans="22:25" x14ac:dyDescent="0.2">
+      <c r="V70" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="Z67" s="7">
-        <f>'Optimisation Model'!N53+'Optimisation Model'!O53+'Optimisation Model'!P53</f>
-        <v>0</v>
-      </c>
-      <c r="AA67" s="7">
-        <v>1</v>
-      </c>
-      <c r="AB67" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="68" spans="25:28" x14ac:dyDescent="0.2">
-      <c r="Y68" s="6" t="s">
+      <c r="W70" s="7">
+        <f>'Optimisation Model'!K56+'Optimisation Model'!L56+'Optimisation Model'!M56</f>
+        <v>0</v>
+      </c>
+      <c r="X70" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y70" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="71" spans="22:25" x14ac:dyDescent="0.2">
+      <c r="V71" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="Z68" s="7">
-        <f>'Optimisation Model'!N54+'Optimisation Model'!O54+'Optimisation Model'!P54</f>
-        <v>0</v>
-      </c>
-      <c r="AA68" s="7">
-        <v>1</v>
-      </c>
-      <c r="AB68" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="69" spans="25:28" x14ac:dyDescent="0.2">
-      <c r="Y69" s="6" t="s">
+      <c r="W71" s="7">
+        <f>'Optimisation Model'!K57+'Optimisation Model'!L57+'Optimisation Model'!M57</f>
+        <v>0</v>
+      </c>
+      <c r="X71" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y71" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="72" spans="22:25" x14ac:dyDescent="0.2">
+      <c r="V72" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="Z69" s="7">
-        <f>'Optimisation Model'!N55+'Optimisation Model'!O55+'Optimisation Model'!P55</f>
-        <v>0</v>
-      </c>
-      <c r="AA69" s="7">
-        <v>1</v>
-      </c>
-      <c r="AB69" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="70" spans="25:28" x14ac:dyDescent="0.2">
-      <c r="Y70" s="6" t="s">
+      <c r="W72" s="7">
+        <f>'Optimisation Model'!K58+'Optimisation Model'!L58+'Optimisation Model'!M58</f>
+        <v>1</v>
+      </c>
+      <c r="X72" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y72" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="73" spans="22:25" x14ac:dyDescent="0.2">
+      <c r="V73" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="Z70" s="7">
-        <f>'Optimisation Model'!N56+'Optimisation Model'!O56+'Optimisation Model'!P56</f>
-        <v>0</v>
-      </c>
-      <c r="AA70" s="7">
-        <v>1</v>
-      </c>
-      <c r="AB70" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="71" spans="25:28" x14ac:dyDescent="0.2">
-      <c r="Y71" s="6" t="s">
+      <c r="W73" s="7">
+        <f>'Optimisation Model'!K59+'Optimisation Model'!L59+'Optimisation Model'!M59</f>
+        <v>0</v>
+      </c>
+      <c r="X73" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y73" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="74" spans="22:25" x14ac:dyDescent="0.2">
+      <c r="V74" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="Z71" s="7">
-        <f>'Optimisation Model'!N57+'Optimisation Model'!O57+'Optimisation Model'!P57</f>
-        <v>0</v>
-      </c>
-      <c r="AA71" s="7">
-        <v>1</v>
-      </c>
-      <c r="AB71" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="72" spans="25:28" x14ac:dyDescent="0.2">
-      <c r="Y72" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="Z72" s="7">
-        <f>'Optimisation Model'!N58+'Optimisation Model'!O58+'Optimisation Model'!P58</f>
-        <v>1</v>
-      </c>
-      <c r="AA72" s="7">
-        <v>1</v>
-      </c>
-      <c r="AB72" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="73" spans="25:28" x14ac:dyDescent="0.2">
-      <c r="Y73" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="Z73" s="7">
-        <f>'Optimisation Model'!N59+'Optimisation Model'!O59+'Optimisation Model'!P59</f>
-        <v>0</v>
-      </c>
-      <c r="AA73" s="7">
-        <v>1</v>
-      </c>
-      <c r="AB73" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="74" spans="25:28" x14ac:dyDescent="0.2">
-      <c r="Y74" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="Z74" s="7">
-        <f>'Optimisation Model'!N60+'Optimisation Model'!O60+'Optimisation Model'!P60</f>
-        <v>0</v>
-      </c>
-      <c r="AA74" s="7">
-        <v>1</v>
-      </c>
-      <c r="AB74" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="75" spans="25:28" x14ac:dyDescent="0.2">
-      <c r="Y75" s="6" t="s">
+      <c r="W74" s="7">
+        <f>'Optimisation Model'!K60+'Optimisation Model'!L60+'Optimisation Model'!M60</f>
+        <v>0</v>
+      </c>
+      <c r="X74" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y74" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="75" spans="22:25" x14ac:dyDescent="0.2">
+      <c r="V75" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="W75" s="7">
+        <f>AB3</f>
+        <v>2</v>
+      </c>
+      <c r="X75" s="7">
+        <v>2</v>
+      </c>
+      <c r="Y75" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="76" spans="22:25" x14ac:dyDescent="0.2">
+      <c r="V76" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="W76" s="7">
+        <f>AB4</f>
+        <v>1</v>
+      </c>
+      <c r="X76" s="7">
+        <v>2</v>
+      </c>
+      <c r="Y76" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="77" spans="22:25" x14ac:dyDescent="0.2">
+      <c r="V77" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="W77" s="7">
+        <f>AB5</f>
+        <v>2</v>
+      </c>
+      <c r="X77" s="7">
+        <v>2</v>
+      </c>
+      <c r="Y77" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="78" spans="22:25" x14ac:dyDescent="0.2">
+      <c r="V78" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="Z75" s="7">
-        <f>AE3</f>
-        <v>2</v>
-      </c>
-      <c r="AA75" s="7">
-        <v>2</v>
-      </c>
-      <c r="AB75" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="76" spans="25:28" x14ac:dyDescent="0.2">
-      <c r="Y76" s="6" t="s">
+      <c r="W78" s="7">
+        <f>AB6</f>
+        <v>0</v>
+      </c>
+      <c r="X78" s="7">
+        <v>2</v>
+      </c>
+      <c r="Y78" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="79" spans="22:25" x14ac:dyDescent="0.2">
+      <c r="V79" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="Z76" s="7">
-        <f>AE4</f>
-        <v>1</v>
-      </c>
-      <c r="AA76" s="7">
-        <v>2</v>
-      </c>
-      <c r="AB76" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="77" spans="25:28" x14ac:dyDescent="0.2">
-      <c r="Y77" s="6" t="s">
+      <c r="W79" s="7">
+        <f>AC3</f>
+        <v>2</v>
+      </c>
+      <c r="X79" s="7">
+        <v>2</v>
+      </c>
+      <c r="Y79" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="80" spans="22:25" x14ac:dyDescent="0.2">
+      <c r="V80" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="Z77" s="7">
-        <f>AE5</f>
-        <v>2</v>
-      </c>
-      <c r="AA77" s="7">
-        <v>2</v>
-      </c>
-      <c r="AB77" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="78" spans="25:28" x14ac:dyDescent="0.2">
-      <c r="Y78" s="6" t="s">
+      <c r="W80" s="7">
+        <f>AC4</f>
+        <v>1</v>
+      </c>
+      <c r="X80" s="7">
+        <v>2</v>
+      </c>
+      <c r="Y80" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="81" spans="22:25" x14ac:dyDescent="0.2">
+      <c r="V81" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="Z78" s="7">
-        <f>AE6</f>
-        <v>0</v>
-      </c>
-      <c r="AA78" s="7">
-        <v>2</v>
-      </c>
-      <c r="AB78" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="79" spans="25:28" x14ac:dyDescent="0.2">
-      <c r="Y79" s="6" t="s">
+      <c r="W81" s="7">
+        <f>AC5</f>
+        <v>2</v>
+      </c>
+      <c r="X81" s="7">
+        <v>2</v>
+      </c>
+      <c r="Y81" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="22:25" x14ac:dyDescent="0.2">
+      <c r="V82" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="Z79" s="7">
-        <f>AF3</f>
-        <v>2</v>
-      </c>
-      <c r="AA79" s="7">
-        <v>2</v>
-      </c>
-      <c r="AB79" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="80" spans="25:28" x14ac:dyDescent="0.2">
-      <c r="Y80" s="6" t="s">
+      <c r="W82" s="7">
+        <f>AC6</f>
+        <v>0</v>
+      </c>
+      <c r="X82" s="7">
+        <v>2</v>
+      </c>
+      <c r="Y82" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="83" spans="22:25" x14ac:dyDescent="0.2">
+      <c r="V83" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="Z80" s="7">
-        <f>AF4</f>
-        <v>1</v>
-      </c>
-      <c r="AA80" s="7">
-        <v>2</v>
-      </c>
-      <c r="AB80" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="81" spans="25:28" x14ac:dyDescent="0.2">
-      <c r="Y81" s="6" t="s">
+      <c r="W83" s="7">
+        <f>AD3</f>
+        <v>3</v>
+      </c>
+      <c r="X83" s="7">
+        <v>3</v>
+      </c>
+      <c r="Y83" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="84" spans="22:25" x14ac:dyDescent="0.2">
+      <c r="V84" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="Z81" s="7">
-        <f>AF5</f>
-        <v>2</v>
-      </c>
-      <c r="AA81" s="7">
-        <v>2</v>
-      </c>
-      <c r="AB81" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="82" spans="25:28" x14ac:dyDescent="0.2">
-      <c r="Y82" s="6" t="s">
+      <c r="W84" s="7">
+        <f>AD4</f>
+        <v>0</v>
+      </c>
+      <c r="X84" s="7">
+        <v>3</v>
+      </c>
+      <c r="Y84" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="85" spans="22:25" x14ac:dyDescent="0.2">
+      <c r="V85" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="Z82" s="7">
-        <f>AF6</f>
-        <v>0</v>
-      </c>
-      <c r="AA82" s="7">
-        <v>2</v>
-      </c>
-      <c r="AB82" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="83" spans="25:28" x14ac:dyDescent="0.2">
-      <c r="Y83" s="6" t="s">
+      <c r="W85" s="7">
+        <f>AD5</f>
+        <v>0</v>
+      </c>
+      <c r="X85" s="7">
+        <v>3</v>
+      </c>
+      <c r="Y85" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="86" spans="22:25" x14ac:dyDescent="0.2">
+      <c r="V86" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="Z83" s="7">
-        <f>AG3</f>
+      <c r="W86" s="7">
+        <f>AD6</f>
+        <v>2</v>
+      </c>
+      <c r="X86" s="7">
         <v>3</v>
       </c>
-      <c r="AA83" s="7">
-        <v>3</v>
-      </c>
-      <c r="AB83" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="84" spans="25:28" x14ac:dyDescent="0.2">
-      <c r="Y84" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="Z84" s="7">
-        <f>AG4</f>
-        <v>0</v>
-      </c>
-      <c r="AA84" s="7">
-        <v>3</v>
-      </c>
-      <c r="AB84" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="85" spans="25:28" x14ac:dyDescent="0.2">
-      <c r="Y85" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="Z85" s="7">
-        <f>AG5</f>
-        <v>0</v>
-      </c>
-      <c r="AA85" s="7">
-        <v>3</v>
-      </c>
-      <c r="AB85" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="86" spans="25:28" x14ac:dyDescent="0.2">
-      <c r="Y86" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="Z86" s="7">
-        <f>AG6</f>
-        <v>2</v>
-      </c>
-      <c r="AA86" s="7">
-        <v>3</v>
-      </c>
-      <c r="AB86" s="7" t="s">
-        <v>83</v>
+      <c r="Y86" s="7" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:V61"/>
+  <autoFilter ref="A1:S61"/>
   <mergeCells count="1">
-    <mergeCell ref="Z5:AB5"/>
+    <mergeCell ref="W5:Y5"/>
   </mergeCells>
-  <conditionalFormatting sqref="N1:P1048576">
+  <conditionalFormatting sqref="K1:M1048576">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
